--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V610"/>
+  <dimension ref="A1:V611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>31/01/2023 01:42</t>
+          <t>03/02/2023 13:42</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/02/2023 20:56</t>
+          <t>05/02/2023 19:00</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.01</v>
+        <v>3.31</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>31/01/2023 01:42</t>
+          <t>03/02/2023 13:42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/02/2023 20:53</t>
+          <t>05/02/2023 20:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.57</v>
+        <v>5.14</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>31/01/2023 01:42</t>
+          <t>03/02/2023 13:42</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>4.41</v>
+        <v>6.3</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/02/2023 20:56</t>
+          <t>05/02/2023 20:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-san-telmo/tj6ALZjs/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-unidos/UBxh3hyD/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>03/02/2023 13:42</t>
+          <t>31/01/2023 01:42</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/02/2023 19:00</t>
+          <t>05/02/2023 20:56</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.31</v>
+        <v>3.01</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>03/02/2023 13:42</t>
+          <t>31/01/2023 01:42</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/02/2023 20:57</t>
+          <t>05/02/2023 20:53</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.14</v>
+        <v>3.57</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>03/02/2023 13:42</t>
+          <t>31/01/2023 01:42</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>6.3</v>
+        <v>4.41</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/02/2023 20:57</t>
+          <t>05/02/2023 20:56</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-unidos/UBxh3hyD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-san-telmo/tj6ALZjs/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.27</v>
+        <v>2.48</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.53</v>
+        <v>3.37</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.36</v>
+        <v>3.02</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-defensores-de-belgrano/O0n2jtob/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-alvarado/2FPlsx8p/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.48</v>
+        <v>1.68</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:52</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.9</v>
+        <v>3.51</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:52</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.37</v>
+        <v>5.92</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.02</v>
+        <v>4.46</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:52</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-alvarado/2FPlsx8p/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-almirante-brown/2io6k004/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.68</v>
+        <v>2.52</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.13</v>
+        <v>2.84</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>11/02/2023 20:52</t>
+          <t>11/02/2023 20:49</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.51</v>
+        <v>3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>11/02/2023 20:52</t>
+          <t>11/02/2023 20:49</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.92</v>
+        <v>3.18</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.46</v>
+        <v>3.02</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>11/02/2023 20:52</t>
+          <t>11/02/2023 20:49</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-almirante-brown/2io6k004/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ca-mitre/4UjzGVKI/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,34 +2053,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 17:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11/02/2023 20:49</t>
+          <t>11/02/2023 17:17</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 17:12</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2088,28 +2088,28 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>11/02/2023 20:49</t>
+          <t>10/02/2023 21:22</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.18</v>
+        <v>3.64</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 17:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.02</v>
+        <v>3.82</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>11/02/2023 20:49</t>
+          <t>11/02/2023 20:16</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ca-mitre/4UjzGVKI/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chacarita-juniors/tfE3b3ko/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>08/02/2023 17:12</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11/02/2023 17:17</t>
+          <t>11/02/2023 20:15</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>08/02/2023 17:12</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>10/02/2023 21:22</t>
+          <t>11/02/2023 20:14</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>08/02/2023 17:12</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>11/02/2023 20:16</t>
+          <t>11/02/2023 20:15</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chacarita-juniors/tfE3b3ko/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-racing-cordoba/jPefLQdb/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.35</v>
+        <v>2.78</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11/02/2023 20:15</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>11/02/2023 20:14</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.5</v>
+        <v>2.93</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>11/02/2023 20:15</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-racing-cordoba/jPefLQdb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.78</v>
+        <v>3.27</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>11/02/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>08/02/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>11/02/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>2.53</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>11/02/2023 20:53</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>10/02/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11/02/2023 20:53</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>2.93</v>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-defensores-de-belgrano/O0n2jtob/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.72</v>
+        <v>3.03</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.58</v>
+        <v>2.8</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>17/02/2023 23:43</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.76</v>
+        <v>2.56</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>16/02/2023 15:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:59</t>
+          <t>18/02/2023 00:29</t>
         </is>
       </c>
       <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>18/02/2023 00:15</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
         <v>3.37</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>18/02/2023 00:56</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:56</t>
+          <t>18/02/2023 00:41</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:29</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:15</t>
+          <t>18/02/2023 00:45</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:41</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.91</v>
+        <v>3.34</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:45</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.11</v>
+        <v>4.67</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.12</v>
+        <v>6.58</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>17/02/2023 23:43</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.93</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:49</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.61</v>
+        <v>4.02</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.52</v>
+        <v>3.51</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-patronato/d83VCfbS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-estudiantes-rio-cuarto/4vWIHIqc/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 00:54</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.77</v>
+        <v>3.27</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>25/02/2023 20:49</t>
+          <t>25/02/2023 00:54</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.02</v>
+        <v>3.88</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.51</v>
+        <v>4.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>25/02/2023 20:53</t>
+          <t>25/02/2023 20:41</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-estudiantes-rio-cuarto/4vWIHIqc/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-gimnasia-jujuy/YwfQg11J/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/02/2023 00:54</t>
+          <t>25/02/2023 20:51</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.27</v>
+        <v>2.99</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.27</v>
+        <v>2.83</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/02/2023 00:54</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.88</v>
+        <v>3.83</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.48</v>
+        <v>3.94</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/02/2023 20:41</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-gimnasia-jujuy/YwfQg11J/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atletico-atlanta/rkRXmBD0/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.28</v>
+        <v>3.42</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:51</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.83</v>
+        <v>3.02</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.94</v>
+        <v>2.48</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atletico-atlanta/rkRXmBD0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-ferro/U5Tqo9cJ/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.35</v>
+        <v>2.93</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.19</v>
+        <v>2.89</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.02</v>
+        <v>2.61</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-ferro/U5Tqo9cJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-patronato/d83VCfbS/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.07</v>
+        <v>2.23</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.28</v>
+        <v>1.79</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:58</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2.8</v>
+        <v>3.27</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:51</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.77</v>
+        <v>3.95</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.62</v>
+        <v>5.49</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:58</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-deportivo-moron/AJc8OQds/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atletico-atlanta/IVcr0xOh/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.23</v>
+        <v>3.07</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.79</v>
+        <v>3.28</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.27</v>
+        <v>2.8</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.95</v>
+        <v>2.77</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.49</v>
+        <v>2.62</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atletico-atlanta/IVcr0xOh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-deportivo-moron/AJc8OQds/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.22</v>
+        <v>3.36</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
+          <t>25/03/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>22/03/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
           <t>25/03/2023 19:20</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>24/03/2023 07:42</t>
-        </is>
-      </c>
-      <c r="P120" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>25/03/2023 19:28</t>
-        </is>
-      </c>
       <c r="R120" t="n">
-        <v>3.59</v>
+        <v>2.43</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.35</v>
+        <v>3.21</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:28</t>
+          <t>25/03/2023 19:24</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-brown-adrogue/hpUy64jq/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-t/fqLaIAi5/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.36</v>
+        <v>2.22</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:24</t>
+          <t>25/03/2023 19:20</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:20</t>
+          <t>25/03/2023 19:28</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.43</v>
+        <v>3.59</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.21</v>
+        <v>4.35</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:24</t>
+          <t>25/03/2023 19:28</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-t/fqLaIAi5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-brown-adrogue/hpUy64jq/</t>
         </is>
       </c>
     </row>
@@ -12533,46 +12533,46 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>25/03/2023 18:42</t>
+          <t>26/03/2023 08:19</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>26/03/2023 20:22</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>25/03/2023 18:42</t>
+          <t>26/03/2023 08:19</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -12580,15 +12580,15 @@
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.04</v>
+        <v>3.12</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>25/03/2023 18:42</t>
+          <t>26/03/2023 08:19</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-estudiantes-rio-cuarto/88z5F8yO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-deportivo-riestra/QVDeQYyb/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,14 +12633,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.12</v>
+        <v>2.78</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.42</v>
+        <v>3.32</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-deportivo-riestra/QVDeQYyb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atletico-atlanta/6TcfSf7o/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>26/03/2023 08:19</t>
+          <t>25/03/2023 18:42</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 20:22</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>26/03/2023 08:19</t>
+          <t>25/03/2023 18:42</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.78</v>
+        <v>4.04</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>26/03/2023 08:19</t>
+          <t>25/03/2023 18:42</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atletico-atlanta/6TcfSf7o/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-estudiantes-rio-cuarto/88z5F8yO/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
         <v>1</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Def. de Belgrano</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
       <c r="J157" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:23</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.9</v>
+        <v>4.62</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>4.01</v>
+        <v>5.77</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.19</v>
+        <v>2.81</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:23</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.62</v>
+        <v>3.9</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>5.77</v>
+        <v>4.01</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:47</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>08/04/2023 16:14</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.62</v>
+        <v>4.89</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.3</v>
+        <v>5.26</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:47</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-ferro/SzlDvPd8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-atletico-atlanta/h4dNH1ke/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:47</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 16:14</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.89</v>
+        <v>3.62</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>5.26</v>
+        <v>4.3</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:47</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-atletico-atlanta/h4dNH1ke/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-ferro/SzlDvPd8/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.57</v>
+        <v>1.88</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.24</v>
+        <v>1.89</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2.93</v>
+        <v>3.21</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2.78</v>
+        <v>3.03</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.94</v>
+        <v>4.34</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-san-martin-t/rRfZeHuR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.53</v>
+        <v>3.24</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>3.21</v>
+        <v>2.94</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>3.52</v>
+        <v>2.66</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-san-martin-t/rRfZeHuR/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,48 +17524,48 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="N186" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>15/04/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>3.21</v>
       </c>
-      <c r="O186" t="inlineStr">
+      <c r="S186" t="inlineStr">
         <is>
           <t>13/04/2023 13:12</t>
         </is>
       </c>
-      <c r="P186" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>15/04/2023 20:21</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>13/04/2023 13:12</t>
-        </is>
-      </c>
       <c r="T186" t="n">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>2.82</v>
+        <v>3.28</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.54</v>
+        <v>4.03</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.28</v>
+        <v>2.82</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.03</v>
+        <v>3.54</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.74</v>
+        <v>4.33</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.1</v>
+        <v>3.26</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>4.33</v>
+        <v>2.74</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>2.37</v>
+        <v>2.71</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>3.38</v>
+        <v>2.97</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>3.68</v>
+        <v>3.08</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atl-rafaela/YcU1bJms/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>5.88</v>
+        <v>3.68</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Atl. Rafaela</t>
-        </is>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
       <c r="J202" t="n">
-        <v>2.71</v>
+        <v>2.09</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>2.59</v>
+        <v>1.8</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>2.97</v>
+        <v>4.22</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="T202" t="n">
-        <v>3.08</v>
+        <v>5.88</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atl-rafaela/YcU1bJms/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 18:54</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>4.52</v>
+        <v>3.39</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>5.39</v>
+        <v>3.47</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>2.35</v>
+        <v>3.29</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.55</v>
+        <v>3.59</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>23/04/2023 18:54</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.39</v>
+        <v>2.47</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.47</v>
+        <v>2.33</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>San Martin S.J.</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>2</v>
-      </c>
       <c r="J209" t="n">
-        <v>3.29</v>
+        <v>1.85</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>3.59</v>
+        <v>1.9</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.89</v>
+        <v>3.19</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19660,11 +19660,11 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>2.47</v>
+        <v>4.52</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2.33</v>
+        <v>5.39</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,63 +20545,63 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>2.76</v>
+        <v>1.99</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>3.53</v>
+        <v>2.29</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>2.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 18:24</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>2.66</v>
+        <v>4.13</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,63 +20637,63 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.29</v>
+        <v>3.53</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3.11</v>
+        <v>2.8</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/04/2023 18:24</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>4.13</v>
+        <v>2.66</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>3.48</v>
+        <v>2.47</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
         </is>
       </c>
     </row>
@@ -21181,22 +21181,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>San Martin T.</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Temperley</t>
-        </is>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
       <c r="J226" t="n">
-        <v>3.15</v>
+        <v>2.41</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>2.59</v>
+        <v>3.66</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.49</v>
+        <v>3.56</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
         </is>
       </c>
     </row>
@@ -21273,71 +21273,71 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I227" t="n">
         <v>1</v>
       </c>
       <c r="J227" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3.12</v>
+        <v>2.66</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>3.72</v>
+        <v>2.59</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T227" t="n">
-        <v>5.81</v>
+        <v>2.49</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:59</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -21373,63 +21373,63 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T228" t="n">
-        <v>3.56</v>
+        <v>5.81</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:59</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J238" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.09</v>
+        <v>2.92</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:27</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3.97</v>
+        <v>3.74</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>3.84</v>
+        <v>2.94</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
         </is>
       </c>
     </row>
@@ -22377,22 +22377,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I239" t="n">
         <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3.43</v>
+        <v>3.97</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>4.4</v>
+        <v>3.84</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J240" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,15 +22492,15 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,15 +22508,15 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:27</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>3.74</v>
+        <v>3.43</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>5.02</v>
+        <v>5.68</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.98</v>
+        <v>4.26</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.68</v>
+        <v>4.2</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>2.95</v>
+        <v>3.27</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>4.26</v>
+        <v>3.81</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>4.2</v>
+        <v>5.02</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>2.88</v>
+        <v>3.16</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:27</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.29</v>
+        <v>5.56</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>07/05/2023 19:54</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:27</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>5.56</v>
+        <v>3.29</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 19:54</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>1</v>
       </c>
       <c r="J272" t="n">
-        <v>3.13</v>
+        <v>2.33</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>3.89</v>
+        <v>2.35</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>2.53</v>
+        <v>3.4</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>2.16</v>
+        <v>3.52</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -25505,22 +25505,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>3.01</v>
+        <v>1.69</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -25528,15 +25528,15 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>3.13</v>
+        <v>1.68</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>2.91</v>
+        <v>3.33</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -25544,15 +25544,15 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>2.88</v>
+        <v>3.47</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>2.65</v>
+        <v>5.95</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
@@ -25560,16 +25560,16 @@
         </is>
       </c>
       <c r="T273" t="n">
-        <v>2.66</v>
+        <v>6.13</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -25597,7 +25597,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -25605,63 +25605,63 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>2.16</v>
+        <v>3.01</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.58</v>
+        <v>3.13</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.71</v>
+        <v>2.65</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T274" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -25697,14 +25697,14 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I275" t="n">
         <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>1.69</v>
+        <v>3.13</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -25712,15 +25712,15 @@
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1.68</v>
+        <v>3.89</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -25728,15 +25728,15 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
@@ -25744,16 +25744,16 @@
         </is>
       </c>
       <c r="T275" t="n">
-        <v>6.13</v>
+        <v>2.16</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25781,34 +25781,34 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.99</v>
+        <v>2.58</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="N276" t="n">
@@ -25816,36 +25816,36 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.02</v>
+        <v>2.7</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>3.89</v>
+        <v>3.71</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>4.68</v>
+        <v>3.5</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
         </is>
       </c>
     </row>
@@ -25873,22 +25873,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J277" t="n">
-        <v>2.33</v>
+        <v>2.03</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,48 +25896,48 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="N277" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
         <v>3.02</v>
       </c>
-      <c r="O277" t="inlineStr">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S277" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="P277" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q277" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:27</t>
-        </is>
-      </c>
-      <c r="R277" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:42</t>
-        </is>
-      </c>
       <c r="T277" t="n">
-        <v>3.52</v>
+        <v>4.68</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -26425,71 +26425,71 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>2.95</v>
+        <v>4.27</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>4.25</v>
+        <v>7.72</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T283" t="n">
-        <v>3.7</v>
+        <v>10.73</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.27</v>
+        <v>2.95</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.12</v>
+        <v>2.74</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>7.72</v>
+        <v>4.25</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>10.73</v>
+        <v>3.7</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
         </is>
       </c>
     </row>
@@ -27161,22 +27161,22 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G291" t="n">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>Ind. Rivadavia</t>
-        </is>
-      </c>
-      <c r="I291" t="n">
-        <v>3</v>
-      </c>
       <c r="J291" t="n">
-        <v>3.61</v>
+        <v>2.17</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         </is>
       </c>
       <c r="L291" t="n">
-        <v>3.83</v>
+        <v>2.24</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         </is>
       </c>
       <c r="N291" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -27200,15 +27200,15 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>27/05/2023 19:52</t>
+          <t>27/05/2023 19:55</t>
         </is>
       </c>
       <c r="R291" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         </is>
       </c>
       <c r="T291" t="n">
-        <v>2.11</v>
+        <v>3.95</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ind-rivadavia/pWAYLY22/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chaco-for-ever/OM9xLhI8/</t>
         </is>
       </c>
     </row>
@@ -27253,22 +27253,22 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J292" t="n">
-        <v>2.17</v>
+        <v>3.61</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="L292" t="n">
-        <v>2.24</v>
+        <v>3.83</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         </is>
       </c>
       <c r="N292" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -27292,32 +27292,32 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
+          <t>27/05/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>24/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T292" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
           <t>27/05/2023 19:55</t>
         </is>
       </c>
-      <c r="R292" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S292" t="inlineStr">
-        <is>
-          <t>24/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T292" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U292" t="inlineStr">
-        <is>
-          <t>27/05/2023 19:55</t>
-        </is>
-      </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chaco-for-ever/OM9xLhI8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ind-rivadavia/pWAYLY22/</t>
         </is>
       </c>
     </row>
@@ -27805,22 +27805,22 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>2</v>
       </c>
       <c r="J298" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -27828,15 +27828,15 @@
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1.89</v>
+        <v>2.43</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>28/05/2023 20:28</t>
+          <t>28/05/2023 20:25</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3.5</v>
+        <v>3.07</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
@@ -27844,15 +27844,15 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:25</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>4.64</v>
+        <v>3.9</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
@@ -27860,16 +27860,16 @@
         </is>
       </c>
       <c r="T298" t="n">
-        <v>5.59</v>
+        <v>3.79</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:25</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-aldosivi/dGHjckQ1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-unidos/4W5JuajM/</t>
         </is>
       </c>
     </row>
@@ -27897,22 +27897,22 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I299" t="n">
         <v>2</v>
       </c>
       <c r="J299" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -27920,15 +27920,15 @@
         </is>
       </c>
       <c r="L299" t="n">
-        <v>2.43</v>
+        <v>1.89</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>28/05/2023 20:25</t>
+          <t>28/05/2023 20:28</t>
         </is>
       </c>
       <c r="N299" t="n">
-        <v>3.07</v>
+        <v>3.5</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
@@ -27936,15 +27936,15 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>28/05/2023 20:25</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R299" t="n">
-        <v>3.9</v>
+        <v>4.64</v>
       </c>
       <c r="S299" t="inlineStr">
         <is>
@@ -27952,16 +27952,16 @@
         </is>
       </c>
       <c r="T299" t="n">
-        <v>3.79</v>
+        <v>5.59</v>
       </c>
       <c r="U299" t="inlineStr">
         <is>
-          <t>28/05/2023 20:25</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V299" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-unidos/4W5JuajM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-aldosivi/dGHjckQ1/</t>
         </is>
       </c>
     </row>
@@ -30749,71 +30749,71 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G330" t="n">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Deportivo Moron</t>
-        </is>
-      </c>
-      <c r="I330" t="n">
-        <v>1</v>
-      </c>
       <c r="J330" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>07/06/2023 17:12</t>
+          <t>08/06/2023 16:42</t>
         </is>
       </c>
       <c r="L330" t="n">
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>10/06/2023 20:29</t>
+          <t>10/06/2023 20:26</t>
         </is>
       </c>
       <c r="N330" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>08/06/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>10/06/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R330" t="n">
         <v>2.83</v>
       </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>07/06/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P330" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q330" t="inlineStr">
-        <is>
-          <t>10/06/2023 20:29</t>
-        </is>
-      </c>
-      <c r="R330" t="n">
-        <v>3.95</v>
-      </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>07/06/2023 17:12</t>
+          <t>08/06/2023 16:42</t>
         </is>
       </c>
       <c r="T330" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="U330" t="inlineStr">
         <is>
-          <t>10/06/2023 20:29</t>
+          <t>10/06/2023 20:26</t>
         </is>
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-deportivo-moron/Czl5q28f/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-gimnasia-mendoza/zgoxj4VQ/</t>
         </is>
       </c>
     </row>
@@ -30841,71 +30841,71 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Deportivo Moron</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
         <v>1</v>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
       <c r="J331" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="L331" t="n">
-        <v>2.92</v>
+        <v>2.61</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:26</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>3.05</v>
+        <v>2.83</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:22</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="R331" t="n">
-        <v>2.83</v>
+        <v>3.95</v>
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="T331" t="n">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="U331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:26</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="V331" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-gimnasia-mendoza/zgoxj4VQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-deportivo-moron/Czl5q28f/</t>
         </is>
       </c>
     </row>
@@ -32037,22 +32037,22 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I344" t="n">
         <v>1</v>
       </c>
       <c r="J344" t="n">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -32060,15 +32060,15 @@
         </is>
       </c>
       <c r="L344" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>3.73</v>
+        <v>3.02</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -32076,15 +32076,15 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>4.34</v>
+        <v>2.91</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="R344" t="n">
-        <v>7.08</v>
+        <v>4.16</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
@@ -32092,16 +32092,16 @@
         </is>
       </c>
       <c r="T344" t="n">
-        <v>9.16</v>
+        <v>3.85</v>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-villa-dalmine/8xWH9JFO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-guillermo-brown/Y7mlqgEB/</t>
         </is>
       </c>
     </row>
@@ -32129,22 +32129,22 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I345" t="n">
         <v>1</v>
       </c>
       <c r="J345" t="n">
-        <v>2.07</v>
+        <v>1.54</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -32152,15 +32152,15 @@
         </is>
       </c>
       <c r="L345" t="n">
-        <v>2.26</v>
+        <v>1.41</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>3.02</v>
+        <v>3.73</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -32168,15 +32168,15 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>2.91</v>
+        <v>4.34</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="R345" t="n">
-        <v>4.16</v>
+        <v>7.08</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
@@ -32184,16 +32184,16 @@
         </is>
       </c>
       <c r="T345" t="n">
-        <v>3.85</v>
+        <v>9.16</v>
       </c>
       <c r="U345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="V345" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-guillermo-brown/Y7mlqgEB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-villa-dalmine/8xWH9JFO/</t>
         </is>
       </c>
     </row>
@@ -33049,22 +33049,22 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G355" t="n">
+        <v>2</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
         <v>1</v>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>Tristan Suarez</t>
-        </is>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
       <c r="J355" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -33072,15 +33072,15 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -33088,15 +33088,15 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>3.99</v>
+        <v>4.12</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
@@ -33104,16 +33104,16 @@
         </is>
       </c>
       <c r="T355" t="n">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
         </is>
       </c>
     </row>
@@ -33141,22 +33141,22 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="I356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -33164,15 +33164,15 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -33180,15 +33180,15 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>2.64</v>
+        <v>3.04</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="R356" t="n">
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
@@ -33196,16 +33196,16 @@
         </is>
       </c>
       <c r="T356" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="U356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
         </is>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -36553,14 +36553,14 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I393" t="n">
         <v>2</v>
       </c>
       <c r="J393" t="n">
-        <v>2.48</v>
+        <v>3.16</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -36568,15 +36568,15 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>2.55</v>
+        <v>3.46</v>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="N393" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -36584,15 +36584,15 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="R393" t="n">
-        <v>3.27</v>
+        <v>2.54</v>
       </c>
       <c r="S393" t="inlineStr">
         <is>
@@ -36600,16 +36600,16 @@
         </is>
       </c>
       <c r="T393" t="n">
-        <v>3.34</v>
+        <v>2.32</v>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="V393" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
         </is>
       </c>
     </row>
@@ -36637,7 +36637,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -36645,14 +36645,14 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J394" t="n">
-        <v>3.16</v>
+        <v>2.21</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -36660,15 +36660,15 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>3.46</v>
+        <v>2.38</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="N394" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -36676,15 +36676,15 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="R394" t="n">
-        <v>2.54</v>
+        <v>3.65</v>
       </c>
       <c r="S394" t="inlineStr">
         <is>
@@ -36692,16 +36692,16 @@
         </is>
       </c>
       <c r="T394" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="V394" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
         </is>
       </c>
     </row>
@@ -36729,7 +36729,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -36737,14 +36737,14 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395" t="n">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -36752,15 +36752,15 @@
         </is>
       </c>
       <c r="L395" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="N395" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -36768,15 +36768,15 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="R395" t="n">
-        <v>3.65</v>
+        <v>3.27</v>
       </c>
       <c r="S395" t="inlineStr">
         <is>
@@ -36784,16 +36784,16 @@
         </is>
       </c>
       <c r="T395" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="V395" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
         </is>
       </c>
     </row>
@@ -38201,7 +38201,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G411" t="n">
@@ -38209,22 +38209,22 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J411" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 22:12</t>
         </is>
       </c>
       <c r="L411" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="M411" t="inlineStr">
         <is>
@@ -38232,40 +38232,40 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 22:12</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
+          <t>15/07/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R411" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>11/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T411" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
           <t>15/07/2023 20:59</t>
         </is>
       </c>
-      <c r="R411" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S411" t="inlineStr">
-        <is>
-          <t>11/07/2023 17:42</t>
-        </is>
-      </c>
-      <c r="T411" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="U411" t="inlineStr">
-        <is>
-          <t>15/07/2023 20:59</t>
-        </is>
-      </c>
       <c r="V411" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ca-estudiantes/l2f56m48/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-gimnasia-mendoza/YNJkIJAl/</t>
         </is>
       </c>
     </row>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -38301,22 +38301,22 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J412" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="L412" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
@@ -38324,31 +38324,31 @@
         </is>
       </c>
       <c r="N412" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>2.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>15/07/2023 20:58</t>
+          <t>15/07/2023 20:59</t>
         </is>
       </c>
       <c r="R412" t="n">
-        <v>3.57</v>
+        <v>4.06</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="T412" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="U412" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-gimnasia-mendoza/YNJkIJAl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ca-estudiantes/l2f56m48/</t>
         </is>
       </c>
     </row>
@@ -38569,7 +38569,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G415" t="n">
@@ -38577,14 +38577,14 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
       <c r="J415" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -38592,15 +38592,15 @@
         </is>
       </c>
       <c r="L415" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>16/07/2023 20:20</t>
+          <t>16/07/2023 20:27</t>
         </is>
       </c>
       <c r="N415" t="n">
-        <v>3.85</v>
+        <v>3.37</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
@@ -38608,15 +38608,15 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3.82</v>
+        <v>3.23</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>16/07/2023 20:20</t>
+          <t>16/07/2023 20:27</t>
         </is>
       </c>
       <c r="R415" t="n">
-        <v>6.67</v>
+        <v>5.46</v>
       </c>
       <c r="S415" t="inlineStr">
         <is>
@@ -38624,16 +38624,16 @@
         </is>
       </c>
       <c r="T415" t="n">
-        <v>7.31</v>
+        <v>4.81</v>
       </c>
       <c r="U415" t="inlineStr">
         <is>
-          <t>16/07/2023 20:20</t>
+          <t>16/07/2023 20:27</t>
         </is>
       </c>
       <c r="V415" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-villa-dalmine/vXCEqQde/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-deportivo-madryn/Me2JrpC1/</t>
         </is>
       </c>
     </row>
@@ -38661,7 +38661,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -38669,14 +38669,14 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
       <c r="J416" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -38684,15 +38684,15 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>16/07/2023 20:27</t>
+          <t>16/07/2023 20:20</t>
         </is>
       </c>
       <c r="N416" t="n">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -38700,15 +38700,15 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3.23</v>
+        <v>3.82</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>16/07/2023 20:27</t>
+          <t>16/07/2023 20:20</t>
         </is>
       </c>
       <c r="R416" t="n">
-        <v>5.46</v>
+        <v>6.67</v>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -38716,16 +38716,16 @@
         </is>
       </c>
       <c r="T416" t="n">
-        <v>4.81</v>
+        <v>7.31</v>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>16/07/2023 20:27</t>
+          <t>16/07/2023 20:20</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-deportivo-madryn/Me2JrpC1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-villa-dalmine/vXCEqQde/</t>
         </is>
       </c>
     </row>
@@ -38937,71 +38937,71 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I419" t="n">
         <v>2</v>
       </c>
       <c r="J419" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 17:43</t>
         </is>
       </c>
       <c r="L419" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>17/07/2023 19:29</t>
+          <t>17/07/2023 19:50</t>
         </is>
       </c>
       <c r="N419" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 17:43</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>17/07/2023 19:29</t>
+          <t>17/07/2023 19:42</t>
         </is>
       </c>
       <c r="R419" t="n">
-        <v>5.02</v>
+        <v>4.68</v>
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 17:43</t>
         </is>
       </c>
       <c r="T419" t="n">
-        <v>6.49</v>
+        <v>5.43</v>
       </c>
       <c r="U419" t="inlineStr">
         <is>
-          <t>17/07/2023 19:29</t>
+          <t>17/07/2023 19:50</t>
         </is>
       </c>
       <c r="V419" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-de-belgrano-defensores-unidos/6939xld3/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-aldosivi/vZiY3frA/</t>
         </is>
       </c>
     </row>
@@ -39029,71 +39029,71 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I420" t="n">
         <v>2</v>
       </c>
       <c r="J420" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>11/07/2023 17:43</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="L420" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>17/07/2023 19:50</t>
+          <t>17/07/2023 19:29</t>
         </is>
       </c>
       <c r="N420" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>11/07/2023 17:43</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>17/07/2023 19:42</t>
+          <t>17/07/2023 19:29</t>
         </is>
       </c>
       <c r="R420" t="n">
-        <v>4.68</v>
+        <v>5.02</v>
       </c>
       <c r="S420" t="inlineStr">
         <is>
-          <t>11/07/2023 17:43</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="T420" t="n">
-        <v>5.43</v>
+        <v>6.49</v>
       </c>
       <c r="U420" t="inlineStr">
         <is>
-          <t>17/07/2023 19:50</t>
+          <t>17/07/2023 19:29</t>
         </is>
       </c>
       <c r="V420" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-aldosivi/vZiY3frA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-de-belgrano-defensores-unidos/6939xld3/</t>
         </is>
       </c>
     </row>
@@ -39489,71 +39489,71 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
         <v>1</v>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
-      <c r="I425" t="n">
-        <v>0</v>
-      </c>
       <c r="J425" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>2.11</v>
+        <v>3.39</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>4.19</v>
+        <v>2.71</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
         </is>
       </c>
     </row>
@@ -39581,71 +39581,71 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Ferro</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="I426" t="n">
-        <v>1</v>
-      </c>
       <c r="J426" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>3.39</v>
+        <v>2.11</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="T426" t="n">
-        <v>2.71</v>
+        <v>4.19</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
         </is>
       </c>
     </row>
@@ -40041,71 +40041,71 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I431" t="n">
         <v>1</v>
       </c>
       <c r="J431" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L431" t="n">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="N431" t="n">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="R431" t="n">
-        <v>4.84</v>
+        <v>5.06</v>
       </c>
       <c r="S431" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T431" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="U431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="V431" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-club-atletico-guemes/SpJgHwQf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-racing-cordoba/vglkd3t1/</t>
         </is>
       </c>
     </row>
@@ -40133,22 +40133,22 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G432" t="n">
+        <v>1</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
         <v>2</v>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>Racing Cordoba</t>
-        </is>
-      </c>
-      <c r="I432" t="n">
-        <v>1</v>
-      </c>
       <c r="J432" t="n">
-        <v>1.77</v>
+        <v>2.39</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -40156,15 +40156,15 @@
         </is>
       </c>
       <c r="L432" t="n">
-        <v>1.65</v>
+        <v>3.14</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="N432" t="n">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="O432" t="inlineStr">
         <is>
@@ -40172,15 +40172,15 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>3.44</v>
+        <v>2.77</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="R432" t="n">
-        <v>5.06</v>
+        <v>3.46</v>
       </c>
       <c r="S432" t="inlineStr">
         <is>
@@ -40188,16 +40188,16 @@
         </is>
       </c>
       <c r="T432" t="n">
-        <v>6.6</v>
+        <v>2.74</v>
       </c>
       <c r="U432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="V432" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-racing-cordoba/vglkd3t1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chacarita-juniors/lOVuJQmE/</t>
         </is>
       </c>
     </row>
@@ -40225,7 +40225,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G433" t="n">
@@ -40233,14 +40233,14 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I433" t="n">
         <v>2</v>
       </c>
       <c r="J433" t="n">
-        <v>2.39</v>
+        <v>4.35</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -40248,15 +40248,15 @@
         </is>
       </c>
       <c r="L433" t="n">
-        <v>3.14</v>
+        <v>4.78</v>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:28</t>
         </is>
       </c>
       <c r="N433" t="n">
-        <v>2.88</v>
+        <v>3.13</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
@@ -40264,15 +40264,15 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2.77</v>
+        <v>3.22</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="R433" t="n">
-        <v>3.46</v>
+        <v>1.97</v>
       </c>
       <c r="S433" t="inlineStr">
         <is>
@@ -40280,16 +40280,16 @@
         </is>
       </c>
       <c r="T433" t="n">
-        <v>2.74</v>
+        <v>1.9</v>
       </c>
       <c r="U433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:28</t>
         </is>
       </c>
       <c r="V433" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chacarita-juniors/lOVuJQmE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-deportivo-riestra/02kocqRf/</t>
         </is>
       </c>
     </row>
@@ -40317,71 +40317,71 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Club A. Guemes</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
         <v>1</v>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>Dep. Riestra</t>
-        </is>
-      </c>
-      <c r="I434" t="n">
-        <v>2</v>
-      </c>
       <c r="J434" t="n">
-        <v>4.35</v>
+        <v>1.76</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="L434" t="n">
-        <v>4.78</v>
+        <v>2.01</v>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:28</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="N434" t="n">
-        <v>3.13</v>
+        <v>3.29</v>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>3.22</v>
+        <v>2.98</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="R434" t="n">
-        <v>1.97</v>
+        <v>4.84</v>
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="T434" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="U434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:28</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="V434" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-deportivo-riestra/02kocqRf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-club-atletico-guemes/SpJgHwQf/</t>
         </is>
       </c>
     </row>
@@ -41605,22 +41605,22 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
       <c r="J448" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -41628,15 +41628,15 @@
         </is>
       </c>
       <c r="L448" t="n">
-        <v>2.44</v>
+        <v>2.01</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:27</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="N448" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O448" t="inlineStr">
         <is>
@@ -41644,15 +41644,15 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2.77</v>
+        <v>3.24</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:26</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="R448" t="n">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="S448" t="inlineStr">
         <is>
@@ -41660,16 +41660,16 @@
         </is>
       </c>
       <c r="T448" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="U448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:28</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="V448" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-patronato/E136qd9m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-mitre/dlZmH4IQ/</t>
         </is>
       </c>
     </row>
@@ -41697,22 +41697,22 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G449" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -41720,15 +41720,15 @@
         </is>
       </c>
       <c r="L449" t="n">
-        <v>2.01</v>
+        <v>2.44</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:27</t>
         </is>
       </c>
       <c r="N449" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O449" t="inlineStr">
         <is>
@@ -41736,15 +41736,15 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3.24</v>
+        <v>2.77</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:26</t>
         </is>
       </c>
       <c r="R449" t="n">
-        <v>3.25</v>
+        <v>3.46</v>
       </c>
       <c r="S449" t="inlineStr">
         <is>
@@ -41752,16 +41752,16 @@
         </is>
       </c>
       <c r="T449" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="U449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:28</t>
         </is>
       </c>
       <c r="V449" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-mitre/dlZmH4IQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-patronato/E136qd9m/</t>
         </is>
       </c>
     </row>
@@ -41881,22 +41881,22 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G451" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
       <c r="J451" t="n">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -41904,15 +41904,15 @@
         </is>
       </c>
       <c r="L451" t="n">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:52</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="N451" t="n">
-        <v>4.21</v>
+        <v>2.99</v>
       </c>
       <c r="O451" t="inlineStr">
         <is>
@@ -41920,15 +41920,15 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>4.24</v>
+        <v>2.97</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:58</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="R451" t="n">
-        <v>8.050000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="S451" t="inlineStr">
         <is>
@@ -41936,16 +41936,16 @@
         </is>
       </c>
       <c r="T451" t="n">
-        <v>7.3</v>
+        <v>3.44</v>
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:58</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="V451" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-villa-dalmine/YTSR9MA0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-madryn/CKRV8tQ6/</t>
         </is>
       </c>
     </row>
@@ -41973,22 +41973,22 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
       <c r="J452" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -41996,15 +41996,15 @@
         </is>
       </c>
       <c r="L452" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:52</t>
         </is>
       </c>
       <c r="N452" t="n">
-        <v>2.99</v>
+        <v>4.21</v>
       </c>
       <c r="O452" t="inlineStr">
         <is>
@@ -42012,15 +42012,15 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2.97</v>
+        <v>4.24</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:58</t>
         </is>
       </c>
       <c r="R452" t="n">
-        <v>3.75</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="S452" t="inlineStr">
         <is>
@@ -42028,16 +42028,16 @@
         </is>
       </c>
       <c r="T452" t="n">
-        <v>3.44</v>
+        <v>7.3</v>
       </c>
       <c r="U452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:58</t>
         </is>
       </c>
       <c r="V452" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-madryn/CKRV8tQ6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-villa-dalmine/YTSR9MA0/</t>
         </is>
       </c>
     </row>
@@ -43261,22 +43261,22 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -43284,15 +43284,15 @@
         </is>
       </c>
       <c r="L466" t="n">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:52</t>
         </is>
       </c>
       <c r="N466" t="n">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="O466" t="inlineStr">
         <is>
@@ -43300,15 +43300,15 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:52</t>
         </is>
       </c>
       <c r="R466" t="n">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="S466" t="inlineStr">
         <is>
@@ -43316,16 +43316,16 @@
         </is>
       </c>
       <c r="T466" t="n">
-        <v>4.16</v>
+        <v>4.32</v>
       </c>
       <c r="U466" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:52</t>
         </is>
       </c>
       <c r="V466" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-brown-adrogue/zgDQUNnQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-riestra/6sm5Nuu0/</t>
         </is>
       </c>
     </row>
@@ -43353,22 +43353,22 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -43376,15 +43376,15 @@
         </is>
       </c>
       <c r="L467" t="n">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>06/08/2023 20:52</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="N467" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="O467" t="inlineStr">
         <is>
@@ -43392,15 +43392,15 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>06/08/2023 20:52</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="R467" t="n">
-        <v>4.04</v>
+        <v>3.98</v>
       </c>
       <c r="S467" t="inlineStr">
         <is>
@@ -43408,16 +43408,16 @@
         </is>
       </c>
       <c r="T467" t="n">
-        <v>4.32</v>
+        <v>3.88</v>
       </c>
       <c r="U467" t="inlineStr">
         <is>
-          <t>06/08/2023 20:52</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="V467" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-riestra/6sm5Nuu0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-atletico-atlanta/29tELJ9C/</t>
         </is>
       </c>
     </row>
@@ -43445,22 +43445,22 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         </is>
       </c>
       <c r="L468" t="n">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="M468" t="inlineStr">
         <is>
@@ -43484,7 +43484,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -43492,7 +43492,7 @@
         </is>
       </c>
       <c r="R468" t="n">
-        <v>3.98</v>
+        <v>4.16</v>
       </c>
       <c r="S468" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         </is>
       </c>
       <c r="T468" t="n">
-        <v>3.88</v>
+        <v>4.16</v>
       </c>
       <c r="U468" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
       </c>
       <c r="V468" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-atletico-atlanta/29tELJ9C/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-brown-adrogue/zgDQUNnQ/</t>
         </is>
       </c>
     </row>
@@ -45101,22 +45101,22 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="n">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -45124,7 +45124,7 @@
         </is>
       </c>
       <c r="L486" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
@@ -45132,7 +45132,7 @@
         </is>
       </c>
       <c r="N486" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
@@ -45140,7 +45140,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         </is>
       </c>
       <c r="R486" t="n">
-        <v>3.66</v>
+        <v>3.78</v>
       </c>
       <c r="S486" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         </is>
       </c>
       <c r="T486" t="n">
-        <v>3.68</v>
+        <v>4.13</v>
       </c>
       <c r="U486" t="inlineStr">
         <is>
@@ -45165,7 +45165,7 @@
       </c>
       <c r="V486" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
         </is>
       </c>
     </row>
@@ -45193,22 +45193,22 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I487" t="n">
         <v>1</v>
       </c>
       <c r="J487" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -45216,15 +45216,15 @@
         </is>
       </c>
       <c r="L487" t="n">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="N487" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="O487" t="inlineStr">
         <is>
@@ -45232,15 +45232,15 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="R487" t="n">
-        <v>4.14</v>
+        <v>3.66</v>
       </c>
       <c r="S487" t="inlineStr">
         <is>
@@ -45248,16 +45248,16 @@
         </is>
       </c>
       <c r="T487" t="n">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="U487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="V487" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
         </is>
       </c>
     </row>
@@ -45285,22 +45285,22 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J488" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -45308,15 +45308,15 @@
         </is>
       </c>
       <c r="L488" t="n">
-        <v>1.95</v>
+        <v>2.49</v>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N488" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -45324,15 +45324,15 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R488" t="n">
-        <v>3.78</v>
+        <v>4.14</v>
       </c>
       <c r="S488" t="inlineStr">
         <is>
@@ -45340,16 +45340,16 @@
         </is>
       </c>
       <c r="T488" t="n">
-        <v>4.13</v>
+        <v>3.71</v>
       </c>
       <c r="U488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V488" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
         </is>
       </c>
     </row>
@@ -48965,22 +48965,22 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I528" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J528" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -48988,15 +48988,15 @@
         </is>
       </c>
       <c r="L528" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>03/09/2023 19:14</t>
+          <t>03/09/2023 17:40</t>
         </is>
       </c>
       <c r="N528" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O528" t="inlineStr">
         <is>
@@ -49004,15 +49004,15 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>03/09/2023 20:15</t>
+          <t>03/09/2023 13:13</t>
         </is>
       </c>
       <c r="R528" t="n">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="S528" t="inlineStr">
         <is>
@@ -49020,16 +49020,16 @@
         </is>
       </c>
       <c r="T528" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="U528" t="inlineStr">
         <is>
-          <t>03/09/2023 20:15</t>
+          <t>03/09/2023 17:40</t>
         </is>
       </c>
       <c r="V528" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-agropecuario/E1uzkcc1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-temperley/OCnNiaDr/</t>
         </is>
       </c>
     </row>
@@ -49057,22 +49057,22 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J529" t="n">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -49080,15 +49080,15 @@
         </is>
       </c>
       <c r="L529" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>03/09/2023 17:40</t>
+          <t>03/09/2023 19:14</t>
         </is>
       </c>
       <c r="N529" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="O529" t="inlineStr">
         <is>
@@ -49096,15 +49096,15 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>03/09/2023 13:13</t>
+          <t>03/09/2023 20:15</t>
         </is>
       </c>
       <c r="R529" t="n">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="S529" t="inlineStr">
         <is>
@@ -49112,16 +49112,16 @@
         </is>
       </c>
       <c r="T529" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="U529" t="inlineStr">
         <is>
-          <t>03/09/2023 17:40</t>
+          <t>03/09/2023 20:15</t>
         </is>
       </c>
       <c r="V529" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-temperley/OCnNiaDr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-agropecuario/E1uzkcc1/</t>
         </is>
       </c>
     </row>
@@ -50345,7 +50345,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -50353,14 +50353,14 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J543" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -50368,15 +50368,15 @@
         </is>
       </c>
       <c r="L543" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="N543" t="n">
-        <v>3.51</v>
+        <v>3.14</v>
       </c>
       <c r="O543" t="inlineStr">
         <is>
@@ -50384,15 +50384,15 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:54</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="R543" t="n">
-        <v>6.11</v>
+        <v>4.13</v>
       </c>
       <c r="S543" t="inlineStr">
         <is>
@@ -50400,16 +50400,16 @@
         </is>
       </c>
       <c r="T543" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="U543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="V543" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
         </is>
       </c>
     </row>
@@ -50529,7 +50529,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G545" t="n">
@@ -50537,14 +50537,14 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -50552,15 +50552,15 @@
         </is>
       </c>
       <c r="L545" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="N545" t="n">
-        <v>3.14</v>
+        <v>3.51</v>
       </c>
       <c r="O545" t="inlineStr">
         <is>
@@ -50568,15 +50568,15 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:54</t>
         </is>
       </c>
       <c r="R545" t="n">
-        <v>4.13</v>
+        <v>6.11</v>
       </c>
       <c r="S545" t="inlineStr">
         <is>
@@ -50584,16 +50584,16 @@
         </is>
       </c>
       <c r="T545" t="n">
-        <v>3.67</v>
+        <v>6.63</v>
       </c>
       <c r="U545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="V545" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
         </is>
       </c>
     </row>
@@ -50713,7 +50713,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G547" t="n">
@@ -50721,63 +50721,63 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J547" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="L547" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="N547" t="n">
-        <v>3.29</v>
+        <v>2.99</v>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="R547" t="n">
-        <v>4.78</v>
+        <v>3.48</v>
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="T547" t="n">
-        <v>4.62</v>
+        <v>3.68</v>
       </c>
       <c r="U547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="V547" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G548" t="n">
@@ -50813,63 +50813,63 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J548" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="L548" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="N548" t="n">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="R548" t="n">
-        <v>3.48</v>
+        <v>4.78</v>
       </c>
       <c r="S548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="T548" t="n">
-        <v>3.68</v>
+        <v>4.62</v>
       </c>
       <c r="U548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="V548" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
         </is>
       </c>
     </row>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G558" t="n">
@@ -51733,14 +51733,14 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -51748,15 +51748,15 @@
         </is>
       </c>
       <c r="L558" t="n">
-        <v>3.08</v>
+        <v>2.44</v>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N558" t="n">
-        <v>2.77</v>
+        <v>2.99</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -51764,15 +51764,15 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R558" t="n">
-        <v>2.98</v>
+        <v>3.66</v>
       </c>
       <c r="S558" t="inlineStr">
         <is>
@@ -51780,16 +51780,16 @@
         </is>
       </c>
       <c r="T558" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="U558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V558" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
         </is>
       </c>
     </row>
@@ -51817,22 +51817,22 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G559" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>2.33</v>
+        <v>1.35</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -51840,15 +51840,15 @@
         </is>
       </c>
       <c r="L559" t="n">
-        <v>2.23</v>
+        <v>1.34</v>
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 19:40</t>
         </is>
       </c>
       <c r="N559" t="n">
-        <v>2.88</v>
+        <v>4.55</v>
       </c>
       <c r="O559" t="inlineStr">
         <is>
@@ -51856,15 +51856,15 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>3.01</v>
+        <v>4.81</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R559" t="n">
-        <v>3.6</v>
+        <v>8.08</v>
       </c>
       <c r="S559" t="inlineStr">
         <is>
@@ -51872,16 +51872,16 @@
         </is>
       </c>
       <c r="T559" t="n">
-        <v>3.78</v>
+        <v>10.24</v>
       </c>
       <c r="U559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V559" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
         </is>
       </c>
     </row>
@@ -51909,7 +51909,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G560" t="n">
@@ -51917,14 +51917,14 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,15 +51932,15 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>2.44</v>
+        <v>3.08</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="N560" t="n">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="O560" t="inlineStr">
         <is>
@@ -51948,15 +51948,15 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R560" t="n">
-        <v>3.66</v>
+        <v>2.98</v>
       </c>
       <c r="S560" t="inlineStr">
         <is>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="T560" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="U560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
         </is>
       </c>
     </row>
@@ -52001,22 +52001,22 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G561" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J561" t="n">
-        <v>1.35</v>
+        <v>2.33</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -52024,15 +52024,15 @@
         </is>
       </c>
       <c r="L561" t="n">
-        <v>1.34</v>
+        <v>2.23</v>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>16/09/2023 19:40</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N561" t="n">
-        <v>4.55</v>
+        <v>2.88</v>
       </c>
       <c r="O561" t="inlineStr">
         <is>
@@ -52040,15 +52040,15 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>4.81</v>
+        <v>3.01</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R561" t="n">
-        <v>8.08</v>
+        <v>3.6</v>
       </c>
       <c r="S561" t="inlineStr">
         <is>
@@ -52056,16 +52056,16 @@
         </is>
       </c>
       <c r="T561" t="n">
-        <v>10.24</v>
+        <v>3.78</v>
       </c>
       <c r="U561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V561" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
         </is>
       </c>
     </row>
@@ -54209,7 +54209,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G585" t="n">
@@ -54217,14 +54217,14 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J585" t="n">
-        <v>2.74</v>
+        <v>2.01</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -54232,15 +54232,15 @@
         </is>
       </c>
       <c r="L585" t="n">
-        <v>3.38</v>
+        <v>2.03</v>
       </c>
       <c r="M585" t="inlineStr">
         <is>
-          <t>24/09/2023 18:07</t>
+          <t>24/09/2023 20:16</t>
         </is>
       </c>
       <c r="N585" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="O585" t="inlineStr">
         <is>
@@ -54248,15 +54248,15 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>24/09/2023 18:07</t>
+          <t>24/09/2023 20:16</t>
         </is>
       </c>
       <c r="R585" t="n">
-        <v>2.64</v>
+        <v>4.29</v>
       </c>
       <c r="S585" t="inlineStr">
         <is>
@@ -54264,16 +54264,16 @@
         </is>
       </c>
       <c r="T585" t="n">
-        <v>2.41</v>
+        <v>4.7</v>
       </c>
       <c r="U585" t="inlineStr">
         <is>
-          <t>24/09/2023 18:07</t>
+          <t>24/09/2023 20:15</t>
         </is>
       </c>
       <c r="V585" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-san-martin-s-j/80vVG6nB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-alvarado/0zyNISHb/</t>
         </is>
       </c>
     </row>
@@ -54301,7 +54301,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G586" t="n">
@@ -54309,14 +54309,14 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J586" t="n">
-        <v>2.01</v>
+        <v>2.74</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -54324,15 +54324,15 @@
         </is>
       </c>
       <c r="L586" t="n">
-        <v>2.03</v>
+        <v>3.38</v>
       </c>
       <c r="M586" t="inlineStr">
         <is>
-          <t>24/09/2023 20:16</t>
+          <t>24/09/2023 18:07</t>
         </is>
       </c>
       <c r="N586" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="O586" t="inlineStr">
         <is>
@@ -54340,15 +54340,15 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>24/09/2023 20:16</t>
+          <t>24/09/2023 18:07</t>
         </is>
       </c>
       <c r="R586" t="n">
-        <v>4.29</v>
+        <v>2.64</v>
       </c>
       <c r="S586" t="inlineStr">
         <is>
@@ -54356,16 +54356,16 @@
         </is>
       </c>
       <c r="T586" t="n">
-        <v>4.7</v>
+        <v>2.41</v>
       </c>
       <c r="U586" t="inlineStr">
         <is>
-          <t>24/09/2023 20:15</t>
+          <t>24/09/2023 18:07</t>
         </is>
       </c>
       <c r="V586" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-alvarado/0zyNISHb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-san-martin-s-j/80vVG6nB/</t>
         </is>
       </c>
     </row>
@@ -55313,22 +55313,22 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="I597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J597" t="n">
-        <v>2.43</v>
+        <v>2.05</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -55336,15 +55336,15 @@
         </is>
       </c>
       <c r="L597" t="n">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="M597" t="inlineStr">
         <is>
-          <t>30/09/2023 07:37</t>
+          <t>30/09/2023 20:19</t>
         </is>
       </c>
       <c r="N597" t="n">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="O597" t="inlineStr">
         <is>
@@ -55352,15 +55352,15 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>30/09/2023 07:37</t>
+          <t>30/09/2023 20:20</t>
         </is>
       </c>
       <c r="R597" t="n">
-        <v>3.27</v>
+        <v>4.03</v>
       </c>
       <c r="S597" t="inlineStr">
         <is>
@@ -55368,16 +55368,16 @@
         </is>
       </c>
       <c r="T597" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="U597" t="inlineStr">
         <is>
-          <t>30/09/2023 07:37</t>
+          <t>30/09/2023 20:19</t>
         </is>
       </c>
       <c r="V597" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-temperley/vsOlXRWi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-ca-mitre/nFwuk1iO/</t>
         </is>
       </c>
     </row>
@@ -55405,22 +55405,22 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G598" t="n">
+        <v>2</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>CA Mitre</t>
-        </is>
-      </c>
-      <c r="I598" t="n">
-        <v>1</v>
-      </c>
       <c r="J598" t="n">
-        <v>2.05</v>
+        <v>2.43</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -55428,15 +55428,15 @@
         </is>
       </c>
       <c r="L598" t="n">
-        <v>2.33</v>
+        <v>2.56</v>
       </c>
       <c r="M598" t="inlineStr">
         <is>
-          <t>30/09/2023 20:19</t>
+          <t>30/09/2023 07:37</t>
         </is>
       </c>
       <c r="N598" t="n">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="O598" t="inlineStr">
         <is>
@@ -55444,15 +55444,15 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>30/09/2023 20:20</t>
+          <t>30/09/2023 07:37</t>
         </is>
       </c>
       <c r="R598" t="n">
-        <v>4.03</v>
+        <v>3.27</v>
       </c>
       <c r="S598" t="inlineStr">
         <is>
@@ -55460,16 +55460,16 @@
         </is>
       </c>
       <c r="T598" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="U598" t="inlineStr">
         <is>
-          <t>30/09/2023 20:19</t>
+          <t>30/09/2023 07:37</t>
         </is>
       </c>
       <c r="V598" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-ca-mitre/nFwuk1iO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-temperley/vsOlXRWi/</t>
         </is>
       </c>
     </row>
@@ -56574,6 +56574,98 @@
       <c r="V610" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-san-martin-t/Y3NhWonb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E611" s="2" t="n">
+        <v>45205.85416666666</v>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="G611" t="n">
+        <v>2</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L611" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N611" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P611" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q611" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R611" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S611" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T611" t="n">
+        <v>5</v>
+      </c>
+      <c r="U611" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="V611" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-alvarado/UqdzqPV3/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V611"/>
+  <dimension ref="A1:V613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.97</v>
+        <v>3.66</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:19</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.66</v>
+        <v>2.97</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:19</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.88</v>
+        <v>2.57</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.89</v>
+        <v>3.24</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.21</v>
+        <v>2.93</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.03</v>
+        <v>2.78</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>4.34</v>
+        <v>2.94</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>5.3</v>
+        <v>2.66</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-san-martin-t/rRfZeHuR/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>2.57</v>
+        <v>1.88</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>3.24</v>
+        <v>1.89</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>2.93</v>
+        <v>3.21</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2.78</v>
+        <v>3.03</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>2.94</v>
+        <v>4.34</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-san-martin-t/rRfZeHuR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
         </is>
       </c>
     </row>
@@ -17685,30 +17685,30 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
@@ -17716,31 +17716,31 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:23</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>4.1</v>
+        <v>3.33</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.28</v>
+        <v>2.82</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>4.03</v>
+        <v>3.54</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -17877,14 +17877,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190" t="n">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.56</v>
+        <v>2.19</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>2.82</v>
+        <v>3.37</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:23</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>2.37</v>
+        <v>2.09</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.44</v>
+        <v>1.8</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>3.38</v>
+        <v>4.22</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>3.68</v>
+        <v>5.88</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
         </is>
       </c>
     </row>
@@ -18973,22 +18973,22 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -18996,15 +18996,15 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -19012,15 +19012,15 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
@@ -19028,16 +19028,16 @@
         </is>
       </c>
       <c r="T202" t="n">
-        <v>5.88</v>
+        <v>3.68</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>23/04/2023 18:54</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.39</v>
+        <v>4.52</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.47</v>
+        <v>5.39</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>3.29</v>
+        <v>2.35</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>3.59</v>
+        <v>2.55</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 18:54</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>2.47</v>
+        <v>3.39</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2.33</v>
+        <v>3.47</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>1.85</v>
+        <v>3.29</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.9</v>
+        <v>3.59</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.19</v>
+        <v>2.89</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19660,11 +19660,11 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>4.52</v>
+        <v>2.47</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.39</v>
+        <v>2.33</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -19709,22 +19709,22 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -19732,15 +19732,15 @@
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -19748,15 +19748,15 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>3.83</v>
+        <v>3.42</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
@@ -19764,16 +19764,16 @@
         </is>
       </c>
       <c r="T210" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-brown-adrogue/EDmV3uQJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ferro/t8qnsII6/</t>
         </is>
       </c>
     </row>
@@ -19801,38 +19801,38 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Brown Adrogue</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
-      <c r="I211" t="n">
+      <c r="J211" t="n">
         <v>2</v>
       </c>
-      <c r="J211" t="n">
-        <v>2.27</v>
-      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>21/04/2023 03:42</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -19840,15 +19840,15 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="R211" t="n">
-        <v>3.42</v>
+        <v>3.83</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -19856,16 +19856,16 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ferro/t8qnsII6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-brown-adrogue/EDmV3uQJ/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,63 +20545,63 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2.29</v>
+        <v>3.53</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.11</v>
+        <v>2.8</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>29/04/2023 18:24</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>4.13</v>
+        <v>2.66</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>3.48</v>
+        <v>2.47</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,63 +20637,63 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>2.76</v>
+        <v>1.99</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>3.53</v>
+        <v>2.29</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>2.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 18:24</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>2.66</v>
+        <v>4.13</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21576,11 +21576,11 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>4.31</v>
+        <v>3.9</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>4.88</v>
+        <v>4.3</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21668,11 +21668,11 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>3.9</v>
+        <v>4.31</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>4.3</v>
+        <v>4.88</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>06/05/2023 20:27</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3.74</v>
+        <v>3.43</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
         </is>
       </c>
     </row>
@@ -22377,22 +22377,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J239" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,15 +22400,15 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>3.09</v>
+        <v>2.92</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,15 +22416,15 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:27</t>
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3.97</v>
+        <v>3.74</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,16 +22432,16 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>3.84</v>
+        <v>2.94</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I240" t="n">
         <v>1</v>
       </c>
       <c r="J240" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         </is>
       </c>
       <c r="N240" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         </is>
       </c>
       <c r="R240" t="n">
-        <v>3.43</v>
+        <v>3.97</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>4.4</v>
+        <v>3.84</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.98</v>
+        <v>3.81</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>5.68</v>
+        <v>5.02</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,14 +23213,14 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.02</v>
+        <v>5.68</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>2.33</v>
+        <v>3.01</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>2.35</v>
+        <v>3.13</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>3.52</v>
+        <v>2.66</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -25513,14 +25513,14 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I273" t="n">
         <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>1.69</v>
+        <v>3.13</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -25528,15 +25528,15 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>1.68</v>
+        <v>3.89</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -25544,15 +25544,15 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
@@ -25560,16 +25560,16 @@
         </is>
       </c>
       <c r="T273" t="n">
-        <v>6.13</v>
+        <v>2.16</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>3.01</v>
+        <v>2.33</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>3.13</v>
+        <v>2.35</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>2.91</v>
+        <v>3.02</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.66</v>
+        <v>3.52</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -25697,14 +25697,14 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J275" t="n">
-        <v>3.13</v>
+        <v>2.03</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -25712,48 +25712,48 @@
         </is>
       </c>
       <c r="L275" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R275" t="n">
         <v>3.89</v>
       </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:52</t>
-        </is>
-      </c>
-      <c r="N275" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O275" t="inlineStr">
+      <c r="S275" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="P275" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q275" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R275" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S275" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:42</t>
-        </is>
-      </c>
       <c r="T275" t="n">
-        <v>2.16</v>
+        <v>4.68</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -25881,14 +25881,14 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>2.03</v>
+        <v>1.69</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,15 +25896,15 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.1</v>
+        <v>3.33</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -25912,15 +25912,15 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.02</v>
+        <v>3.47</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>3.89</v>
+        <v>5.95</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
@@ -25928,16 +25928,16 @@
         </is>
       </c>
       <c r="T277" t="n">
-        <v>4.68</v>
+        <v>6.13</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -27161,22 +27161,22 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J291" t="n">
-        <v>2.17</v>
+        <v>3.61</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         </is>
       </c>
       <c r="L291" t="n">
-        <v>2.24</v>
+        <v>3.83</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         </is>
       </c>
       <c r="N291" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -27200,32 +27200,32 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
+          <t>27/05/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>24/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T291" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
           <t>27/05/2023 19:55</t>
         </is>
       </c>
-      <c r="R291" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S291" t="inlineStr">
-        <is>
-          <t>24/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T291" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U291" t="inlineStr">
-        <is>
-          <t>27/05/2023 19:55</t>
-        </is>
-      </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chaco-for-ever/OM9xLhI8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ind-rivadavia/pWAYLY22/</t>
         </is>
       </c>
     </row>
@@ -27253,22 +27253,22 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G292" t="n">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>Ind. Rivadavia</t>
-        </is>
-      </c>
-      <c r="I292" t="n">
-        <v>3</v>
-      </c>
       <c r="J292" t="n">
-        <v>3.61</v>
+        <v>2.17</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="L292" t="n">
-        <v>3.83</v>
+        <v>2.24</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         </is>
       </c>
       <c r="N292" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -27292,15 +27292,15 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>27/05/2023 19:52</t>
+          <t>27/05/2023 19:55</t>
         </is>
       </c>
       <c r="R292" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="S292" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         </is>
       </c>
       <c r="T292" t="n">
-        <v>2.11</v>
+        <v>3.95</v>
       </c>
       <c r="U292" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ind-rivadavia/pWAYLY22/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chaco-for-ever/OM9xLhI8/</t>
         </is>
       </c>
     </row>
@@ -28817,7 +28817,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -28825,14 +28825,14 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I309" t="n">
         <v>1</v>
       </c>
       <c r="J309" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -28840,15 +28840,15 @@
         </is>
       </c>
       <c r="L309" t="n">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>03/06/2023 19:55</t>
+          <t>03/06/2023 19:59</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>3.09</v>
+        <v>2.95</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
@@ -28856,15 +28856,15 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>03/06/2023 19:55</t>
+          <t>03/06/2023 19:59</t>
         </is>
       </c>
       <c r="R309" t="n">
-        <v>3.13</v>
+        <v>4.17</v>
       </c>
       <c r="S309" t="inlineStr">
         <is>
@@ -28872,16 +28872,16 @@
         </is>
       </c>
       <c r="T309" t="n">
-        <v>3.21</v>
+        <v>3.79</v>
       </c>
       <c r="U309" t="inlineStr">
         <is>
-          <t>03/06/2023 19:55</t>
+          <t>03/06/2023 19:59</t>
         </is>
       </c>
       <c r="V309" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-estudiantes/4vnlG3Wt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-club-atletico-guemes/j5BYVrve/</t>
         </is>
       </c>
     </row>
@@ -28909,7 +28909,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G310" t="n">
@@ -28917,14 +28917,14 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I310" t="n">
         <v>1</v>
       </c>
       <c r="J310" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -28932,15 +28932,15 @@
         </is>
       </c>
       <c r="L310" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>03/06/2023 19:59</t>
+          <t>03/06/2023 19:55</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>2.95</v>
+        <v>3.09</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -28948,15 +28948,15 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>03/06/2023 19:59</t>
+          <t>03/06/2023 19:55</t>
         </is>
       </c>
       <c r="R310" t="n">
-        <v>4.17</v>
+        <v>3.13</v>
       </c>
       <c r="S310" t="inlineStr">
         <is>
@@ -28964,16 +28964,16 @@
         </is>
       </c>
       <c r="T310" t="n">
-        <v>3.79</v>
+        <v>3.21</v>
       </c>
       <c r="U310" t="inlineStr">
         <is>
-          <t>03/06/2023 19:59</t>
+          <t>03/06/2023 19:55</t>
         </is>
       </c>
       <c r="V310" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-club-atletico-guemes/j5BYVrve/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-estudiantes/4vnlG3Wt/</t>
         </is>
       </c>
     </row>
@@ -32405,26 +32405,26 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J348" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -32432,44 +32432,44 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="N348" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="R348" t="n">
-        <v>4.32</v>
+        <v>3.35</v>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="T348" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="V348" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-almagro/SAptoFqa/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-ca-estudiantes/Q7FVStGn/</t>
         </is>
       </c>
     </row>
@@ -32589,26 +32589,26 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="L350" t="n">
@@ -32616,44 +32616,44 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="N350" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="R350" t="n">
-        <v>3.35</v>
+        <v>4.32</v>
       </c>
       <c r="S350" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="T350" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="U350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="V350" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-ca-estudiantes/Q7FVStGn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-almagro/SAptoFqa/</t>
         </is>
       </c>
     </row>
@@ -33049,22 +33049,22 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="I355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -33072,15 +33072,15 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -33088,15 +33088,15 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>2.64</v>
+        <v>3.04</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
@@ -33104,16 +33104,16 @@
         </is>
       </c>
       <c r="T355" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
         </is>
       </c>
     </row>
@@ -33141,22 +33141,22 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G356" t="n">
+        <v>2</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
         <v>1</v>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>Tristan Suarez</t>
-        </is>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
       <c r="J356" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -33164,15 +33164,15 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -33180,15 +33180,15 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="R356" t="n">
-        <v>3.99</v>
+        <v>4.12</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
@@ -33196,16 +33196,16 @@
         </is>
       </c>
       <c r="T356" t="n">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="U356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
         </is>
       </c>
     </row>
@@ -33877,22 +33877,22 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J364" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -33900,15 +33900,15 @@
         </is>
       </c>
       <c r="L364" t="n">
-        <v>2.12</v>
+        <v>2.73</v>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="N364" t="n">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -33916,15 +33916,15 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="R364" t="n">
-        <v>4.18</v>
+        <v>3.47</v>
       </c>
       <c r="S364" t="inlineStr">
         <is>
@@ -33932,16 +33932,16 @@
         </is>
       </c>
       <c r="T364" t="n">
-        <v>4.16</v>
+        <v>3.3</v>
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="V364" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
         </is>
       </c>
     </row>
@@ -33969,22 +33969,22 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J365" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -33992,15 +33992,15 @@
         </is>
       </c>
       <c r="L365" t="n">
-        <v>2.73</v>
+        <v>2.12</v>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="N365" t="n">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -34008,15 +34008,15 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="R365" t="n">
-        <v>3.47</v>
+        <v>4.18</v>
       </c>
       <c r="S365" t="inlineStr">
         <is>
@@ -34024,16 +34024,16 @@
         </is>
       </c>
       <c r="T365" t="n">
-        <v>3.3</v>
+        <v>4.16</v>
       </c>
       <c r="U365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
         </is>
       </c>
     </row>
@@ -34429,22 +34429,22 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G370" t="n">
+        <v>4</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
-      <c r="I370" t="n">
-        <v>1</v>
-      </c>
       <c r="J370" t="n">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -34452,15 +34452,15 @@
         </is>
       </c>
       <c r="L370" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -34468,15 +34468,15 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:52</t>
         </is>
       </c>
       <c r="R370" t="n">
-        <v>3.68</v>
+        <v>3.07</v>
       </c>
       <c r="S370" t="inlineStr">
         <is>
@@ -34484,16 +34484,16 @@
         </is>
       </c>
       <c r="T370" t="n">
-        <v>4.29</v>
+        <v>3.18</v>
       </c>
       <c r="U370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="V370" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
         </is>
       </c>
     </row>
@@ -34521,22 +34521,22 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G371" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -34544,15 +34544,15 @@
         </is>
       </c>
       <c r="L371" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="N371" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -34560,15 +34560,15 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:52</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="R371" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
       </c>
       <c r="S371" t="inlineStr">
         <is>
@@ -34576,16 +34576,16 @@
         </is>
       </c>
       <c r="T371" t="n">
-        <v>3.18</v>
+        <v>4.29</v>
       </c>
       <c r="U371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="V371" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
         </is>
       </c>
     </row>
@@ -35441,22 +35441,22 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" t="n">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -35464,15 +35464,15 @@
         </is>
       </c>
       <c r="L381" t="n">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="N381" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
@@ -35480,15 +35480,15 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="R381" t="n">
-        <v>5.02</v>
+        <v>4.67</v>
       </c>
       <c r="S381" t="inlineStr">
         <is>
@@ -35496,16 +35496,16 @@
         </is>
       </c>
       <c r="T381" t="n">
-        <v>6.36</v>
+        <v>4.84</v>
       </c>
       <c r="U381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="V381" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-flandria/dOuD89sN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-almagro/0xphDXSi/</t>
         </is>
       </c>
     </row>
@@ -35533,22 +35533,22 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G382" t="n">
+        <v>3</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
         <v>1</v>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
       <c r="J382" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -35556,15 +35556,15 @@
         </is>
       </c>
       <c r="L382" t="n">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="N382" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
@@ -35572,15 +35572,15 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>2.84</v>
+        <v>3.46</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="R382" t="n">
-        <v>4.67</v>
+        <v>5.02</v>
       </c>
       <c r="S382" t="inlineStr">
         <is>
@@ -35588,16 +35588,16 @@
         </is>
       </c>
       <c r="T382" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="U382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="V382" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-almagro/0xphDXSi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-flandria/dOuD89sN/</t>
         </is>
       </c>
     </row>
@@ -38937,71 +38937,71 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I419" t="n">
         <v>2</v>
       </c>
       <c r="J419" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>11/07/2023 17:43</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="L419" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>17/07/2023 19:50</t>
+          <t>17/07/2023 19:29</t>
         </is>
       </c>
       <c r="N419" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>11/07/2023 17:43</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>17/07/2023 19:42</t>
+          <t>17/07/2023 19:29</t>
         </is>
       </c>
       <c r="R419" t="n">
-        <v>4.68</v>
+        <v>5.02</v>
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>11/07/2023 17:43</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="T419" t="n">
-        <v>5.43</v>
+        <v>6.49</v>
       </c>
       <c r="U419" t="inlineStr">
         <is>
-          <t>17/07/2023 19:50</t>
+          <t>17/07/2023 19:29</t>
         </is>
       </c>
       <c r="V419" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-aldosivi/vZiY3frA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-de-belgrano-defensores-unidos/6939xld3/</t>
         </is>
       </c>
     </row>
@@ -39029,71 +39029,71 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I420" t="n">
         <v>2</v>
       </c>
       <c r="J420" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 17:43</t>
         </is>
       </c>
       <c r="L420" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>17/07/2023 19:29</t>
+          <t>17/07/2023 19:50</t>
         </is>
       </c>
       <c r="N420" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 17:43</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>17/07/2023 19:29</t>
+          <t>17/07/2023 19:42</t>
         </is>
       </c>
       <c r="R420" t="n">
-        <v>5.02</v>
+        <v>4.68</v>
       </c>
       <c r="S420" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 17:43</t>
         </is>
       </c>
       <c r="T420" t="n">
-        <v>6.49</v>
+        <v>5.43</v>
       </c>
       <c r="U420" t="inlineStr">
         <is>
-          <t>17/07/2023 19:29</t>
+          <t>17/07/2023 19:50</t>
         </is>
       </c>
       <c r="V420" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-de-belgrano-defensores-unidos/6939xld3/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-aldosivi/vZiY3frA/</t>
         </is>
       </c>
     </row>
@@ -39397,22 +39397,22 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I424" t="n">
         <v>1</v>
       </c>
       <c r="J424" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -39420,15 +39420,15 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.29</v>
+        <v>3.39</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:53</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>2.99</v>
+        <v>2.71</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -39436,15 +39436,15 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>3.61</v>
+        <v>2.95</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
@@ -39452,16 +39452,16 @@
         </is>
       </c>
       <c r="T424" t="n">
-        <v>3.81</v>
+        <v>2.71</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
         </is>
       </c>
     </row>
@@ -39489,71 +39489,71 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G425" t="n">
+        <v>1</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Ferro</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="I425" t="n">
-        <v>1</v>
-      </c>
       <c r="J425" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>3.39</v>
+        <v>2.11</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>2.71</v>
+        <v>4.19</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
         </is>
       </c>
     </row>
@@ -39581,7 +39581,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G426" t="n">
@@ -39589,63 +39589,63 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:53</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>3.1</v>
+        <v>3.61</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T426" t="n">
-        <v>4.19</v>
+        <v>3.81</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
         </is>
       </c>
     </row>
@@ -40041,71 +40041,71 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I431" t="n">
         <v>1</v>
       </c>
       <c r="J431" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="L431" t="n">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="N431" t="n">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>3.44</v>
+        <v>2.98</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="R431" t="n">
-        <v>5.06</v>
+        <v>4.84</v>
       </c>
       <c r="S431" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="T431" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="U431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="V431" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-racing-cordoba/vglkd3t1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-club-atletico-guemes/SpJgHwQf/</t>
         </is>
       </c>
     </row>
@@ -40133,7 +40133,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G432" t="n">
@@ -40141,14 +40141,14 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I432" t="n">
         <v>2</v>
       </c>
       <c r="J432" t="n">
-        <v>2.39</v>
+        <v>4.35</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -40156,15 +40156,15 @@
         </is>
       </c>
       <c r="L432" t="n">
-        <v>3.14</v>
+        <v>4.78</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:28</t>
         </is>
       </c>
       <c r="N432" t="n">
-        <v>2.88</v>
+        <v>3.13</v>
       </c>
       <c r="O432" t="inlineStr">
         <is>
@@ -40172,15 +40172,15 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2.77</v>
+        <v>3.22</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="R432" t="n">
-        <v>3.46</v>
+        <v>1.97</v>
       </c>
       <c r="S432" t="inlineStr">
         <is>
@@ -40188,16 +40188,16 @@
         </is>
       </c>
       <c r="T432" t="n">
-        <v>2.74</v>
+        <v>1.9</v>
       </c>
       <c r="U432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:28</t>
         </is>
       </c>
       <c r="V432" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chacarita-juniors/lOVuJQmE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-deportivo-riestra/02kocqRf/</t>
         </is>
       </c>
     </row>
@@ -40225,22 +40225,22 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G433" t="n">
+        <v>2</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Racing Cordoba</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
         <v>1</v>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>Dep. Riestra</t>
-        </is>
-      </c>
-      <c r="I433" t="n">
-        <v>2</v>
-      </c>
       <c r="J433" t="n">
-        <v>4.35</v>
+        <v>1.77</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -40248,15 +40248,15 @@
         </is>
       </c>
       <c r="L433" t="n">
-        <v>4.78</v>
+        <v>1.65</v>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:28</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="N433" t="n">
-        <v>3.13</v>
+        <v>3.39</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
@@ -40264,7 +40264,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -40272,7 +40272,7 @@
         </is>
       </c>
       <c r="R433" t="n">
-        <v>1.97</v>
+        <v>5.06</v>
       </c>
       <c r="S433" t="inlineStr">
         <is>
@@ -40280,16 +40280,16 @@
         </is>
       </c>
       <c r="T433" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="U433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:28</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="V433" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-deportivo-riestra/02kocqRf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-racing-cordoba/vglkd3t1/</t>
         </is>
       </c>
     </row>
@@ -40317,71 +40317,71 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="I434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J434" t="n">
-        <v>1.76</v>
+        <v>2.39</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L434" t="n">
-        <v>2.01</v>
+        <v>3.14</v>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="N434" t="n">
-        <v>3.29</v>
+        <v>2.88</v>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="R434" t="n">
-        <v>4.84</v>
+        <v>3.46</v>
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T434" t="n">
-        <v>4.7</v>
+        <v>2.74</v>
       </c>
       <c r="U434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="V434" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-club-atletico-guemes/SpJgHwQf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chacarita-juniors/lOVuJQmE/</t>
         </is>
       </c>
     </row>
@@ -41145,71 +41145,71 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="N443" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:28</t>
         </is>
       </c>
       <c r="R443" t="n">
-        <v>4.33</v>
+        <v>4.94</v>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="T443" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:05</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="V443" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
         </is>
       </c>
     </row>
@@ -41237,71 +41237,71 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="N444" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:28</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="R444" t="n">
-        <v>4.94</v>
+        <v>4.33</v>
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="T444" t="n">
-        <v>4.34</v>
+        <v>5.28</v>
       </c>
       <c r="U444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:05</t>
         </is>
       </c>
       <c r="V444" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
         </is>
       </c>
     </row>
@@ -41881,22 +41881,22 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="G451" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
       <c r="J451" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -41904,15 +41904,15 @@
         </is>
       </c>
       <c r="L451" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:52</t>
         </is>
       </c>
       <c r="N451" t="n">
-        <v>2.99</v>
+        <v>4.21</v>
       </c>
       <c r="O451" t="inlineStr">
         <is>
@@ -41920,15 +41920,15 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2.97</v>
+        <v>4.24</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:58</t>
         </is>
       </c>
       <c r="R451" t="n">
-        <v>3.75</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="S451" t="inlineStr">
         <is>
@@ -41936,16 +41936,16 @@
         </is>
       </c>
       <c r="T451" t="n">
-        <v>3.44</v>
+        <v>7.3</v>
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:58</t>
         </is>
       </c>
       <c r="V451" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-madryn/CKRV8tQ6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-villa-dalmine/YTSR9MA0/</t>
         </is>
       </c>
     </row>
@@ -41973,22 +41973,22 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
       <c r="J452" t="n">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -41996,15 +41996,15 @@
         </is>
       </c>
       <c r="L452" t="n">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:52</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="N452" t="n">
-        <v>4.21</v>
+        <v>2.99</v>
       </c>
       <c r="O452" t="inlineStr">
         <is>
@@ -42012,15 +42012,15 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>4.24</v>
+        <v>2.97</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:58</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="R452" t="n">
-        <v>8.050000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="S452" t="inlineStr">
         <is>
@@ -42028,16 +42028,16 @@
         </is>
       </c>
       <c r="T452" t="n">
-        <v>7.3</v>
+        <v>3.44</v>
       </c>
       <c r="U452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:58</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="V452" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-villa-dalmine/YTSR9MA0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-madryn/CKRV8tQ6/</t>
         </is>
       </c>
     </row>
@@ -43721,7 +43721,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G471" t="n">
@@ -43729,63 +43729,63 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J471" t="n">
-        <v>3.32</v>
+        <v>1.94</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="L471" t="n">
-        <v>4.17</v>
+        <v>1.91</v>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="N471" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="R471" t="n">
-        <v>2.44</v>
+        <v>4.77</v>
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="T471" t="n">
-        <v>2.15</v>
+        <v>4.86</v>
       </c>
       <c r="U471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:25</t>
         </is>
       </c>
       <c r="V471" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
         </is>
       </c>
     </row>
@@ -43813,7 +43813,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G472" t="n">
@@ -43821,63 +43821,63 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>1.94</v>
+        <v>3.32</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="L472" t="n">
-        <v>1.91</v>
+        <v>4.17</v>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="N472" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="R472" t="n">
-        <v>4.77</v>
+        <v>2.44</v>
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="T472" t="n">
-        <v>4.86</v>
+        <v>2.15</v>
       </c>
       <c r="U472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:25</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="V472" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
         </is>
       </c>
     </row>
@@ -45101,22 +45101,22 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J486" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -45124,15 +45124,15 @@
         </is>
       </c>
       <c r="L486" t="n">
-        <v>1.95</v>
+        <v>2.49</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N486" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
@@ -45140,15 +45140,15 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R486" t="n">
-        <v>3.78</v>
+        <v>4.14</v>
       </c>
       <c r="S486" t="inlineStr">
         <is>
@@ -45156,16 +45156,16 @@
         </is>
       </c>
       <c r="T486" t="n">
-        <v>4.13</v>
+        <v>3.71</v>
       </c>
       <c r="U486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V486" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
         </is>
       </c>
     </row>
@@ -45193,22 +45193,22 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J487" t="n">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         </is>
       </c>
       <c r="L487" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="M487" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         </is>
       </c>
       <c r="N487" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O487" t="inlineStr">
         <is>
@@ -45232,7 +45232,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -45240,7 +45240,7 @@
         </is>
       </c>
       <c r="R487" t="n">
-        <v>3.66</v>
+        <v>3.78</v>
       </c>
       <c r="S487" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         </is>
       </c>
       <c r="T487" t="n">
-        <v>3.68</v>
+        <v>4.13</v>
       </c>
       <c r="U487" t="inlineStr">
         <is>
@@ -45257,7 +45257,7 @@
       </c>
       <c r="V487" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
         </is>
       </c>
     </row>
@@ -45285,22 +45285,22 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I488" t="n">
         <v>1</v>
       </c>
       <c r="J488" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -45308,15 +45308,15 @@
         </is>
       </c>
       <c r="L488" t="n">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="N488" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -45324,15 +45324,15 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="R488" t="n">
-        <v>4.14</v>
+        <v>3.66</v>
       </c>
       <c r="S488" t="inlineStr">
         <is>
@@ -45340,16 +45340,16 @@
         </is>
       </c>
       <c r="T488" t="n">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="U488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="V488" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
         </is>
       </c>
     </row>
@@ -48413,7 +48413,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G522" t="n">
@@ -48421,14 +48421,14 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>2.72</v>
+        <v>1.47</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -48436,15 +48436,15 @@
         </is>
       </c>
       <c r="L522" t="n">
-        <v>3.07</v>
+        <v>1.39</v>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="N522" t="n">
-        <v>2.71</v>
+        <v>4.08</v>
       </c>
       <c r="O522" t="inlineStr">
         <is>
@@ -48452,15 +48452,15 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2.61</v>
+        <v>4.45</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="R522" t="n">
-        <v>3.15</v>
+        <v>7.54</v>
       </c>
       <c r="S522" t="inlineStr">
         <is>
@@ -48468,16 +48468,16 @@
         </is>
       </c>
       <c r="T522" t="n">
-        <v>2.98</v>
+        <v>9.34</v>
       </c>
       <c r="U522" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="V522" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
         </is>
       </c>
     </row>
@@ -48505,7 +48505,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G523" t="n">
@@ -48513,14 +48513,14 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
       <c r="J523" t="n">
-        <v>1.47</v>
+        <v>2.72</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -48528,15 +48528,15 @@
         </is>
       </c>
       <c r="L523" t="n">
-        <v>1.39</v>
+        <v>3.07</v>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N523" t="n">
-        <v>4.08</v>
+        <v>2.71</v>
       </c>
       <c r="O523" t="inlineStr">
         <is>
@@ -48544,15 +48544,15 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>4.45</v>
+        <v>2.61</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R523" t="n">
-        <v>7.54</v>
+        <v>3.15</v>
       </c>
       <c r="S523" t="inlineStr">
         <is>
@@ -48560,16 +48560,16 @@
         </is>
       </c>
       <c r="T523" t="n">
-        <v>9.34</v>
+        <v>2.98</v>
       </c>
       <c r="U523" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V523" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
         </is>
       </c>
     </row>
@@ -50345,7 +50345,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -50353,14 +50353,14 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -50368,15 +50368,15 @@
         </is>
       </c>
       <c r="L543" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="N543" t="n">
-        <v>3.14</v>
+        <v>3.51</v>
       </c>
       <c r="O543" t="inlineStr">
         <is>
@@ -50384,15 +50384,15 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:54</t>
         </is>
       </c>
       <c r="R543" t="n">
-        <v>4.13</v>
+        <v>6.11</v>
       </c>
       <c r="S543" t="inlineStr">
         <is>
@@ -50400,16 +50400,16 @@
         </is>
       </c>
       <c r="T543" t="n">
-        <v>3.67</v>
+        <v>6.63</v>
       </c>
       <c r="U543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="V543" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
         </is>
       </c>
     </row>
@@ -50529,7 +50529,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G545" t="n">
@@ -50537,14 +50537,14 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -50552,15 +50552,15 @@
         </is>
       </c>
       <c r="L545" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="N545" t="n">
-        <v>3.51</v>
+        <v>3.14</v>
       </c>
       <c r="O545" t="inlineStr">
         <is>
@@ -50568,15 +50568,15 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:54</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="R545" t="n">
-        <v>6.11</v>
+        <v>4.13</v>
       </c>
       <c r="S545" t="inlineStr">
         <is>
@@ -50584,16 +50584,16 @@
         </is>
       </c>
       <c r="T545" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="U545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="V545" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
         </is>
       </c>
     </row>
@@ -50713,7 +50713,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G547" t="n">
@@ -50721,63 +50721,63 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J547" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="L547" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="N547" t="n">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="R547" t="n">
-        <v>3.48</v>
+        <v>4.78</v>
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="T547" t="n">
-        <v>3.68</v>
+        <v>4.62</v>
       </c>
       <c r="U547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="V547" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G548" t="n">
@@ -50813,63 +50813,63 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J548" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="L548" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="N548" t="n">
-        <v>3.29</v>
+        <v>2.99</v>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="R548" t="n">
-        <v>4.78</v>
+        <v>3.48</v>
       </c>
       <c r="S548" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="T548" t="n">
-        <v>4.62</v>
+        <v>3.68</v>
       </c>
       <c r="U548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="V548" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
         </is>
       </c>
     </row>
@@ -51725,22 +51725,22 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -51748,15 +51748,15 @@
         </is>
       </c>
       <c r="L558" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 19:40</t>
         </is>
       </c>
       <c r="N558" t="n">
-        <v>2.99</v>
+        <v>4.55</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -51764,15 +51764,15 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2.67</v>
+        <v>4.81</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R558" t="n">
-        <v>3.66</v>
+        <v>8.08</v>
       </c>
       <c r="S558" t="inlineStr">
         <is>
@@ -51780,16 +51780,16 @@
         </is>
       </c>
       <c r="T558" t="n">
-        <v>3.85</v>
+        <v>10.24</v>
       </c>
       <c r="U558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V558" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
         </is>
       </c>
     </row>
@@ -51817,22 +51817,22 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G559" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -51840,15 +51840,15 @@
         </is>
       </c>
       <c r="L559" t="n">
-        <v>1.34</v>
+        <v>2.44</v>
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>16/09/2023 19:40</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N559" t="n">
-        <v>4.55</v>
+        <v>2.99</v>
       </c>
       <c r="O559" t="inlineStr">
         <is>
@@ -51856,15 +51856,15 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>4.81</v>
+        <v>2.67</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R559" t="n">
-        <v>8.08</v>
+        <v>3.66</v>
       </c>
       <c r="S559" t="inlineStr">
         <is>
@@ -51872,16 +51872,16 @@
         </is>
       </c>
       <c r="T559" t="n">
-        <v>10.24</v>
+        <v>3.85</v>
       </c>
       <c r="U559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V559" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
         </is>
       </c>
     </row>
@@ -51909,22 +51909,22 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G560" t="n">
+        <v>2</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
         <v>1</v>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="I560" t="n">
-        <v>0</v>
-      </c>
       <c r="J560" t="n">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,15 +51932,15 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>3.08</v>
+        <v>2.23</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N560" t="n">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="O560" t="inlineStr">
         <is>
@@ -51948,15 +51948,15 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R560" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="S560" t="inlineStr">
         <is>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="T560" t="n">
-        <v>2.7</v>
+        <v>3.78</v>
       </c>
       <c r="U560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
         </is>
       </c>
     </row>
@@ -52001,22 +52001,22 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -52024,15 +52024,15 @@
         </is>
       </c>
       <c r="L561" t="n">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="N561" t="n">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="O561" t="inlineStr">
         <is>
@@ -52040,15 +52040,15 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R561" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="S561" t="inlineStr">
         <is>
@@ -52056,16 +52056,16 @@
         </is>
       </c>
       <c r="T561" t="n">
-        <v>3.78</v>
+        <v>2.7</v>
       </c>
       <c r="U561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V561" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
         </is>
       </c>
     </row>
@@ -56666,6 +56666,190 @@
       <c r="V611" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-alvarado/UqdzqPV3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E612" s="2" t="n">
+        <v>45205.91666666666</v>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="G612" t="n">
+        <v>2</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I612" t="n">
+        <v>1</v>
+      </c>
+      <c r="J612" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="L612" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="N612" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P612" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q612" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="R612" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S612" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T612" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U612" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="V612" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-defensores-de-belgrano/xdK9S3oN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E613" s="2" t="n">
+        <v>45206.10416666666</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>1</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>2</v>
+      </c>
+      <c r="J613" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L613" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:38</t>
+        </is>
+      </c>
+      <c r="N613" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P613" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q613" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:38</t>
+        </is>
+      </c>
+      <c r="R613" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S613" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T613" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U613" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:38</t>
+        </is>
+      </c>
+      <c r="V613" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-estudiantes-rio-cuarto/8MF5TqWG/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V613"/>
+  <dimension ref="A1:V618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02/02/2023 14:12</t>
+          <t>03/02/2023 13:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>04/02/2023 19:10</t>
+          <t>04/02/2023 20:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>02/02/2023 14:12</t>
+          <t>03/02/2023 13:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.69</v>
+        <v>2.97</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>04/02/2023 20:38</t>
+          <t>04/02/2023 20:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>02/02/2023 14:12</t>
+          <t>03/02/2023 13:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>8.34</v>
+        <v>4.96</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>04/02/2023 20:32</t>
+          <t>04/02/2023 20:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-guillermo-brown/82yd2CjJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-nueva-chicago/G8bNIXz0/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>03/02/2023 13:42</t>
+          <t>02/02/2023 14:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>04/02/2023 20:58</t>
+          <t>04/02/2023 19:10</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>03/02/2023 13:42</t>
+          <t>02/02/2023 14:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.97</v>
+        <v>3.69</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>04/02/2023 20:58</t>
+          <t>04/02/2023 20:38</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>03/02/2023 13:42</t>
+          <t>02/02/2023 14:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.96</v>
+        <v>8.34</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>04/02/2023 20:58</t>
+          <t>04/02/2023 20:32</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-nueva-chicago/G8bNIXz0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-guillermo-brown/82yd2CjJ/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.81</v>
+        <v>2.53</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.37</v>
+        <v>2.93</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.02</v>
+        <v>3.65</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-alvarado/2FPlsx8p/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.68</v>
+        <v>2.48</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.13</v>
+        <v>2.81</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:52</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.51</v>
+        <v>2.9</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:52</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.92</v>
+        <v>3.37</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.46</v>
+        <v>3.02</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:52</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-almirante-brown/2io6k004/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-alvarado/2FPlsx8p/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.84</v>
+        <v>2.13</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>11/02/2023 20:49</t>
+          <t>11/02/2023 20:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.51</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>11/02/2023 20:49</t>
+          <t>11/02/2023 20:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.18</v>
+        <v>5.92</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.02</v>
+        <v>4.46</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>11/02/2023 20:49</t>
+          <t>11/02/2023 20:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ca-mitre/4UjzGVKI/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-almirante-brown/2io6k004/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,34 +2053,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>08/02/2023 17:12</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.36</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11/02/2023 17:17</t>
+          <t>11/02/2023 20:49</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>08/02/2023 17:12</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2088,28 +2088,28 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>10/02/2023 21:22</t>
+          <t>11/02/2023 20:49</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.64</v>
+        <v>3.18</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>08/02/2023 17:12</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.82</v>
+        <v>3.02</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>11/02/2023 20:16</t>
+          <t>11/02/2023 20:49</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chacarita-juniors/tfE3b3ko/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ca-mitre/4UjzGVKI/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 17:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11/02/2023 20:15</t>
+          <t>11/02/2023 17:17</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 17:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>11/02/2023 20:14</t>
+          <t>10/02/2023 21:22</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>10/02/2023 07:42</t>
+          <t>08/02/2023 17:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>11/02/2023 20:15</t>
+          <t>11/02/2023 20:16</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-racing-cordoba/jPefLQdb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chacarita-juniors/tfE3b3ko/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Racing Cordoba</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.78</v>
+        <v>2.35</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.53</v>
+        <v>2.62</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:15</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:14</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.93</v>
+        <v>3.5</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>10/02/2023 07:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.65</v>
+        <v>3.38</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:15</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-racing-cordoba/jPefLQdb/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.23</v>
+        <v>3.58</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.21</v>
+        <v>4.58</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/02/2023 20:55</t>
+          <t>12/02/2023 20:49</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/02/2023 20:55</t>
+          <t>12/02/2023 20:49</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.03</v>
+        <v>2.37</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.29</v>
+        <v>2.11</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/02/2023 20:55</t>
+          <t>12/02/2023 20:49</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-club-atletico-guemes/l8qEmvVG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-patronato/WWYInbpN/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.58</v>
+        <v>2.23</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4.58</v>
+        <v>2.21</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/02/2023 20:49</t>
+          <t>12/02/2023 20:55</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/02/2023 20:49</t>
+          <t>12/02/2023 20:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.37</v>
+        <v>4.03</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.11</v>
+        <v>4.29</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/02/2023 20:49</t>
+          <t>12/02/2023 20:55</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-patronato/WWYInbpN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-club-atletico-guemes/l8qEmvVG/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.76</v>
+        <v>2.56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>16/02/2023 15:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:59</t>
+          <t>18/02/2023 00:29</t>
         </is>
       </c>
       <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>18/02/2023 00:15</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>3.37</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>18/02/2023 00:56</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:56</t>
+          <t>18/02/2023 00:41</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:29</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:15</t>
+          <t>18/02/2023 00:45</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:41</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.91</v>
+        <v>3.34</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:45</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.11</v>
+        <v>4.67</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.12</v>
+        <v>6.58</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>17/02/2023 23:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.72</v>
+        <v>3.03</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:59</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.58</v>
+        <v>2.8</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>17/02/2023 23:43</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>18/02/2023 20:58</t>
+          <t>18/02/2023 17:54</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2.98</v>
+        <v>3.16</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>18/02/2023 20:58</t>
+          <t>18/02/2023 20:33</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.13</v>
+        <v>4.45</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.8</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>18/02/2023 20:58</t>
+          <t>18/02/2023 19:43</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-brown-adrogue/Wx8Uh0aS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-villa-dalmine/M7n9oIi2/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>18/02/2023 17:54</t>
+          <t>18/02/2023 20:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.16</v>
+        <v>2.98</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>18/02/2023 20:33</t>
+          <t>18/02/2023 20:58</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.45</v>
+        <v>4.13</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.79</v>
+        <v>4.8</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>18/02/2023 19:43</t>
+          <t>18/02/2023 20:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-villa-dalmine/M7n9oIi2/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-brown-adrogue/Wx8Uh0aS/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>23/02/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
         <v>2.77</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>22/02/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>2.79</v>
-      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:49</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.02</v>
+        <v>2.61</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.51</v>
+        <v>2.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:53</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-estudiantes-rio-cuarto/4vWIHIqc/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-patronato/d83VCfbS/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>25/02/2023 00:54</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.27</v>
+        <v>2.77</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.27</v>
+        <v>2.79</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>25/02/2023 00:54</t>
+          <t>25/02/2023 20:49</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.88</v>
+        <v>4.02</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.48</v>
+        <v>3.51</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>25/02/2023 20:41</t>
+          <t>25/02/2023 20:53</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-gimnasia-jujuy/YwfQg11J/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-estudiantes-rio-cuarto/4vWIHIqc/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/02/2023 20:51</t>
+          <t>25/02/2023 00:54</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.99</v>
+        <v>3.27</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 00:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.83</v>
+        <v>3.88</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.94</v>
+        <v>4.48</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:41</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atletico-atlanta/rkRXmBD0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-gimnasia-jujuy/YwfQg11J/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.42</v>
+        <v>2.28</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:51</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.02</v>
+        <v>3.83</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.48</v>
+        <v>3.94</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-ferro/U5Tqo9cJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atletico-atlanta/rkRXmBD0/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.89</v>
+        <v>3.19</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.61</v>
+        <v>3.02</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-patronato/d83VCfbS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-ferro/U5Tqo9cJ/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Atletico Atlanta</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:47</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.27</v>
+        <v>2.76</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:47</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.95</v>
+        <v>3.07</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.49</v>
+        <v>3.15</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:47</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atletico-atlanta/IVcr0xOh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-estudiantes-rio-cuarto/OOdhIkz8/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Atletico Atlanta</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.23</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.74</v>
+        <v>1.79</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>12/03/2023 20:47</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2.76</v>
+        <v>3.27</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>12/03/2023 20:47</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.07</v>
+        <v>3.95</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.15</v>
+        <v>5.49</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>12/03/2023 20:47</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-estudiantes-rio-cuarto/OOdhIkz8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atletico-atlanta/IVcr0xOh/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Agropecuario</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>16/03/2023 23:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>18/03/2023 19:59</t>
+          <t>18/03/2023 19:52</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>16/03/2023 23:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>18/03/2023 19:59</t>
+          <t>18/03/2023 19:52</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>16/03/2023 23:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.11</v>
+        <v>3.35</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>18/03/2023 19:59</t>
+          <t>18/03/2023 19:52</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-agropecuario/jiOrMhht/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-aldosivi/YRm7fYiU/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>16/03/2023 23:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>18/03/2023 19:52</t>
+          <t>18/03/2023 19:59</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>16/03/2023 23:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>18/03/2023 19:52</t>
+          <t>18/03/2023 19:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>16/03/2023 23:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>18/03/2023 19:52</t>
+          <t>18/03/2023 19:59</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-aldosivi/YRm7fYiU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-agropecuario/jiOrMhht/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.97</v>
+        <v>3.36</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/03/2023 19:27</t>
+          <t>25/03/2023 19:24</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>25/03/2023 19:21</t>
+          <t>25/03/2023 19:20</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.82</v>
+        <v>3.21</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>25/03/2023 19:27</t>
+          <t>25/03/2023 19:24</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-de-belgrano/naZ8ESjU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-t/fqLaIAi5/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>3.36</v>
+        <v>2.22</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:24</t>
+          <t>25/03/2023 19:20</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:20</t>
+          <t>25/03/2023 19:28</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.43</v>
+        <v>3.59</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.21</v>
+        <v>4.35</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:24</t>
+          <t>25/03/2023 19:28</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-t/fqLaIAi5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-brown-adrogue/hpUy64jq/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,63 +11529,63 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:20</t>
+          <t>25/03/2023 19:27</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.07</v>
+        <v>2.74</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.92</v>
+        <v>2.81</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:28</t>
+          <t>25/03/2023 19:21</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.59</v>
+        <v>2.85</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.35</v>
+        <v>2.82</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:28</t>
+          <t>25/03/2023 19:27</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-brown-adrogue/hpUy64jq/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-de-belgrano/naZ8ESjU/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.19</v>
+        <v>2.81</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:23</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.62</v>
+        <v>3.9</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.77</v>
+        <v>4.01</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>1</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Def. de Belgrano</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:23</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.9</v>
+        <v>4.62</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.01</v>
+        <v>5.77</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15485,22 +15485,22 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.3</v>
+        <v>2.59</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>06/04/2023 17:12</t>
+          <t>06/04/2023 14:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>06/04/2023 17:12</t>
+          <t>06/04/2023 14:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,15 +15524,15 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>06/04/2023 17:12</t>
+          <t>06/04/2023 14:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.69</v>
+        <v>3.44</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-agropecuario/f5EvzzJ7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-brown-adrogue/2gtQyNtR/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,22 +15577,22 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>2.59</v>
+        <v>2.3</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>06/04/2023 14:12</t>
+          <t>06/04/2023 17:12</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -15600,15 +15600,15 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>06/04/2023 14:12</t>
+          <t>06/04/2023 17:12</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2.84</v>
+        <v>2.77</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -15616,15 +15616,15 @@
         </is>
       </c>
       <c r="R165" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>06/04/2023 14:12</t>
+          <t>06/04/2023 17:12</t>
         </is>
       </c>
       <c r="T165" t="n">
-        <v>3.44</v>
+        <v>3.69</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-brown-adrogue/2gtQyNtR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-agropecuario/f5EvzzJ7/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:47</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 16:14</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.89</v>
+        <v>3.62</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>5.26</v>
+        <v>4.3</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:47</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-atletico-atlanta/h4dNH1ke/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-ferro/SzlDvPd8/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>08/04/2023 20:47</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>08/04/2023 16:14</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>3.62</v>
+        <v>4.89</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>4.3</v>
+        <v>5.26</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>08/04/2023 20:47</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-ferro/SzlDvPd8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-atletico-atlanta/h4dNH1ke/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.66</v>
+        <v>2.97</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:19</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.97</v>
+        <v>3.66</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:19</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -17141,14 +17141,14 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.38</v>
+        <v>2.99</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>4.54</v>
+        <v>3.69</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ind-rivadavia/0lOCSI3D/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-estudiantes-rio-cuarto/K8c2kFIf/</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -17233,14 +17233,14 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>2.99</v>
+        <v>3.38</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.69</v>
+        <v>4.54</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-estudiantes-rio-cuarto/K8c2kFIf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ind-rivadavia/0lOCSI3D/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,48 +17432,48 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="N185" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>15/04/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
         <v>3.21</v>
       </c>
-      <c r="O185" t="inlineStr">
+      <c r="S185" t="inlineStr">
         <is>
           <t>13/04/2023 13:12</t>
         </is>
       </c>
-      <c r="P185" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>15/04/2023 20:21</t>
-        </is>
-      </c>
-      <c r="R185" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>13/04/2023 13:12</t>
-        </is>
-      </c>
       <c r="T185" t="n">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,48 +17524,48 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.53</v>
+        <v>1.89</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="N186" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
         <v>3.03</v>
       </c>
-      <c r="O186" t="inlineStr">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>15/04/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S186" t="inlineStr">
         <is>
           <t>13/04/2023 13:12</t>
         </is>
       </c>
-      <c r="P186" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>15/04/2023 20:28</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>13/04/2023 13:12</t>
-        </is>
-      </c>
       <c r="T186" t="n">
-        <v>3.52</v>
+        <v>5.3</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.28</v>
+        <v>2.82</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>4.03</v>
+        <v>3.54</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,14 +17785,14 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J189" t="n">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.56</v>
+        <v>2.19</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>2.82</v>
+        <v>3.37</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:23</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
         </is>
       </c>
     </row>
@@ -17869,30 +17869,30 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -17900,31 +17900,31 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:23</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>4.1</v>
+        <v>3.33</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.1</v>
+        <v>3.26</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>4.33</v>
+        <v>2.74</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.74</v>
+        <v>4.33</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.71</v>
+        <v>2.37</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.01</v>
+        <v>2.76</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>2.97</v>
+        <v>3.38</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>3.08</v>
+        <v>3.68</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atl-rafaela/YcU1bJms/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J202" t="n">
-        <v>2.37</v>
+        <v>2.71</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>3.38</v>
+        <v>2.97</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="T202" t="n">
-        <v>3.68</v>
+        <v>3.08</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atl-rafaela/YcU1bJms/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 18:54</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>4.52</v>
+        <v>3.39</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>5.39</v>
+        <v>3.47</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>2.35</v>
+        <v>3.29</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.55</v>
+        <v>3.59</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>23/04/2023 18:54</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.39</v>
+        <v>2.47</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.47</v>
+        <v>2.33</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>San Martin S.J.</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>2</v>
-      </c>
       <c r="J209" t="n">
-        <v>3.29</v>
+        <v>1.85</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>3.59</v>
+        <v>1.9</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.89</v>
+        <v>3.19</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19660,11 +19660,11 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>2.47</v>
+        <v>4.52</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2.33</v>
+        <v>5.39</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
         </is>
       </c>
     </row>
@@ -19709,38 +19709,38 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Brown Adrogue</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
-      <c r="I210" t="n">
+      <c r="J210" t="n">
         <v>2</v>
       </c>
-      <c r="J210" t="n">
-        <v>2.27</v>
-      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>21/04/2023 03:42</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -19748,15 +19748,15 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>3.42</v>
+        <v>3.83</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
@@ -19764,16 +19764,16 @@
         </is>
       </c>
       <c r="T210" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ferro/t8qnsII6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-brown-adrogue/EDmV3uQJ/</t>
         </is>
       </c>
     </row>
@@ -19801,22 +19801,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -19824,15 +19824,15 @@
         </is>
       </c>
       <c r="L211" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -19840,15 +19840,15 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="R211" t="n">
-        <v>3.83</v>
+        <v>3.42</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -19856,16 +19856,16 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-brown-adrogue/EDmV3uQJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ferro/t8qnsII6/</t>
         </is>
       </c>
     </row>
@@ -21181,22 +21181,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
         <v>1</v>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>San Martin T.</t>
-        </is>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
       <c r="J226" t="n">
-        <v>2.41</v>
+        <v>3.15</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>3.66</v>
+        <v>2.59</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>3.56</v>
+        <v>2.49</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
         </is>
       </c>
     </row>
@@ -21273,22 +21273,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>San Martin T.</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Temperley</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
       <c r="J227" t="n">
-        <v>3.15</v>
+        <v>2.41</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -21296,15 +21296,15 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -21312,15 +21312,15 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>2.59</v>
+        <v>3.66</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
@@ -21328,16 +21328,16 @@
         </is>
       </c>
       <c r="T227" t="n">
-        <v>2.49</v>
+        <v>3.56</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>5.02</v>
+        <v>5.68</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,14 +23213,14 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.98</v>
+        <v>3.81</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.68</v>
+        <v>5.02</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:27</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>5.56</v>
+        <v>3.29</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 19:54</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>2.88</v>
+        <v>3.16</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:27</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>3.29</v>
+        <v>5.56</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>07/05/2023 19:54</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>3.13</v>
+        <v>3.89</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2.88</v>
+        <v>3.07</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25505,71 +25505,71 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
         <v>3.13</v>
       </c>
-      <c r="K273" t="inlineStr">
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O273" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:52</t>
-        </is>
-      </c>
-      <c r="N273" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O273" t="inlineStr">
+      <c r="P273" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S273" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="P273" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q273" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R273" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:42</t>
-        </is>
-      </c>
       <c r="T273" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25597,71 +25597,71 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="T274" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -25697,14 +25697,14 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>2.03</v>
+        <v>1.69</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -25712,15 +25712,15 @@
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.1</v>
+        <v>3.33</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -25728,15 +25728,15 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.02</v>
+        <v>3.47</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.89</v>
+        <v>5.95</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
@@ -25744,16 +25744,16 @@
         </is>
       </c>
       <c r="T275" t="n">
-        <v>4.68</v>
+        <v>6.13</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -25881,14 +25881,14 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J277" t="n">
-        <v>1.69</v>
+        <v>2.03</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,15 +25896,15 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.68</v>
+        <v>1.99</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -25912,15 +25912,15 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.47</v>
+        <v>3.02</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>5.95</v>
+        <v>3.89</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
@@ -25928,16 +25928,16 @@
         </is>
       </c>
       <c r="T277" t="n">
-        <v>6.13</v>
+        <v>4.68</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -26425,71 +26425,71 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>4.27</v>
+        <v>2.95</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4.12</v>
+        <v>2.74</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>7.72</v>
+        <v>4.25</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="T283" t="n">
-        <v>10.73</v>
+        <v>3.7</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>2.95</v>
+        <v>4.27</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>4.25</v>
+        <v>7.72</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>3.7</v>
+        <v>10.73</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
         </is>
       </c>
     </row>
@@ -32405,26 +32405,26 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J348" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -32432,44 +32432,44 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="N348" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="R348" t="n">
-        <v>3.35</v>
+        <v>4.32</v>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="T348" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="V348" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-ca-estudiantes/Q7FVStGn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-almagro/SAptoFqa/</t>
         </is>
       </c>
     </row>
@@ -32589,26 +32589,26 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J350" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="L350" t="n">
@@ -32616,44 +32616,44 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="N350" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="R350" t="n">
-        <v>4.32</v>
+        <v>3.35</v>
       </c>
       <c r="S350" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="T350" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="U350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="V350" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-almagro/SAptoFqa/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-ca-estudiantes/Q7FVStGn/</t>
         </is>
       </c>
     </row>
@@ -33049,22 +33049,22 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G355" t="n">
+        <v>2</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
         <v>1</v>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>Tristan Suarez</t>
-        </is>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
       <c r="J355" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -33072,15 +33072,15 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -33088,15 +33088,15 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>3.99</v>
+        <v>4.12</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
@@ -33104,16 +33104,16 @@
         </is>
       </c>
       <c r="T355" t="n">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
         </is>
       </c>
     </row>
@@ -33141,22 +33141,22 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="I356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -33164,15 +33164,15 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -33180,15 +33180,15 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>2.64</v>
+        <v>3.04</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="R356" t="n">
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
@@ -33196,16 +33196,16 @@
         </is>
       </c>
       <c r="T356" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="U356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
         </is>
       </c>
     </row>
@@ -33877,22 +33877,22 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J364" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -33900,15 +33900,15 @@
         </is>
       </c>
       <c r="L364" t="n">
-        <v>2.73</v>
+        <v>2.12</v>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="N364" t="n">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -33916,15 +33916,15 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="R364" t="n">
-        <v>3.47</v>
+        <v>4.18</v>
       </c>
       <c r="S364" t="inlineStr">
         <is>
@@ -33932,16 +33932,16 @@
         </is>
       </c>
       <c r="T364" t="n">
-        <v>3.3</v>
+        <v>4.16</v>
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="V364" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
         </is>
       </c>
     </row>
@@ -33969,22 +33969,22 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J365" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -33992,15 +33992,15 @@
         </is>
       </c>
       <c r="L365" t="n">
-        <v>2.12</v>
+        <v>2.73</v>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="N365" t="n">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -34008,15 +34008,15 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="R365" t="n">
-        <v>4.18</v>
+        <v>3.47</v>
       </c>
       <c r="S365" t="inlineStr">
         <is>
@@ -34024,16 +34024,16 @@
         </is>
       </c>
       <c r="T365" t="n">
-        <v>4.16</v>
+        <v>3.3</v>
       </c>
       <c r="U365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
         </is>
       </c>
     </row>
@@ -34429,22 +34429,22 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G370" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -34452,15 +34452,15 @@
         </is>
       </c>
       <c r="L370" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -34468,15 +34468,15 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:52</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="R370" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
       </c>
       <c r="S370" t="inlineStr">
         <is>
@@ -34484,16 +34484,16 @@
         </is>
       </c>
       <c r="T370" t="n">
-        <v>3.18</v>
+        <v>4.29</v>
       </c>
       <c r="U370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="V370" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
         </is>
       </c>
     </row>
@@ -34521,22 +34521,22 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G371" t="n">
+        <v>4</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
-      <c r="I371" t="n">
-        <v>1</v>
-      </c>
       <c r="J371" t="n">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -34544,15 +34544,15 @@
         </is>
       </c>
       <c r="L371" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="N371" t="n">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -34560,15 +34560,15 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:52</t>
         </is>
       </c>
       <c r="R371" t="n">
-        <v>3.68</v>
+        <v>3.07</v>
       </c>
       <c r="S371" t="inlineStr">
         <is>
@@ -34576,16 +34576,16 @@
         </is>
       </c>
       <c r="T371" t="n">
-        <v>4.29</v>
+        <v>3.18</v>
       </c>
       <c r="U371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="V371" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
         </is>
       </c>
     </row>
@@ -35441,22 +35441,22 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G381" t="n">
+        <v>3</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
         <v>1</v>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="I381" t="n">
-        <v>0</v>
-      </c>
       <c r="J381" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -35464,15 +35464,15 @@
         </is>
       </c>
       <c r="L381" t="n">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="N381" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
@@ -35480,15 +35480,15 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>2.84</v>
+        <v>3.46</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="R381" t="n">
-        <v>4.67</v>
+        <v>5.02</v>
       </c>
       <c r="S381" t="inlineStr">
         <is>
@@ -35496,16 +35496,16 @@
         </is>
       </c>
       <c r="T381" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="U381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="V381" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-almagro/0xphDXSi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-flandria/dOuD89sN/</t>
         </is>
       </c>
     </row>
@@ -35533,22 +35533,22 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G382" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -35556,15 +35556,15 @@
         </is>
       </c>
       <c r="L382" t="n">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="N382" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
@@ -35572,15 +35572,15 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="R382" t="n">
-        <v>5.02</v>
+        <v>4.67</v>
       </c>
       <c r="S382" t="inlineStr">
         <is>
@@ -35588,16 +35588,16 @@
         </is>
       </c>
       <c r="T382" t="n">
-        <v>6.36</v>
+        <v>4.84</v>
       </c>
       <c r="U382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="V382" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-flandria/dOuD89sN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-almagro/0xphDXSi/</t>
         </is>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -36553,14 +36553,14 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I393" t="n">
         <v>2</v>
       </c>
       <c r="J393" t="n">
-        <v>3.16</v>
+        <v>2.48</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -36568,15 +36568,15 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>3.46</v>
+        <v>2.55</v>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="N393" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -36584,15 +36584,15 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="R393" t="n">
-        <v>2.54</v>
+        <v>3.27</v>
       </c>
       <c r="S393" t="inlineStr">
         <is>
@@ -36600,16 +36600,16 @@
         </is>
       </c>
       <c r="T393" t="n">
-        <v>2.32</v>
+        <v>3.34</v>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="V393" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
         </is>
       </c>
     </row>
@@ -36637,7 +36637,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -36645,14 +36645,14 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J394" t="n">
-        <v>2.21</v>
+        <v>3.16</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -36660,15 +36660,15 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>2.38</v>
+        <v>3.46</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="N394" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -36676,15 +36676,15 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="R394" t="n">
-        <v>3.65</v>
+        <v>2.54</v>
       </c>
       <c r="S394" t="inlineStr">
         <is>
@@ -36692,16 +36692,16 @@
         </is>
       </c>
       <c r="T394" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="V394" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
         </is>
       </c>
     </row>
@@ -36729,7 +36729,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -36737,14 +36737,14 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J395" t="n">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -36752,15 +36752,15 @@
         </is>
       </c>
       <c r="L395" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="N395" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -36768,15 +36768,15 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="R395" t="n">
-        <v>3.27</v>
+        <v>3.65</v>
       </c>
       <c r="S395" t="inlineStr">
         <is>
@@ -36784,16 +36784,16 @@
         </is>
       </c>
       <c r="T395" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="V395" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
         </is>
       </c>
     </row>
@@ -38569,7 +38569,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G415" t="n">
@@ -38577,14 +38577,14 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
       <c r="J415" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -38592,15 +38592,15 @@
         </is>
       </c>
       <c r="L415" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>16/07/2023 20:27</t>
+          <t>16/07/2023 20:20</t>
         </is>
       </c>
       <c r="N415" t="n">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
@@ -38608,15 +38608,15 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3.23</v>
+        <v>3.82</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>16/07/2023 20:27</t>
+          <t>16/07/2023 20:20</t>
         </is>
       </c>
       <c r="R415" t="n">
-        <v>5.46</v>
+        <v>6.67</v>
       </c>
       <c r="S415" t="inlineStr">
         <is>
@@ -38624,16 +38624,16 @@
         </is>
       </c>
       <c r="T415" t="n">
-        <v>4.81</v>
+        <v>7.31</v>
       </c>
       <c r="U415" t="inlineStr">
         <is>
-          <t>16/07/2023 20:27</t>
+          <t>16/07/2023 20:20</t>
         </is>
       </c>
       <c r="V415" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-deportivo-madryn/Me2JrpC1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-villa-dalmine/vXCEqQde/</t>
         </is>
       </c>
     </row>
@@ -38661,7 +38661,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -38669,14 +38669,14 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
       <c r="J416" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -38684,15 +38684,15 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>16/07/2023 20:20</t>
+          <t>16/07/2023 20:27</t>
         </is>
       </c>
       <c r="N416" t="n">
-        <v>3.85</v>
+        <v>3.37</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -38700,15 +38700,15 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3.82</v>
+        <v>3.23</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>16/07/2023 20:20</t>
+          <t>16/07/2023 20:27</t>
         </is>
       </c>
       <c r="R416" t="n">
-        <v>6.67</v>
+        <v>5.46</v>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -38716,16 +38716,16 @@
         </is>
       </c>
       <c r="T416" t="n">
-        <v>7.31</v>
+        <v>4.81</v>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>16/07/2023 20:20</t>
+          <t>16/07/2023 20:27</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-villa-dalmine/vXCEqQde/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-deportivo-madryn/Me2JrpC1/</t>
         </is>
       </c>
     </row>
@@ -39397,22 +39397,22 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I424" t="n">
         <v>1</v>
       </c>
       <c r="J424" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -39420,15 +39420,15 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>3.39</v>
+        <v>2.29</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:53</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -39436,15 +39436,15 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2.63</v>
+        <v>2.89</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>2.95</v>
+        <v>3.61</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
@@ -39452,16 +39452,16 @@
         </is>
       </c>
       <c r="T424" t="n">
-        <v>2.71</v>
+        <v>3.81</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
         </is>
       </c>
     </row>
@@ -39489,71 +39489,71 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
         <v>1</v>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
-      <c r="I425" t="n">
-        <v>0</v>
-      </c>
       <c r="J425" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>2.11</v>
+        <v>3.39</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>4.19</v>
+        <v>2.71</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
         </is>
       </c>
     </row>
@@ -39581,7 +39581,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G426" t="n">
@@ -39589,63 +39589,63 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J426" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:53</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>3.61</v>
+        <v>3.1</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="T426" t="n">
-        <v>3.81</v>
+        <v>4.19</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
         </is>
       </c>
     </row>
@@ -41145,71 +41145,71 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="N443" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:28</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="R443" t="n">
-        <v>4.94</v>
+        <v>4.33</v>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="T443" t="n">
-        <v>4.34</v>
+        <v>5.28</v>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:05</t>
         </is>
       </c>
       <c r="V443" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
         </is>
       </c>
     </row>
@@ -41237,71 +41237,71 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J444" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="N444" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:28</t>
         </is>
       </c>
       <c r="R444" t="n">
-        <v>4.33</v>
+        <v>4.94</v>
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="T444" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="U444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:05</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="V444" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
         </is>
       </c>
     </row>
@@ -41605,22 +41605,22 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G448" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
       <c r="J448" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -41628,15 +41628,15 @@
         </is>
       </c>
       <c r="L448" t="n">
-        <v>2.01</v>
+        <v>2.44</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:27</t>
         </is>
       </c>
       <c r="N448" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O448" t="inlineStr">
         <is>
@@ -41644,15 +41644,15 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3.24</v>
+        <v>2.77</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:26</t>
         </is>
       </c>
       <c r="R448" t="n">
-        <v>3.25</v>
+        <v>3.46</v>
       </c>
       <c r="S448" t="inlineStr">
         <is>
@@ -41660,16 +41660,16 @@
         </is>
       </c>
       <c r="T448" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="U448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:28</t>
         </is>
       </c>
       <c r="V448" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-mitre/dlZmH4IQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-patronato/E136qd9m/</t>
         </is>
       </c>
     </row>
@@ -41697,22 +41697,22 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -41720,15 +41720,15 @@
         </is>
       </c>
       <c r="L449" t="n">
-        <v>2.44</v>
+        <v>2.01</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:27</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="N449" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O449" t="inlineStr">
         <is>
@@ -41736,15 +41736,15 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>2.77</v>
+        <v>3.24</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:26</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="R449" t="n">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="S449" t="inlineStr">
         <is>
@@ -41752,16 +41752,16 @@
         </is>
       </c>
       <c r="T449" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="U449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:28</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="V449" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-patronato/E136qd9m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-mitre/dlZmH4IQ/</t>
         </is>
       </c>
     </row>
@@ -43721,7 +43721,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G471" t="n">
@@ -43729,63 +43729,63 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J471" t="n">
-        <v>1.94</v>
+        <v>3.32</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="L471" t="n">
-        <v>1.91</v>
+        <v>4.17</v>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="N471" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="R471" t="n">
-        <v>4.77</v>
+        <v>2.44</v>
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="T471" t="n">
-        <v>4.86</v>
+        <v>2.15</v>
       </c>
       <c r="U471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:25</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="V471" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
         </is>
       </c>
     </row>
@@ -43813,7 +43813,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G472" t="n">
@@ -43821,63 +43821,63 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I472" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J472" t="n">
-        <v>3.32</v>
+        <v>1.94</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="L472" t="n">
-        <v>4.17</v>
+        <v>1.91</v>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="N472" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="R472" t="n">
-        <v>2.44</v>
+        <v>4.77</v>
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="T472" t="n">
-        <v>2.15</v>
+        <v>4.86</v>
       </c>
       <c r="U472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:25</t>
         </is>
       </c>
       <c r="V472" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
         </is>
       </c>
     </row>
@@ -45101,22 +45101,22 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -45124,15 +45124,15 @@
         </is>
       </c>
       <c r="L486" t="n">
-        <v>2.49</v>
+        <v>1.95</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="N486" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
@@ -45140,15 +45140,15 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2.68</v>
+        <v>3.44</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="R486" t="n">
-        <v>4.14</v>
+        <v>3.78</v>
       </c>
       <c r="S486" t="inlineStr">
         <is>
@@ -45156,16 +45156,16 @@
         </is>
       </c>
       <c r="T486" t="n">
-        <v>3.71</v>
+        <v>4.13</v>
       </c>
       <c r="U486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="V486" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
         </is>
       </c>
     </row>
@@ -45193,22 +45193,22 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J487" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         </is>
       </c>
       <c r="L487" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="M487" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         </is>
       </c>
       <c r="N487" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O487" t="inlineStr">
         <is>
@@ -45232,7 +45232,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3.44</v>
+        <v>3.08</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -45240,7 +45240,7 @@
         </is>
       </c>
       <c r="R487" t="n">
-        <v>3.78</v>
+        <v>3.66</v>
       </c>
       <c r="S487" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         </is>
       </c>
       <c r="T487" t="n">
-        <v>4.13</v>
+        <v>3.68</v>
       </c>
       <c r="U487" t="inlineStr">
         <is>
@@ -45257,7 +45257,7 @@
       </c>
       <c r="V487" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
         </is>
       </c>
     </row>
@@ -45285,22 +45285,22 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I488" t="n">
         <v>1</v>
       </c>
       <c r="J488" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -45308,15 +45308,15 @@
         </is>
       </c>
       <c r="L488" t="n">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N488" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -45324,15 +45324,15 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3.08</v>
+        <v>2.68</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R488" t="n">
-        <v>3.66</v>
+        <v>4.14</v>
       </c>
       <c r="S488" t="inlineStr">
         <is>
@@ -45340,16 +45340,16 @@
         </is>
       </c>
       <c r="T488" t="n">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="U488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V488" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
         </is>
       </c>
     </row>
@@ -48413,7 +48413,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G522" t="n">
@@ -48421,14 +48421,14 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>1.47</v>
+        <v>2.72</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -48436,15 +48436,15 @@
         </is>
       </c>
       <c r="L522" t="n">
-        <v>1.39</v>
+        <v>3.07</v>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N522" t="n">
-        <v>4.08</v>
+        <v>2.71</v>
       </c>
       <c r="O522" t="inlineStr">
         <is>
@@ -48452,15 +48452,15 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>4.45</v>
+        <v>2.61</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R522" t="n">
-        <v>7.54</v>
+        <v>3.15</v>
       </c>
       <c r="S522" t="inlineStr">
         <is>
@@ -48468,16 +48468,16 @@
         </is>
       </c>
       <c r="T522" t="n">
-        <v>9.34</v>
+        <v>2.98</v>
       </c>
       <c r="U522" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V522" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
         </is>
       </c>
     </row>
@@ -48505,7 +48505,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G523" t="n">
@@ -48513,14 +48513,14 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
       <c r="J523" t="n">
-        <v>2.72</v>
+        <v>1.47</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -48528,15 +48528,15 @@
         </is>
       </c>
       <c r="L523" t="n">
-        <v>3.07</v>
+        <v>1.39</v>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="N523" t="n">
-        <v>2.71</v>
+        <v>4.08</v>
       </c>
       <c r="O523" t="inlineStr">
         <is>
@@ -48544,15 +48544,15 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2.61</v>
+        <v>4.45</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="R523" t="n">
-        <v>3.15</v>
+        <v>7.54</v>
       </c>
       <c r="S523" t="inlineStr">
         <is>
@@ -48560,16 +48560,16 @@
         </is>
       </c>
       <c r="T523" t="n">
-        <v>2.98</v>
+        <v>9.34</v>
       </c>
       <c r="U523" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="V523" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
         </is>
       </c>
     </row>
@@ -50345,7 +50345,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -50353,14 +50353,14 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J543" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -50368,15 +50368,15 @@
         </is>
       </c>
       <c r="L543" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="N543" t="n">
-        <v>3.51</v>
+        <v>3.14</v>
       </c>
       <c r="O543" t="inlineStr">
         <is>
@@ -50384,15 +50384,15 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:54</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="R543" t="n">
-        <v>6.11</v>
+        <v>4.13</v>
       </c>
       <c r="S543" t="inlineStr">
         <is>
@@ -50400,16 +50400,16 @@
         </is>
       </c>
       <c r="T543" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="U543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="V543" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
         </is>
       </c>
     </row>
@@ -50529,7 +50529,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G545" t="n">
@@ -50537,14 +50537,14 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -50552,15 +50552,15 @@
         </is>
       </c>
       <c r="L545" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="N545" t="n">
-        <v>3.14</v>
+        <v>3.51</v>
       </c>
       <c r="O545" t="inlineStr">
         <is>
@@ -50568,15 +50568,15 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:54</t>
         </is>
       </c>
       <c r="R545" t="n">
-        <v>4.13</v>
+        <v>6.11</v>
       </c>
       <c r="S545" t="inlineStr">
         <is>
@@ -50584,16 +50584,16 @@
         </is>
       </c>
       <c r="T545" t="n">
-        <v>3.67</v>
+        <v>6.63</v>
       </c>
       <c r="U545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="V545" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
         </is>
       </c>
     </row>
@@ -50713,7 +50713,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G547" t="n">
@@ -50721,63 +50721,63 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J547" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="L547" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="N547" t="n">
-        <v>3.29</v>
+        <v>2.99</v>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="R547" t="n">
-        <v>4.78</v>
+        <v>3.48</v>
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="T547" t="n">
-        <v>4.62</v>
+        <v>3.68</v>
       </c>
       <c r="U547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="V547" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G548" t="n">
@@ -50813,63 +50813,63 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J548" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="L548" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="N548" t="n">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="R548" t="n">
-        <v>3.48</v>
+        <v>4.78</v>
       </c>
       <c r="S548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="T548" t="n">
-        <v>3.68</v>
+        <v>4.62</v>
       </c>
       <c r="U548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="V548" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
         </is>
       </c>
     </row>
@@ -51725,22 +51725,22 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G558" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -51748,15 +51748,15 @@
         </is>
       </c>
       <c r="L558" t="n">
-        <v>1.34</v>
+        <v>2.44</v>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>16/09/2023 19:40</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N558" t="n">
-        <v>4.55</v>
+        <v>2.99</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -51764,15 +51764,15 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4.81</v>
+        <v>2.67</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R558" t="n">
-        <v>8.08</v>
+        <v>3.66</v>
       </c>
       <c r="S558" t="inlineStr">
         <is>
@@ -51780,16 +51780,16 @@
         </is>
       </c>
       <c r="T558" t="n">
-        <v>10.24</v>
+        <v>3.85</v>
       </c>
       <c r="U558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V558" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
         </is>
       </c>
     </row>
@@ -51817,22 +51817,22 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G559" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -51840,15 +51840,15 @@
         </is>
       </c>
       <c r="L559" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 19:40</t>
         </is>
       </c>
       <c r="N559" t="n">
-        <v>2.99</v>
+        <v>4.55</v>
       </c>
       <c r="O559" t="inlineStr">
         <is>
@@ -51856,15 +51856,15 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2.67</v>
+        <v>4.81</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R559" t="n">
-        <v>3.66</v>
+        <v>8.08</v>
       </c>
       <c r="S559" t="inlineStr">
         <is>
@@ -51872,16 +51872,16 @@
         </is>
       </c>
       <c r="T559" t="n">
-        <v>3.85</v>
+        <v>10.24</v>
       </c>
       <c r="U559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V559" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
         </is>
       </c>
     </row>
@@ -51909,22 +51909,22 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,15 +51932,15 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="N560" t="n">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="O560" t="inlineStr">
         <is>
@@ -51948,15 +51948,15 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R560" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="S560" t="inlineStr">
         <is>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="T560" t="n">
-        <v>3.78</v>
+        <v>2.7</v>
       </c>
       <c r="U560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
         </is>
       </c>
     </row>
@@ -52001,22 +52001,22 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G561" t="n">
+        <v>2</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
         <v>1</v>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="I561" t="n">
-        <v>0</v>
-      </c>
       <c r="J561" t="n">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -52024,15 +52024,15 @@
         </is>
       </c>
       <c r="L561" t="n">
-        <v>3.08</v>
+        <v>2.23</v>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N561" t="n">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="O561" t="inlineStr">
         <is>
@@ -52040,15 +52040,15 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R561" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="S561" t="inlineStr">
         <is>
@@ -52056,16 +52056,16 @@
         </is>
       </c>
       <c r="T561" t="n">
-        <v>2.7</v>
+        <v>3.78</v>
       </c>
       <c r="U561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V561" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
         </is>
       </c>
     </row>
@@ -56850,6 +56850,466 @@
       <c r="V613" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-estudiantes-rio-cuarto/8MF5TqWG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E614" s="2" t="n">
+        <v>45206.77430555555</v>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Atletico Atlanta</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>0</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>1</v>
+      </c>
+      <c r="J614" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L614" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:34</t>
+        </is>
+      </c>
+      <c r="N614" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P614" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q614" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:34</t>
+        </is>
+      </c>
+      <c r="R614" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S614" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T614" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U614" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:34</t>
+        </is>
+      </c>
+      <c r="V614" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-quilmes/l22M1vyU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E615" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>1</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>Club A. Guemes</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>2</v>
+      </c>
+      <c r="J615" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L615" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N615" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P615" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q615" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R615" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S615" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T615" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U615" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V615" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-club-atletico-guemes/KEEqM1Oj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E616" s="2" t="n">
+        <v>45206.85416666666</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Tristan Suarez</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>2</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Brown Adrogue</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L616" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N616" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P616" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="R616" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S616" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T616" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U616" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V616" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-brown-adrogue/6wDH2KLN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E617" s="2" t="n">
+        <v>45206.85416666666</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>2</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>1</v>
+      </c>
+      <c r="J617" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L617" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N617" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P617" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R617" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S617" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T617" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="U617" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="V617" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-patronato/YH2Rpo1i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E618" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>Agropecuario</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>0</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L618" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N618" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P618" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R618" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S618" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T618" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="U618" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V618" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-gimnasia-mendoza/C81Vq5Gc/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V618"/>
+  <dimension ref="A1:V620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.78</v>
+        <v>3.27</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="L15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>11/02/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>08/02/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>11/02/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>2.53</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>11/02/2023 20:53</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>10/02/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>11/02/2023 20:53</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2.93</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-defensores-de-belgrano/O0n2jtob/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.27</v>
+        <v>2.78</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.8</v>
+        <v>2.53</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.53</v>
+        <v>2.93</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-defensores-de-belgrano/O0n2jtob/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:29</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:15</t>
+          <t>18/02/2023 00:45</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:41</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.91</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:45</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.11</v>
+        <v>4.67</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.12</v>
+        <v>6.58</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>17/02/2023 23:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.72</v>
+        <v>3.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.58</v>
+        <v>2.8</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>17/02/2023 23:43</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.76</v>
+        <v>2.56</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>16/02/2023 15:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:59</t>
+          <t>18/02/2023 00:29</t>
         </is>
       </c>
       <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18/02/2023 00:15</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
         <v>3.37</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18/02/2023 00:56</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:56</t>
+          <t>18/02/2023 00:41</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>18/02/2023 17:54</t>
+          <t>18/02/2023 20:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.16</v>
+        <v>2.98</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>18/02/2023 20:33</t>
+          <t>18/02/2023 20:58</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.45</v>
+        <v>4.13</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>4.8</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>18/02/2023 19:43</t>
+          <t>18/02/2023 20:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-villa-dalmine/M7n9oIi2/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-brown-adrogue/Wx8Uh0aS/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>18/02/2023 20:58</t>
+          <t>18/02/2023 17:54</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.98</v>
+        <v>3.16</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>18/02/2023 20:58</t>
+          <t>18/02/2023 20:33</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.13</v>
+        <v>4.45</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.8</v>
+        <v>3.79</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>18/02/2023 20:58</t>
+          <t>18/02/2023 19:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-brown-adrogue/Wx8Uh0aS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-villa-dalmine/M7n9oIi2/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23/02/2023 12:42</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>26/02/2023 20:51</t>
+          <t>26/02/2023 20:36</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>23/02/2023 12:42</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26/02/2023 20:51</t>
+          <t>26/02/2023 20:36</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>23/02/2023 12:42</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.22</v>
+        <v>2.63</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/02/2023 20:51</t>
+          <t>26/02/2023 20:36</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-almirante-brown/Ai1JFdE9/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-deportivo-moron/lr0NEGTF/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.72</v>
+        <v>2.09</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/02/2023 20:36</t>
+          <t>26/02/2023 17:33</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>26/02/2023 20:36</t>
+          <t>25/02/2023 22:04</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.63</v>
+        <v>3.52</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/02/2023 20:36</t>
+          <t>26/02/2023 17:33</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-deportivo-moron/lr0NEGTF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-chaco-for-ever/WxUa8uaF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>23/02/2023 12:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/02/2023 17:33</t>
+          <t>26/02/2023 20:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>23/02/2023 12:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>25/02/2023 22:04</t>
+          <t>26/02/2023 20:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>3.34</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>23/02/2023 12:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.52</v>
+        <v>4.22</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/02/2023 17:33</t>
+          <t>26/02/2023 20:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-chaco-for-ever/WxUa8uaF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-almirante-brown/Ai1JFdE9/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>01/03/2023 19:42</t>
+          <t>03/03/2023 02:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/03/2023 21:52</t>
+          <t>04/03/2023 19:01</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>01/03/2023 19:42</t>
+          <t>03/03/2023 02:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/03/2023 21:52</t>
+          <t>04/03/2023 19:01</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.41</v>
+        <v>3.02</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>01/03/2023 19:42</t>
+          <t>03/03/2023 02:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.44</v>
+        <v>3.79</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/03/2023 21:53</t>
+          <t>04/03/2023 19:01</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-flandria/AFq66hyd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chaco-for-ever/6iUPse8O/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>03/03/2023 02:12</t>
+          <t>01/03/2023 19:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/03/2023 19:01</t>
+          <t>04/03/2023 21:52</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>03/03/2023 02:12</t>
+          <t>01/03/2023 19:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/03/2023 19:01</t>
+          <t>04/03/2023 21:52</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.02</v>
+        <v>4.41</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>03/03/2023 02:12</t>
+          <t>01/03/2023 19:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.79</v>
+        <v>4.44</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/03/2023 19:01</t>
+          <t>04/03/2023 21:53</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chaco-for-ever/6iUPse8O/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-flandria/AFq66hyd/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>2.22</v>
+        <v>2.97</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:20</t>
+          <t>25/03/2023 19:27</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.07</v>
+        <v>2.74</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.92</v>
+        <v>2.81</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:28</t>
+          <t>25/03/2023 19:21</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.59</v>
+        <v>2.85</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>24/03/2023 07:42</t>
+          <t>22/03/2023 18:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.35</v>
+        <v>2.82</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:28</t>
+          <t>25/03/2023 19:27</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-brown-adrogue/hpUy64jq/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-de-belgrano/naZ8ESjU/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,63 +11529,63 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.97</v>
+        <v>2.22</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:27</t>
+          <t>25/03/2023 19:20</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.74</v>
+        <v>3.07</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.81</v>
+        <v>2.92</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:21</t>
+          <t>25/03/2023 19:28</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.85</v>
+        <v>3.59</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>22/03/2023 18:42</t>
+          <t>24/03/2023 07:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.82</v>
+        <v>4.35</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>25/03/2023 19:27</t>
+          <t>25/03/2023 19:28</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-de-belgrano/naZ8ESjU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-brown-adrogue/hpUy64jq/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,63 +13369,63 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>31/03/2023 10:42</t>
+          <t>30/03/2023 09:42</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>01/04/2023 01:59</t>
+          <t>01/04/2023 01:39</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.07</v>
+        <v>3.35</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>31/03/2023 10:42</t>
+          <t>30/03/2023 09:42</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>01/04/2023 01:59</t>
+          <t>01/04/2023 01:56</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.71</v>
+        <v>5.59</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>31/03/2023 10:42</t>
+          <t>30/03/2023 09:42</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>9.220000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>01/04/2023 01:59</t>
+          <t>01/04/2023 01:56</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-villa-dalmine/t6AWRoD2/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-flandria/lSevU7jH/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,63 +13461,63 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>30/03/2023 09:42</t>
+          <t>31/03/2023 10:42</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>01/04/2023 01:39</t>
+          <t>01/04/2023 01:59</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.35</v>
+        <v>3.07</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>30/03/2023 09:42</t>
+          <t>31/03/2023 10:42</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>01/04/2023 01:56</t>
+          <t>01/04/2023 01:59</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.59</v>
+        <v>3.71</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>30/03/2023 09:42</t>
+          <t>31/03/2023 10:42</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>8.5</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>01/04/2023 01:56</t>
+          <t>01/04/2023 01:59</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-flandria/lSevU7jH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-villa-dalmine/t6AWRoD2/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>2.82</v>
+        <v>3.28</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.54</v>
+        <v>4.03</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,14 +17785,14 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.19</v>
+        <v>2.56</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.37</v>
+        <v>2.82</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:23</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
         </is>
       </c>
     </row>
@@ -17869,30 +17869,30 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
         <v>3</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="I190" t="n">
-        <v>2</v>
-      </c>
       <c r="J190" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.46</v>
+        <v>2.19</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -17900,40 +17900,40 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
+          <t>16/04/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
           <t>16/04/2023 20:29</t>
         </is>
       </c>
-      <c r="R190" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>13/04/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T190" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="U190" t="inlineStr">
-        <is>
-          <t>16/04/2023 20:29</t>
-        </is>
-      </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.74</v>
+        <v>4.33</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.1</v>
+        <v>3.26</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>4.33</v>
+        <v>2.74</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>San Martin S.J.</t>
-        </is>
-      </c>
-      <c r="I208" t="n">
-        <v>2</v>
-      </c>
       <c r="J208" t="n">
-        <v>3.29</v>
+        <v>1.85</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>3.59</v>
+        <v>1.9</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.89</v>
+        <v>3.19</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19568,11 +19568,11 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>2.47</v>
+        <v>4.52</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2.33</v>
+        <v>5.39</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>1.85</v>
+        <v>3.29</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.9</v>
+        <v>3.59</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.19</v>
+        <v>2.89</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19660,11 +19660,11 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>4.52</v>
+        <v>2.47</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.39</v>
+        <v>2.33</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -21281,63 +21281,63 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>3.66</v>
+        <v>3.72</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T227" t="n">
-        <v>3.56</v>
+        <v>5.81</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:59</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -21373,63 +21373,63 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T228" t="n">
-        <v>5.81</v>
+        <v>3.56</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:59</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21576,11 +21576,11 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>3.9</v>
+        <v>4.31</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>4.3</v>
+        <v>4.88</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21668,11 +21668,11 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>4.31</v>
+        <v>3.9</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>4.88</v>
+        <v>4.3</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I238" t="n">
         <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>2.86</v>
+        <v>3.09</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3.43</v>
+        <v>3.97</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>4.4</v>
+        <v>3.84</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
         </is>
       </c>
     </row>
@@ -22377,22 +22377,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,15 +22400,15 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,15 +22416,15 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:27</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3.74</v>
+        <v>3.43</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,16 +22432,16 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J240" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,15 +22492,15 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>3.09</v>
+        <v>2.92</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,15 +22508,15 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:27</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>3.97</v>
+        <v>3.74</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>3.84</v>
+        <v>2.94</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.98</v>
+        <v>3.81</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>5.68</v>
+        <v>5.02</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>4.26</v>
+        <v>3.98</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>4.2</v>
+        <v>5.68</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.84</v>
+        <v>2.13</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.27</v>
+        <v>2.95</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.81</v>
+        <v>4.26</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>5.02</v>
+        <v>4.2</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>2.88</v>
+        <v>3.16</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:27</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.29</v>
+        <v>5.56</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>07/05/2023 19:54</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:27</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>5.56</v>
+        <v>3.29</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 19:54</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
         </is>
       </c>
     </row>
@@ -25413,7 +25413,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -25421,14 +25421,14 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J272" t="n">
-        <v>3.13</v>
+        <v>2.03</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,48 +25436,48 @@
         </is>
       </c>
       <c r="L272" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R272" t="n">
         <v>3.89</v>
       </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:52</t>
-        </is>
-      </c>
-      <c r="N272" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O272" t="inlineStr">
+      <c r="S272" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="P272" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q272" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R272" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S272" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:42</t>
-        </is>
-      </c>
       <c r="T272" t="n">
-        <v>2.16</v>
+        <v>4.68</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -25505,22 +25505,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -25528,15 +25528,15 @@
         </is>
       </c>
       <c r="L273" t="n">
-        <v>3.13</v>
+        <v>3.89</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
@@ -25544,15 +25544,15 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>2.88</v>
+        <v>3.07</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
@@ -25560,16 +25560,16 @@
         </is>
       </c>
       <c r="T273" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25597,7 +25597,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -25605,63 +25605,63 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>2.16</v>
+        <v>3.01</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.58</v>
+        <v>3.13</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.71</v>
+        <v>2.65</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T274" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25689,71 +25689,71 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1.68</v>
+        <v>2.58</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.47</v>
+        <v>2.7</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>5.95</v>
+        <v>3.71</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="T275" t="n">
-        <v>6.13</v>
+        <v>3.5</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
         </is>
       </c>
     </row>
@@ -25781,22 +25781,22 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>2.33</v>
+        <v>1.69</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -25804,15 +25804,15 @@
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.35</v>
+        <v>1.68</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -25820,15 +25820,15 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2.99</v>
+        <v>3.47</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>3.4</v>
+        <v>5.95</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
@@ -25836,16 +25836,16 @@
         </is>
       </c>
       <c r="T276" t="n">
-        <v>3.52</v>
+        <v>6.13</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -25873,22 +25873,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,15 +25896,15 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -25912,15 +25912,15 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>3.89</v>
+        <v>3.4</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
@@ -25928,16 +25928,16 @@
         </is>
       </c>
       <c r="T277" t="n">
-        <v>4.68</v>
+        <v>3.52</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -25965,22 +25965,22 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>2.54</v>
+        <v>1.82</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -25988,15 +25988,15 @@
         </is>
       </c>
       <c r="L278" t="n">
-        <v>2.94</v>
+        <v>1.75</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
@@ -26004,15 +26004,15 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>3.1</v>
+        <v>4.13</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="T278" t="n">
-        <v>2.59</v>
+        <v>5.23</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-quilmes/b57B6g3F/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-madryn/z1TsaBek/</t>
         </is>
       </c>
     </row>
@@ -26057,22 +26057,22 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Atl. Rafaela</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
         <v>1</v>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
       <c r="J279" t="n">
-        <v>1.82</v>
+        <v>2.47</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -26080,15 +26080,15 @@
         </is>
       </c>
       <c r="L279" t="n">
-        <v>1.75</v>
+        <v>2.58</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>3.52</v>
+        <v>2.91</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
@@ -26096,15 +26096,15 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3.5</v>
+        <v>2.81</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="R279" t="n">
-        <v>4.13</v>
+        <v>3.26</v>
       </c>
       <c r="S279" t="inlineStr">
         <is>
@@ -26112,16 +26112,16 @@
         </is>
       </c>
       <c r="T279" t="n">
-        <v>5.23</v>
+        <v>3.33</v>
       </c>
       <c r="U279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-madryn/z1TsaBek/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atl-rafaela/McPw0itq/</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -26157,14 +26157,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>2.58</v>
+        <v>2.94</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>3.33</v>
+        <v>2.59</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atl-rafaela/McPw0itq/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-quilmes/b57B6g3F/</t>
         </is>
       </c>
     </row>
@@ -26425,71 +26425,71 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>2.95</v>
+        <v>4.27</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>4.25</v>
+        <v>7.72</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T283" t="n">
-        <v>3.7</v>
+        <v>10.73</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.27</v>
+        <v>2.95</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.12</v>
+        <v>2.74</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>7.72</v>
+        <v>4.25</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>10.73</v>
+        <v>3.7</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
         </is>
       </c>
     </row>
@@ -33049,22 +33049,22 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="I355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -33072,15 +33072,15 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -33088,15 +33088,15 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>2.64</v>
+        <v>3.04</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
@@ -33104,16 +33104,16 @@
         </is>
       </c>
       <c r="T355" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
         </is>
       </c>
     </row>
@@ -33141,22 +33141,22 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G356" t="n">
+        <v>2</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
         <v>1</v>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>Tristan Suarez</t>
-        </is>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
       <c r="J356" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -33164,15 +33164,15 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -33180,15 +33180,15 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="R356" t="n">
-        <v>3.99</v>
+        <v>4.12</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
@@ -33196,16 +33196,16 @@
         </is>
       </c>
       <c r="T356" t="n">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="U356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
         </is>
       </c>
     </row>
@@ -33877,22 +33877,22 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J364" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -33900,15 +33900,15 @@
         </is>
       </c>
       <c r="L364" t="n">
-        <v>2.12</v>
+        <v>2.73</v>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="N364" t="n">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -33916,15 +33916,15 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="R364" t="n">
-        <v>4.18</v>
+        <v>3.47</v>
       </c>
       <c r="S364" t="inlineStr">
         <is>
@@ -33932,16 +33932,16 @@
         </is>
       </c>
       <c r="T364" t="n">
-        <v>4.16</v>
+        <v>3.3</v>
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="V364" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
         </is>
       </c>
     </row>
@@ -33969,22 +33969,22 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J365" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -33992,15 +33992,15 @@
         </is>
       </c>
       <c r="L365" t="n">
-        <v>2.73</v>
+        <v>2.12</v>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="N365" t="n">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -34008,15 +34008,15 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="R365" t="n">
-        <v>3.47</v>
+        <v>4.18</v>
       </c>
       <c r="S365" t="inlineStr">
         <is>
@@ -34024,16 +34024,16 @@
         </is>
       </c>
       <c r="T365" t="n">
-        <v>3.3</v>
+        <v>4.16</v>
       </c>
       <c r="U365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
         </is>
       </c>
     </row>
@@ -34429,22 +34429,22 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G370" t="n">
+        <v>4</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
-      <c r="I370" t="n">
-        <v>1</v>
-      </c>
       <c r="J370" t="n">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -34452,15 +34452,15 @@
         </is>
       </c>
       <c r="L370" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -34468,15 +34468,15 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:52</t>
         </is>
       </c>
       <c r="R370" t="n">
-        <v>3.68</v>
+        <v>3.07</v>
       </c>
       <c r="S370" t="inlineStr">
         <is>
@@ -34484,16 +34484,16 @@
         </is>
       </c>
       <c r="T370" t="n">
-        <v>4.29</v>
+        <v>3.18</v>
       </c>
       <c r="U370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="V370" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
         </is>
       </c>
     </row>
@@ -34521,22 +34521,22 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G371" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -34544,15 +34544,15 @@
         </is>
       </c>
       <c r="L371" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="N371" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -34560,15 +34560,15 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:52</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="R371" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
       </c>
       <c r="S371" t="inlineStr">
         <is>
@@ -34576,16 +34576,16 @@
         </is>
       </c>
       <c r="T371" t="n">
-        <v>3.18</v>
+        <v>4.29</v>
       </c>
       <c r="U371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="V371" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
         </is>
       </c>
     </row>
@@ -36177,22 +36177,22 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
       <c r="J389" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -36200,15 +36200,15 @@
         </is>
       </c>
       <c r="L389" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="N389" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -36216,15 +36216,15 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="R389" t="n">
-        <v>6.08</v>
+        <v>3.18</v>
       </c>
       <c r="S389" t="inlineStr">
         <is>
@@ -36232,16 +36232,16 @@
         </is>
       </c>
       <c r="T389" t="n">
-        <v>5.36</v>
+        <v>3.86</v>
       </c>
       <c r="U389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="V389" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-all-boys/0INvN8dG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-racing-cordoba/CMCZrg6p/</t>
         </is>
       </c>
     </row>
@@ -36269,7 +36269,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -36277,14 +36277,14 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -36292,15 +36292,15 @@
         </is>
       </c>
       <c r="L390" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="N390" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
@@ -36308,15 +36308,15 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="R390" t="n">
-        <v>4.47</v>
+        <v>6.08</v>
       </c>
       <c r="S390" t="inlineStr">
         <is>
@@ -36324,16 +36324,16 @@
         </is>
       </c>
       <c r="T390" t="n">
-        <v>4.37</v>
+        <v>5.36</v>
       </c>
       <c r="U390" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="V390" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-estudiantes-rio-cuarto/6eOzOlsA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-all-boys/0INvN8dG/</t>
         </is>
       </c>
     </row>
@@ -36361,22 +36361,22 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         </is>
       </c>
       <c r="L391" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="M391" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         </is>
       </c>
       <c r="N391" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         </is>
       </c>
       <c r="R391" t="n">
-        <v>3.18</v>
+        <v>4.47</v>
       </c>
       <c r="S391" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         </is>
       </c>
       <c r="T391" t="n">
-        <v>3.86</v>
+        <v>4.37</v>
       </c>
       <c r="U391" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
       </c>
       <c r="V391" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-racing-cordoba/CMCZrg6p/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-estudiantes-rio-cuarto/6eOzOlsA/</t>
         </is>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -36553,14 +36553,14 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I393" t="n">
         <v>2</v>
       </c>
       <c r="J393" t="n">
-        <v>2.48</v>
+        <v>3.16</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -36568,15 +36568,15 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>2.55</v>
+        <v>3.46</v>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="N393" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -36584,15 +36584,15 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="R393" t="n">
-        <v>3.27</v>
+        <v>2.54</v>
       </c>
       <c r="S393" t="inlineStr">
         <is>
@@ -36600,16 +36600,16 @@
         </is>
       </c>
       <c r="T393" t="n">
-        <v>3.34</v>
+        <v>2.32</v>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="V393" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
         </is>
       </c>
     </row>
@@ -36637,7 +36637,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -36645,14 +36645,14 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I394" t="n">
         <v>2</v>
       </c>
       <c r="J394" t="n">
-        <v>3.16</v>
+        <v>2.48</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -36660,15 +36660,15 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>3.46</v>
+        <v>2.55</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="N394" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -36676,15 +36676,15 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="R394" t="n">
-        <v>2.54</v>
+        <v>3.27</v>
       </c>
       <c r="S394" t="inlineStr">
         <is>
@@ -36692,16 +36692,16 @@
         </is>
       </c>
       <c r="T394" t="n">
-        <v>2.32</v>
+        <v>3.34</v>
       </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="V394" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
         </is>
       </c>
     </row>
@@ -39397,7 +39397,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G424" t="n">
@@ -39405,63 +39405,63 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:53</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>3.61</v>
+        <v>3.1</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="T424" t="n">
-        <v>3.81</v>
+        <v>4.19</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
         </is>
       </c>
     </row>
@@ -39489,22 +39489,22 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I425" t="n">
         <v>1</v>
       </c>
       <c r="J425" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -39512,15 +39512,15 @@
         </is>
       </c>
       <c r="L425" t="n">
-        <v>3.39</v>
+        <v>2.29</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:53</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
@@ -39528,15 +39528,15 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2.63</v>
+        <v>2.89</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>2.95</v>
+        <v>3.61</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
@@ -39544,16 +39544,16 @@
         </is>
       </c>
       <c r="T425" t="n">
-        <v>2.71</v>
+        <v>3.81</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
         </is>
       </c>
     </row>
@@ -39581,71 +39581,71 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G426" t="n">
+        <v>0</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
         <v>1</v>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
-      <c r="I426" t="n">
-        <v>0</v>
-      </c>
       <c r="J426" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>2.11</v>
+        <v>3.39</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>2.97</v>
+        <v>2.71</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T426" t="n">
-        <v>4.19</v>
+        <v>2.71</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
         </is>
       </c>
     </row>
@@ -40041,71 +40041,71 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J431" t="n">
-        <v>1.76</v>
+        <v>4.35</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L431" t="n">
-        <v>2.01</v>
+        <v>4.78</v>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:28</t>
         </is>
       </c>
       <c r="N431" t="n">
-        <v>3.29</v>
+        <v>3.13</v>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="R431" t="n">
-        <v>4.84</v>
+        <v>1.97</v>
       </c>
       <c r="S431" t="inlineStr">
         <is>
-          <t>20/07/2023 02:12</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T431" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="U431" t="inlineStr">
         <is>
-          <t>23/07/2023 20:17</t>
+          <t>23/07/2023 20:28</t>
         </is>
       </c>
       <c r="V431" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-club-atletico-guemes/SpJgHwQf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-deportivo-riestra/02kocqRf/</t>
         </is>
       </c>
     </row>
@@ -40133,22 +40133,22 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G432" t="n">
+        <v>2</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Racing Cordoba</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
         <v>1</v>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>Dep. Riestra</t>
-        </is>
-      </c>
-      <c r="I432" t="n">
-        <v>2</v>
-      </c>
       <c r="J432" t="n">
-        <v>4.35</v>
+        <v>1.77</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -40156,15 +40156,15 @@
         </is>
       </c>
       <c r="L432" t="n">
-        <v>4.78</v>
+        <v>1.65</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:28</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="N432" t="n">
-        <v>3.13</v>
+        <v>3.39</v>
       </c>
       <c r="O432" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         </is>
       </c>
       <c r="R432" t="n">
-        <v>1.97</v>
+        <v>5.06</v>
       </c>
       <c r="S432" t="inlineStr">
         <is>
@@ -40188,16 +40188,16 @@
         </is>
       </c>
       <c r="T432" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="U432" t="inlineStr">
         <is>
-          <t>23/07/2023 20:28</t>
+          <t>23/07/2023 20:26</t>
         </is>
       </c>
       <c r="V432" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-deportivo-riestra/02kocqRf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-racing-cordoba/vglkd3t1/</t>
         </is>
       </c>
     </row>
@@ -40225,22 +40225,22 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G433" t="n">
+        <v>1</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
         <v>2</v>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>Racing Cordoba</t>
-        </is>
-      </c>
-      <c r="I433" t="n">
-        <v>1</v>
-      </c>
       <c r="J433" t="n">
-        <v>1.77</v>
+        <v>2.39</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -40248,15 +40248,15 @@
         </is>
       </c>
       <c r="L433" t="n">
-        <v>1.65</v>
+        <v>3.14</v>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="N433" t="n">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
@@ -40264,15 +40264,15 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3.44</v>
+        <v>2.77</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="R433" t="n">
-        <v>5.06</v>
+        <v>3.46</v>
       </c>
       <c r="S433" t="inlineStr">
         <is>
@@ -40280,16 +40280,16 @@
         </is>
       </c>
       <c r="T433" t="n">
-        <v>6.6</v>
+        <v>2.74</v>
       </c>
       <c r="U433" t="inlineStr">
         <is>
-          <t>23/07/2023 20:26</t>
+          <t>23/07/2023 20:27</t>
         </is>
       </c>
       <c r="V433" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-racing-cordoba/vglkd3t1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chacarita-juniors/lOVuJQmE/</t>
         </is>
       </c>
     </row>
@@ -40317,71 +40317,71 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Club A. Guemes</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
         <v>1</v>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>Chacarita Juniors</t>
-        </is>
-      </c>
-      <c r="I434" t="n">
-        <v>2</v>
-      </c>
       <c r="J434" t="n">
-        <v>2.39</v>
+        <v>1.76</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="L434" t="n">
-        <v>3.14</v>
+        <v>2.01</v>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="N434" t="n">
-        <v>2.88</v>
+        <v>3.29</v>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="R434" t="n">
-        <v>3.46</v>
+        <v>4.84</v>
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>20/07/2023 02:12</t>
         </is>
       </c>
       <c r="T434" t="n">
-        <v>2.74</v>
+        <v>4.7</v>
       </c>
       <c r="U434" t="inlineStr">
         <is>
-          <t>23/07/2023 20:27</t>
+          <t>23/07/2023 20:17</t>
         </is>
       </c>
       <c r="V434" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chacarita-juniors/lOVuJQmE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-club-atletico-guemes/SpJgHwQf/</t>
         </is>
       </c>
     </row>
@@ -41145,71 +41145,71 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="N443" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:28</t>
         </is>
       </c>
       <c r="R443" t="n">
-        <v>4.33</v>
+        <v>4.94</v>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="T443" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:05</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="V443" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
         </is>
       </c>
     </row>
@@ -41237,71 +41237,71 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="N444" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:28</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="R444" t="n">
-        <v>4.94</v>
+        <v>4.33</v>
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="T444" t="n">
-        <v>4.34</v>
+        <v>5.28</v>
       </c>
       <c r="U444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:05</t>
         </is>
       </c>
       <c r="V444" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
         </is>
       </c>
     </row>
@@ -41881,22 +41881,22 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G451" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
       <c r="J451" t="n">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -41904,15 +41904,15 @@
         </is>
       </c>
       <c r="L451" t="n">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:52</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="N451" t="n">
-        <v>4.21</v>
+        <v>2.99</v>
       </c>
       <c r="O451" t="inlineStr">
         <is>
@@ -41920,15 +41920,15 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>4.24</v>
+        <v>2.97</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:58</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="R451" t="n">
-        <v>8.050000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="S451" t="inlineStr">
         <is>
@@ -41936,16 +41936,16 @@
         </is>
       </c>
       <c r="T451" t="n">
-        <v>7.3</v>
+        <v>3.44</v>
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>30/07/2023 20:58</t>
+          <t>30/07/2023 20:51</t>
         </is>
       </c>
       <c r="V451" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-villa-dalmine/YTSR9MA0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-madryn/CKRV8tQ6/</t>
         </is>
       </c>
     </row>
@@ -41973,22 +41973,22 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
       <c r="J452" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -41996,15 +41996,15 @@
         </is>
       </c>
       <c r="L452" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:52</t>
         </is>
       </c>
       <c r="N452" t="n">
-        <v>2.99</v>
+        <v>4.21</v>
       </c>
       <c r="O452" t="inlineStr">
         <is>
@@ -42012,15 +42012,15 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2.97</v>
+        <v>4.24</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:58</t>
         </is>
       </c>
       <c r="R452" t="n">
-        <v>3.75</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="S452" t="inlineStr">
         <is>
@@ -42028,16 +42028,16 @@
         </is>
       </c>
       <c r="T452" t="n">
-        <v>3.44</v>
+        <v>7.3</v>
       </c>
       <c r="U452" t="inlineStr">
         <is>
-          <t>30/07/2023 20:51</t>
+          <t>30/07/2023 20:58</t>
         </is>
       </c>
       <c r="V452" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-madryn/CKRV8tQ6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-villa-dalmine/YTSR9MA0/</t>
         </is>
       </c>
     </row>
@@ -45101,22 +45101,22 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J486" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -45124,7 +45124,7 @@
         </is>
       </c>
       <c r="L486" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
@@ -45132,7 +45132,7 @@
         </is>
       </c>
       <c r="N486" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
@@ -45140,7 +45140,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3.44</v>
+        <v>3.08</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         </is>
       </c>
       <c r="R486" t="n">
-        <v>3.78</v>
+        <v>3.66</v>
       </c>
       <c r="S486" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         </is>
       </c>
       <c r="T486" t="n">
-        <v>4.13</v>
+        <v>3.68</v>
       </c>
       <c r="U486" t="inlineStr">
         <is>
@@ -45165,7 +45165,7 @@
       </c>
       <c r="V486" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
         </is>
       </c>
     </row>
@@ -45193,22 +45193,22 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I487" t="n">
         <v>1</v>
       </c>
       <c r="J487" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -45216,15 +45216,15 @@
         </is>
       </c>
       <c r="L487" t="n">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N487" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="O487" t="inlineStr">
         <is>
@@ -45232,15 +45232,15 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>3.08</v>
+        <v>2.68</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R487" t="n">
-        <v>3.66</v>
+        <v>4.14</v>
       </c>
       <c r="S487" t="inlineStr">
         <is>
@@ -45248,16 +45248,16 @@
         </is>
       </c>
       <c r="T487" t="n">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="U487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V487" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
         </is>
       </c>
     </row>
@@ -45285,22 +45285,22 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J488" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -45308,15 +45308,15 @@
         </is>
       </c>
       <c r="L488" t="n">
-        <v>2.49</v>
+        <v>1.95</v>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="N488" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -45324,15 +45324,15 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2.68</v>
+        <v>3.44</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="R488" t="n">
-        <v>4.14</v>
+        <v>3.78</v>
       </c>
       <c r="S488" t="inlineStr">
         <is>
@@ -45340,16 +45340,16 @@
         </is>
       </c>
       <c r="T488" t="n">
-        <v>3.71</v>
+        <v>4.13</v>
       </c>
       <c r="U488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="V488" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
         </is>
       </c>
     </row>
@@ -48965,22 +48965,22 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J528" t="n">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -48988,15 +48988,15 @@
         </is>
       </c>
       <c r="L528" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>03/09/2023 17:40</t>
+          <t>03/09/2023 19:14</t>
         </is>
       </c>
       <c r="N528" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="O528" t="inlineStr">
         <is>
@@ -49004,15 +49004,15 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>03/09/2023 13:13</t>
+          <t>03/09/2023 20:15</t>
         </is>
       </c>
       <c r="R528" t="n">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="S528" t="inlineStr">
         <is>
@@ -49020,16 +49020,16 @@
         </is>
       </c>
       <c r="T528" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="U528" t="inlineStr">
         <is>
-          <t>03/09/2023 17:40</t>
+          <t>03/09/2023 20:15</t>
         </is>
       </c>
       <c r="V528" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-temperley/OCnNiaDr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-agropecuario/E1uzkcc1/</t>
         </is>
       </c>
     </row>
@@ -49057,22 +49057,22 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I529" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J529" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -49080,15 +49080,15 @@
         </is>
       </c>
       <c r="L529" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>03/09/2023 19:14</t>
+          <t>03/09/2023 17:40</t>
         </is>
       </c>
       <c r="N529" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O529" t="inlineStr">
         <is>
@@ -49096,15 +49096,15 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>03/09/2023 20:15</t>
+          <t>03/09/2023 13:13</t>
         </is>
       </c>
       <c r="R529" t="n">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="S529" t="inlineStr">
         <is>
@@ -49112,16 +49112,16 @@
         </is>
       </c>
       <c r="T529" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="U529" t="inlineStr">
         <is>
-          <t>03/09/2023 20:15</t>
+          <t>03/09/2023 17:40</t>
         </is>
       </c>
       <c r="V529" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-agropecuario/E1uzkcc1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-temperley/OCnNiaDr/</t>
         </is>
       </c>
     </row>
@@ -50345,7 +50345,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -50353,14 +50353,14 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -50368,15 +50368,15 @@
         </is>
       </c>
       <c r="L543" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="N543" t="n">
-        <v>3.14</v>
+        <v>3.51</v>
       </c>
       <c r="O543" t="inlineStr">
         <is>
@@ -50384,15 +50384,15 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:54</t>
         </is>
       </c>
       <c r="R543" t="n">
-        <v>4.13</v>
+        <v>6.11</v>
       </c>
       <c r="S543" t="inlineStr">
         <is>
@@ -50400,16 +50400,16 @@
         </is>
       </c>
       <c r="T543" t="n">
-        <v>3.67</v>
+        <v>6.63</v>
       </c>
       <c r="U543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="V543" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
         </is>
       </c>
     </row>
@@ -50529,7 +50529,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G545" t="n">
@@ -50537,14 +50537,14 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -50552,15 +50552,15 @@
         </is>
       </c>
       <c r="L545" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="N545" t="n">
-        <v>3.51</v>
+        <v>3.14</v>
       </c>
       <c r="O545" t="inlineStr">
         <is>
@@ -50568,15 +50568,15 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:54</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="R545" t="n">
-        <v>6.11</v>
+        <v>4.13</v>
       </c>
       <c r="S545" t="inlineStr">
         <is>
@@ -50584,16 +50584,16 @@
         </is>
       </c>
       <c r="T545" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="U545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="V545" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
         </is>
       </c>
     </row>
@@ -50713,7 +50713,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G547" t="n">
@@ -50721,63 +50721,63 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J547" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="L547" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="N547" t="n">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="R547" t="n">
-        <v>3.48</v>
+        <v>4.78</v>
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="T547" t="n">
-        <v>3.68</v>
+        <v>4.62</v>
       </c>
       <c r="U547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="V547" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G548" t="n">
@@ -50813,63 +50813,63 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J548" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="L548" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="N548" t="n">
-        <v>3.29</v>
+        <v>2.99</v>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="R548" t="n">
-        <v>4.78</v>
+        <v>3.48</v>
       </c>
       <c r="S548" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="T548" t="n">
-        <v>4.62</v>
+        <v>3.68</v>
       </c>
       <c r="U548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="V548" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
         </is>
       </c>
     </row>
@@ -51725,22 +51725,22 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G558" t="n">
+        <v>2</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
         <v>1</v>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="I558" t="n">
-        <v>0</v>
-      </c>
       <c r="J558" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -51748,7 +51748,7 @@
         </is>
       </c>
       <c r="L558" t="n">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="M558" t="inlineStr">
         <is>
@@ -51756,7 +51756,7 @@
         </is>
       </c>
       <c r="N558" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -51764,7 +51764,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -51772,7 +51772,7 @@
         </is>
       </c>
       <c r="R558" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="S558" t="inlineStr">
         <is>
@@ -51780,7 +51780,7 @@
         </is>
       </c>
       <c r="T558" t="n">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="U558" t="inlineStr">
         <is>
@@ -51789,7 +51789,7 @@
       </c>
       <c r="V558" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
         </is>
       </c>
     </row>
@@ -51817,22 +51817,22 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G559" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>1.35</v>
+        <v>2.15</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -51840,15 +51840,15 @@
         </is>
       </c>
       <c r="L559" t="n">
-        <v>1.34</v>
+        <v>2.44</v>
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>16/09/2023 19:40</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N559" t="n">
-        <v>4.55</v>
+        <v>2.99</v>
       </c>
       <c r="O559" t="inlineStr">
         <is>
@@ -51856,15 +51856,15 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>4.81</v>
+        <v>2.67</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R559" t="n">
-        <v>8.08</v>
+        <v>3.66</v>
       </c>
       <c r="S559" t="inlineStr">
         <is>
@@ -51872,16 +51872,16 @@
         </is>
       </c>
       <c r="T559" t="n">
-        <v>10.24</v>
+        <v>3.85</v>
       </c>
       <c r="U559" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V559" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
         </is>
       </c>
     </row>
@@ -51909,22 +51909,22 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G560" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,48 +51932,48 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>3.08</v>
+        <v>1.34</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
+          <t>16/09/2023 19:40</t>
+        </is>
+      </c>
+      <c r="N560" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>13/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P560" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
           <t>16/09/2023 20:29</t>
         </is>
       </c>
-      <c r="N560" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="O560" t="inlineStr">
+      <c r="R560" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S560" t="inlineStr">
         <is>
           <t>13/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P560" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q560" t="inlineStr">
+      <c r="T560" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="U560" t="inlineStr">
         <is>
           <t>16/09/2023 20:29</t>
         </is>
       </c>
-      <c r="R560" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S560" t="inlineStr">
-        <is>
-          <t>13/09/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T560" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U560" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:29</t>
-        </is>
-      </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
         </is>
       </c>
     </row>
@@ -52001,22 +52001,22 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -52024,15 +52024,15 @@
         </is>
       </c>
       <c r="L561" t="n">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="N561" t="n">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="O561" t="inlineStr">
         <is>
@@ -52040,15 +52040,15 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R561" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="S561" t="inlineStr">
         <is>
@@ -52056,16 +52056,16 @@
         </is>
       </c>
       <c r="T561" t="n">
-        <v>3.78</v>
+        <v>2.7</v>
       </c>
       <c r="U561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V561" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
         </is>
       </c>
     </row>
@@ -57310,6 +57310,190 @@
       <c r="V618" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-gimnasia-mendoza/C81Vq5Gc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E619" s="2" t="n">
+        <v>45206.95833333334</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>0</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L619" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N619" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P619" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R619" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S619" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T619" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U619" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V619" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-madryn/fL065My5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E620" s="2" t="n">
+        <v>45206.96527777778</v>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="G620" t="n">
+        <v>1</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>Deportivo Moron</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>1</v>
+      </c>
+      <c r="J620" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L620" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>07/10/2023 23:08</t>
+        </is>
+      </c>
+      <c r="N620" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P620" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q620" t="inlineStr">
+        <is>
+          <t>07/10/2023 23:03</t>
+        </is>
+      </c>
+      <c r="R620" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S620" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T620" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U620" t="inlineStr">
+        <is>
+          <t>07/10/2023 23:08</t>
+        </is>
+      </c>
+      <c r="V620" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-deportivo-moron/MTetNs9p/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V620"/>
+  <dimension ref="A1:V624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.27</v>
+        <v>2.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.8</v>
+        <v>2.53</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.53</v>
+        <v>2.93</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>11/02/2023 20:58</t>
+          <t>11/02/2023 20:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-defensores-de-belgrano/O0n2jtob/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.48</v>
+        <v>3.27</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:58</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.37</v>
+        <v>2.53</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.02</v>
+        <v>2.36</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>11/02/2023 20:51</t>
+          <t>11/02/2023 20:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-alvarado/2FPlsx8p/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-defensores-de-belgrano/O0n2jtob/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.93</v>
+        <v>3.37</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.65</v>
+        <v>3.02</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>11/02/2023 20:53</t>
+          <t>11/02/2023 20:51</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-estudiantes-rio-cuarto/txcciMVi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-alvarado/2FPlsx8p/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.58</v>
+        <v>2.23</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4.58</v>
+        <v>2.21</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/02/2023 20:49</t>
+          <t>12/02/2023 20:55</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/02/2023 20:49</t>
+          <t>12/02/2023 20:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.37</v>
+        <v>4.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>10/02/2023 14:42</t>
+          <t>08/02/2023 18:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.11</v>
+        <v>4.29</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/02/2023 20:49</t>
+          <t>12/02/2023 20:55</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-patronato/WWYInbpN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-club-atletico-guemes/l8qEmvVG/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.23</v>
+        <v>3.58</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.21</v>
+        <v>4.58</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/02/2023 20:55</t>
+          <t>12/02/2023 20:49</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/02/2023 20:55</t>
+          <t>12/02/2023 20:49</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.03</v>
+        <v>2.37</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>08/02/2023 18:42</t>
+          <t>10/02/2023 14:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.29</v>
+        <v>2.11</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/02/2023 20:55</t>
+          <t>12/02/2023 20:49</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-club-atletico-guemes/l8qEmvVG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-patronato/WWYInbpN/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.91</v>
+        <v>3.34</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:45</t>
+          <t>18/02/2023 00:48</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.11</v>
+        <v>4.67</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>16/02/2023 15:42</t>
+          <t>15/02/2023 09:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.12</v>
+        <v>6.58</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>18/02/2023 00:49</t>
+          <t>17/02/2023 23:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.72</v>
+        <v>3.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>18/02/2023 00:48</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>15/02/2023 09:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.58</v>
+        <v>2.8</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>17/02/2023 23:43</t>
+          <t>18/02/2023 00:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-san-telmo/OQcd0HEM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.76</v>
+        <v>2.56</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>16/02/2023 15:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:59</t>
+          <t>18/02/2023 00:29</t>
         </is>
       </c>
       <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>18/02/2023 00:15</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>16/02/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
         <v>3.37</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>18/02/2023 00:56</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>16/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>18/02/2023 00:56</t>
+          <t>18/02/2023 00:41</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-temperley/h020ayUS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:29</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:15</t>
+          <t>18/02/2023 00:45</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>18/02/2023 00:41</t>
+          <t>18/02/2023 00:49</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-ca-estudiantes/lIfdlK7q/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-aldosivi/zBELfMUF/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.21</v>
+        <v>2.35</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>15/02/2023 19:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/02/2023 22:55</t>
+          <t>19/02/2023 22:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>15/02/2023 19:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/02/2023 22:55</t>
+          <t>19/02/2023 22:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>16/02/2023 15:12</t>
+          <t>15/02/2023 19:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.84</v>
+        <v>3.65</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/02/2023 22:55</t>
+          <t>19/02/2023 22:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-unidos/dE6u4aFc/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-ind-rivadavia/lEve9Lq9/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>15/02/2023 19:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/02/2023 22:58</t>
+          <t>19/02/2023 22:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>15/02/2023 19:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/02/2023 22:58</t>
+          <t>19/02/2023 22:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.83</v>
+        <v>3.72</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>15/02/2023 19:12</t>
+          <t>16/02/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.65</v>
+        <v>4.84</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/02/2023 22:58</t>
+          <t>19/02/2023 22:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-ind-rivadavia/lEve9Lq9/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-unidos/dE6u4aFc/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.93</v>
+        <v>2.08</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.5</v>
+        <v>1.93</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 00:54</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.89</v>
+        <v>3.27</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.77</v>
+        <v>3.27</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 00:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.61</v>
+        <v>3.88</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.52</v>
+        <v>4.48</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:41</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-patronato/d83VCfbS/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-gimnasia-jujuy/YwfQg11J/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.3</v>
+        <v>2.93</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,40 +5112,40 @@
         </is>
       </c>
       <c r="N51" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>23/02/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
         <v>2.77</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>22/02/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>2.79</v>
-      </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>25/02/2023 20:49</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.02</v>
+        <v>2.61</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>22/02/2023 19:12</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.51</v>
+        <v>2.52</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>25/02/2023 20:53</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-estudiantes-rio-cuarto/4vWIHIqc/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-patronato/d83VCfbS/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.93</v>
+        <v>3.42</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/02/2023 00:54</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.27</v>
+        <v>3.19</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25/02/2023 00:54</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.88</v>
+        <v>3.02</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.48</v>
+        <v>2.48</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>25/02/2023 20:41</t>
+          <t>25/02/2023 20:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-gimnasia-jujuy/YwfQg11J/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-ferro/U5Tqo9cJ/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Atletico Atlanta</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:51</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.83</v>
+        <v>2.79</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:49</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.83</v>
+        <v>4.02</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>22/02/2023 19:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.94</v>
+        <v>3.51</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>25/02/2023 20:59</t>
+          <t>25/02/2023 20:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atletico-atlanta/rkRXmBD0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-estudiantes-rio-cuarto/4vWIHIqc/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.42</v>
+        <v>2.28</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:51</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.02</v>
+        <v>3.83</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.48</v>
+        <v>3.94</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>25/02/2023 20:55</t>
+          <t>25/02/2023 20:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-ferro/U5Tqo9cJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atletico-atlanta/rkRXmBD0/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.72</v>
+        <v>2.09</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>26/02/2023 20:36</t>
+          <t>26/02/2023 17:33</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26/02/2023 20:36</t>
+          <t>25/02/2023 22:04</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.63</v>
+        <v>3.52</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/02/2023 20:36</t>
+          <t>26/02/2023 17:33</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-deportivo-moron/lr0NEGTF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-chaco-for-ever/WxUa8uaF/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>23/02/2023 12:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/02/2023 17:33</t>
+          <t>26/02/2023 20:51</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>23/02/2023 12:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>25/02/2023 22:04</t>
+          <t>26/02/2023 20:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>3.34</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>23/02/2023 12:12</t>
+          <t>23/02/2023 12:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.52</v>
+        <v>4.22</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/02/2023 17:33</t>
+          <t>26/02/2023 20:51</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-chaco-for-ever/WxUa8uaF/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-almirante-brown/Ai1JFdE9/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>23/02/2023 12:42</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/02/2023 20:51</t>
+          <t>26/02/2023 20:36</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>23/02/2023 12:42</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>26/02/2023 20:51</t>
+          <t>26/02/2023 20:36</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>23/02/2023 12:42</t>
+          <t>23/02/2023 12:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.22</v>
+        <v>2.63</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/02/2023 20:51</t>
+          <t>26/02/2023 20:36</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-almirante-brown/Ai1JFdE9/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-deportivo-moron/lr0NEGTF/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>03/03/2023 02:12</t>
+          <t>01/03/2023 19:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/03/2023 19:01</t>
+          <t>04/03/2023 21:52</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>03/03/2023 02:12</t>
+          <t>01/03/2023 19:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/03/2023 19:01</t>
+          <t>04/03/2023 21:52</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.02</v>
+        <v>4.41</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>03/03/2023 02:12</t>
+          <t>01/03/2023 19:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.79</v>
+        <v>4.44</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/03/2023 19:01</t>
+          <t>04/03/2023 21:53</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chaco-for-ever/6iUPse8O/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-flandria/AFq66hyd/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.04</v>
+        <v>2.49</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>01/03/2023 19:42</t>
+          <t>03/03/2023 02:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/03/2023 21:52</t>
+          <t>04/03/2023 19:01</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>01/03/2023 19:42</t>
+          <t>03/03/2023 02:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/03/2023 21:52</t>
+          <t>04/03/2023 19:01</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.41</v>
+        <v>3.02</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>01/03/2023 19:42</t>
+          <t>03/03/2023 02:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.44</v>
+        <v>3.79</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/03/2023 21:53</t>
+          <t>04/03/2023 19:01</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-flandria/AFq66hyd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-chaco-for-ever/6iUPse8O/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10/03/2023 10:12</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.68</v>
+        <v>2.92</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/03/2023 20:56</t>
+          <t>11/03/2023 20:57</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.81</v>
+        <v>2.91</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>10/03/2023 10:12</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/03/2023 20:56</t>
+          <t>11/03/2023 20:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.4</v>
+        <v>3.43</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>10/03/2023 10:12</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.38</v>
+        <v>2.99</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/03/2023 20:56</t>
+          <t>11/03/2023 20:58</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-defensores-de-belgrano/jVpzsZC8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-deportivo-riestra/4ndjbGh5/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Dep. Riestra</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>10/03/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>11/03/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>10/03/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>08/03/2023 19:42</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>11/03/2023 20:57</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>08/03/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>2.73</v>
-      </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>11/03/2023 20:58</t>
+          <t>11/03/2023 20:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.43</v>
+        <v>2.46</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 04:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.99</v>
+        <v>2.66</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>11/03/2023 20:58</t>
+          <t>11/03/2023 20:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-deportivo-riestra/4ndjbGh5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-quilmes/fyk3eExO/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/03/2023 04:42</t>
+          <t>10/03/2023 10:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.99</v>
+        <v>3.68</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>11/03/2023 20:59</t>
+          <t>11/03/2023 20:56</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.23</v>
+        <v>2.81</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/03/2023 04:42</t>
+          <t>10/03/2023 10:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>11/03/2023 20:51</t>
+          <t>11/03/2023 20:56</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/03/2023 04:42</t>
+          <t>10/03/2023 10:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11/03/2023 20:59</t>
+          <t>11/03/2023 20:56</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-quilmes/fyk3eExO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-defensores-de-belgrano/jVpzsZC8/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>16/03/2023 23:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>18/03/2023 19:52</t>
+          <t>18/03/2023 19:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>16/03/2023 23:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>18/03/2023 19:52</t>
+          <t>18/03/2023 19:59</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>16/03/2023 23:12</t>
+          <t>16/03/2023 18:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>18/03/2023 19:52</t>
+          <t>18/03/2023 19:59</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-aldosivi/YRm7fYiU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-agropecuario/jiOrMhht/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Agropecuario</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>16/03/2023 23:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>18/03/2023 19:59</t>
+          <t>18/03/2023 19:52</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>16/03/2023 23:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>18/03/2023 19:59</t>
+          <t>18/03/2023 19:52</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>16/03/2023 18:12</t>
+          <t>16/03/2023 23:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.11</v>
+        <v>3.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>18/03/2023 19:59</t>
+          <t>18/03/2023 19:52</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-agropecuario/jiOrMhht/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-aldosivi/YRm7fYiU/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3.36</v>
+        <v>2.97</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/03/2023 19:24</t>
+          <t>25/03/2023 19:27</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>25/03/2023 19:20</t>
+          <t>25/03/2023 19:21</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.21</v>
+        <v>2.82</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>25/03/2023 19:24</t>
+          <t>25/03/2023 19:27</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-t/fqLaIAi5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-de-belgrano/naZ8ESjU/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.97</v>
+        <v>3.36</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:27</t>
+          <t>25/03/2023 19:24</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:21</t>
+          <t>25/03/2023 19:20</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.82</v>
+        <v>3.21</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>25/03/2023 19:27</t>
+          <t>25/03/2023 19:24</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-defensores-de-belgrano/naZ8ESjU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-t/fqLaIAi5/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Ferro</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Almirante Brown</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
       <c r="J124" t="n">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,48 +11820,48 @@
         </is>
       </c>
       <c r="L124" t="n">
+        <v>3</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>25/03/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>24/03/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
         <v>2.98</v>
       </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>25/03/2023 22:32</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O124" t="inlineStr">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>25/03/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S124" t="inlineStr">
         <is>
           <t>24/03/2023 07:42</t>
         </is>
       </c>
-      <c r="P124" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>25/03/2023 22:32</t>
-        </is>
-      </c>
-      <c r="R124" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>24/03/2023 07:42</t>
-        </is>
-      </c>
       <c r="T124" t="n">
-        <v>2.87</v>
+        <v>2.66</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>25/03/2023 22:32</t>
+          <t>25/03/2023 16:49</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-almirante-brown/OKAEZBMu/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ferro/4MCaPhi4/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>25/03/2023 16:49</t>
+          <t>25/03/2023 22:32</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>25/03/2023 16:49</t>
+          <t>25/03/2023 22:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.66</v>
+        <v>2.87</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>25/03/2023 16:49</t>
+          <t>25/03/2023 22:32</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ferro/4MCaPhi4/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-almirante-brown/OKAEZBMu/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.71</v>
+        <v>2.18</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>26/03/2023 08:19</t>
+          <t>25/03/2023 18:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 20:22</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>26/03/2023 08:19</t>
+          <t>25/03/2023 18:42</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.78</v>
+        <v>4.04</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>26/03/2023 08:19</t>
+          <t>25/03/2023 18:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atletico-atlanta/6TcfSf7o/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-estudiantes-rio-cuarto/88z5F8yO/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.18</v>
+        <v>2.71</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>25/03/2023 18:42</t>
+          <t>26/03/2023 08:19</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/03/2023 20:22</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>25/03/2023 18:42</t>
+          <t>26/03/2023 08:19</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.04</v>
+        <v>2.78</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>25/03/2023 18:42</t>
+          <t>26/03/2023 08:19</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-estudiantes-rio-cuarto/88z5F8yO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atletico-atlanta/6TcfSf7o/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
         <v>1</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Def. de Belgrano</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
       <c r="J157" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:23</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.9</v>
+        <v>4.62</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>4.01</v>
+        <v>5.77</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.19</v>
+        <v>2.81</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:23</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.62</v>
+        <v>3.9</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>5.77</v>
+        <v>4.01</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15485,22 +15485,22 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>2.59</v>
+        <v>2.3</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>06/04/2023 14:12</t>
+          <t>06/04/2023 17:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>06/04/2023 14:12</t>
+          <t>06/04/2023 17:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2.84</v>
+        <v>2.77</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,15 +15524,15 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>06/04/2023 14:12</t>
+          <t>06/04/2023 17:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.44</v>
+        <v>3.69</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-brown-adrogue/2gtQyNtR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-agropecuario/f5EvzzJ7/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,22 +15577,22 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>2.3</v>
+        <v>2.59</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>06/04/2023 17:12</t>
+          <t>06/04/2023 14:12</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -15600,15 +15600,15 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>06/04/2023 17:12</t>
+          <t>06/04/2023 14:12</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -15616,15 +15616,15 @@
         </is>
       </c>
       <c r="R165" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>06/04/2023 17:12</t>
+          <t>06/04/2023 14:12</t>
         </is>
       </c>
       <c r="T165" t="n">
-        <v>3.69</v>
+        <v>3.44</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-agropecuario/f5EvzzJ7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-brown-adrogue/2gtQyNtR/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.97</v>
+        <v>3.66</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:19</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.66</v>
+        <v>2.97</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:19</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -17141,14 +17141,14 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J182" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>2.99</v>
+        <v>3.38</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.69</v>
+        <v>4.54</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-estudiantes-rio-cuarto/K8c2kFIf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ind-rivadavia/0lOCSI3D/</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -17233,14 +17233,14 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.38</v>
+        <v>2.99</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>4.54</v>
+        <v>3.69</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ind-rivadavia/0lOCSI3D/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-estudiantes-rio-cuarto/K8c2kFIf/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.57</v>
+        <v>1.88</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.24</v>
+        <v>1.89</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2.93</v>
+        <v>3.21</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2.78</v>
+        <v>3.03</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.94</v>
+        <v>4.34</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:25</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-san-martin-t/rRfZeHuR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.33</v>
+        <v>2.57</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.53</v>
+        <v>3.24</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>3.21</v>
+        <v>2.94</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>3.52</v>
+        <v>2.66</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:25</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-san-martin-t/rRfZeHuR/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,48 +17524,48 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="N186" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>15/04/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>3.21</v>
       </c>
-      <c r="O186" t="inlineStr">
+      <c r="S186" t="inlineStr">
         <is>
           <t>13/04/2023 13:12</t>
         </is>
       </c>
-      <c r="P186" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>15/04/2023 20:21</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>13/04/2023 13:12</t>
-        </is>
-      </c>
       <c r="T186" t="n">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
         </is>
       </c>
     </row>
@@ -17685,30 +17685,30 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
         <v>3</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="I188" t="n">
-        <v>2</v>
-      </c>
       <c r="J188" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.46</v>
+        <v>2.19</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
@@ -17716,40 +17716,40 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
+          <t>16/04/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
           <t>16/04/2023 20:29</t>
         </is>
       </c>
-      <c r="R188" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>13/04/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T188" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>16/04/2023 20:29</t>
-        </is>
-      </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
         </is>
       </c>
     </row>
@@ -17869,30 +17869,30 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -17900,31 +17900,31 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>16/04/2023 20:23</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>4.1</v>
+        <v>3.33</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.1</v>
+        <v>3.26</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>4.33</v>
+        <v>2.74</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.74</v>
+        <v>4.33</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
         </is>
       </c>
     </row>
@@ -18789,22 +18789,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>2.37</v>
+        <v>2.09</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,15 +18812,15 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.44</v>
+        <v>1.8</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>3.38</v>
+        <v>4.22</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>3.68</v>
+        <v>5.88</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>5.88</v>
+        <v>3.68</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>2.35</v>
+        <v>3.29</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.55</v>
+        <v>3.59</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>23/04/2023 18:54</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.39</v>
+        <v>2.47</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.47</v>
+        <v>2.33</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I209" t="n">
         <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>3.29</v>
+        <v>2.35</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>3.59</v>
+        <v>2.55</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19656,15 +19656,15 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 18:54</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>2.47</v>
+        <v>3.39</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2.33</v>
+        <v>3.47</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
         </is>
       </c>
     </row>
@@ -21181,71 +21181,71 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I226" t="n">
         <v>1</v>
       </c>
       <c r="J226" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L226" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2.66</v>
+        <v>3.12</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>2.59</v>
+        <v>3.72</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.49</v>
+        <v>5.81</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:59</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
         </is>
       </c>
     </row>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -21281,63 +21281,63 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T227" t="n">
-        <v>5.81</v>
+        <v>3.56</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:59</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
         </is>
       </c>
     </row>
@@ -21365,22 +21365,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
         <v>1</v>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>San Martin T.</t>
-        </is>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
       <c r="J228" t="n">
-        <v>2.41</v>
+        <v>3.15</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -21388,15 +21388,15 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -21404,15 +21404,15 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>3.66</v>
+        <v>2.59</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
@@ -21420,16 +21420,16 @@
         </is>
       </c>
       <c r="T228" t="n">
-        <v>3.56</v>
+        <v>2.49</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21576,11 +21576,11 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>4.31</v>
+        <v>3.9</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>4.88</v>
+        <v>4.3</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21668,11 +21668,11 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>3.9</v>
+        <v>4.31</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>4.3</v>
+        <v>4.88</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I238" t="n">
         <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.09</v>
+        <v>2.86</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         </is>
       </c>
       <c r="R238" t="n">
-        <v>3.97</v>
+        <v>3.43</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>3.84</v>
+        <v>4.4</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
         </is>
       </c>
     </row>
@@ -22377,22 +22377,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G239" t="n">
+        <v>2</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Ferro</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
         <v>4</v>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>San Martin S.J.</t>
-        </is>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
       <c r="J239" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -22400,15 +22400,15 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -22416,15 +22416,15 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:27</t>
         </is>
       </c>
       <c r="R239" t="n">
-        <v>3.43</v>
+        <v>3.74</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -22432,16 +22432,16 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>4.4</v>
+        <v>2.94</v>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>06/05/2023 20:29</t>
+          <t>06/05/2023 20:28</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-martin-s-j/dSF0TU0a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J240" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,15 +22492,15 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>2.92</v>
+        <v>3.09</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,15 +22508,15 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:27</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>3.74</v>
+        <v>3.97</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>2.94</v>
+        <v>3.84</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>06/05/2023 20:28</t>
+          <t>06/05/2023 20:29</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ferro/x8xgdlOA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-alvarado/l2ChVjWn/</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -23029,14 +23029,14 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>5.02</v>
+        <v>5.68</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:56</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.98</v>
+        <v>4.26</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.68</v>
+        <v>4.2</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
         </is>
       </c>
     </row>
@@ -23205,22 +23205,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -23228,15 +23228,15 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -23244,15 +23244,15 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>2.95</v>
+        <v>3.27</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>4.26</v>
+        <v>3.81</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -23260,16 +23260,16 @@
         </is>
       </c>
       <c r="T248" t="n">
-        <v>4.2</v>
+        <v>5.02</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:56</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atl-rafaela/MaGylQVj/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:27</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>5.56</v>
+        <v>3.29</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 19:54</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>2.88</v>
+        <v>3.16</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:27</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>3.29</v>
+        <v>5.56</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>07/05/2023 19:54</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>2.03</v>
+        <v>3.01</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>1.99</v>
+        <v>3.13</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>3.89</v>
+        <v>2.65</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>4.68</v>
+        <v>2.66</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25505,71 +25505,71 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>3.13</v>
+        <v>2.16</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>3.89</v>
+        <v>2.58</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.07</v>
+        <v>2.7</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>2.53</v>
+        <v>3.71</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="T273" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>3.01</v>
+        <v>1.69</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>3.13</v>
+        <v>1.68</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>2.91</v>
+        <v>3.33</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2.88</v>
+        <v>3.47</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>2.65</v>
+        <v>5.95</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.66</v>
+        <v>6.13</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -25689,71 +25689,71 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T275" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -25789,14 +25789,14 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.69</v>
+        <v>3.13</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -25804,15 +25804,15 @@
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.68</v>
+        <v>3.89</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -25820,15 +25820,15 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
@@ -25836,16 +25836,16 @@
         </is>
       </c>
       <c r="T276" t="n">
-        <v>6.13</v>
+        <v>2.16</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25873,22 +25873,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J277" t="n">
-        <v>2.33</v>
+        <v>2.03</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,48 +25896,48 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="N277" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
         <v>3.02</v>
       </c>
-      <c r="O277" t="inlineStr">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S277" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="P277" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q277" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:27</t>
-        </is>
-      </c>
-      <c r="R277" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:42</t>
-        </is>
-      </c>
       <c r="T277" t="n">
-        <v>3.52</v>
+        <v>4.68</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -25965,22 +25965,22 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>1.82</v>
+        <v>2.54</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -25988,15 +25988,15 @@
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1.75</v>
+        <v>2.94</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>3.52</v>
+        <v>2.96</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
@@ -26004,15 +26004,15 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>4.13</v>
+        <v>3.1</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="T278" t="n">
-        <v>5.23</v>
+        <v>2.59</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-madryn/z1TsaBek/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-quilmes/b57B6g3F/</t>
         </is>
       </c>
     </row>
@@ -26057,22 +26057,22 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Atl. Rafaela</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
       <c r="J279" t="n">
-        <v>2.47</v>
+        <v>1.82</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -26080,15 +26080,15 @@
         </is>
       </c>
       <c r="L279" t="n">
-        <v>2.58</v>
+        <v>1.75</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>2.91</v>
+        <v>3.52</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
@@ -26096,15 +26096,15 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>2.81</v>
+        <v>3.5</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="R279" t="n">
-        <v>3.26</v>
+        <v>4.13</v>
       </c>
       <c r="S279" t="inlineStr">
         <is>
@@ -26112,16 +26112,16 @@
         </is>
       </c>
       <c r="T279" t="n">
-        <v>3.33</v>
+        <v>5.23</v>
       </c>
       <c r="U279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atl-rafaela/McPw0itq/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-madryn/z1TsaBek/</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -26157,14 +26157,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>2.59</v>
+        <v>3.33</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-quilmes/b57B6g3F/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atl-rafaela/McPw0itq/</t>
         </is>
       </c>
     </row>
@@ -26425,71 +26425,71 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>4.27</v>
+        <v>2.95</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4.12</v>
+        <v>2.74</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>7.72</v>
+        <v>4.25</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="T283" t="n">
-        <v>10.73</v>
+        <v>3.7</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>2.95</v>
+        <v>4.27</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>4.25</v>
+        <v>7.72</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>3.7</v>
+        <v>10.73</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
         </is>
       </c>
     </row>
@@ -32037,22 +32037,22 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I344" t="n">
         <v>1</v>
       </c>
       <c r="J344" t="n">
-        <v>2.07</v>
+        <v>1.54</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -32060,15 +32060,15 @@
         </is>
       </c>
       <c r="L344" t="n">
-        <v>2.26</v>
+        <v>1.41</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>3.02</v>
+        <v>3.73</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -32076,15 +32076,15 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>2.91</v>
+        <v>4.34</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="R344" t="n">
-        <v>4.16</v>
+        <v>7.08</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
@@ -32092,16 +32092,16 @@
         </is>
       </c>
       <c r="T344" t="n">
-        <v>3.85</v>
+        <v>9.16</v>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-guillermo-brown/Y7mlqgEB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-villa-dalmine/8xWH9JFO/</t>
         </is>
       </c>
     </row>
@@ -32129,22 +32129,22 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I345" t="n">
         <v>1</v>
       </c>
       <c r="J345" t="n">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -32152,15 +32152,15 @@
         </is>
       </c>
       <c r="L345" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>3.73</v>
+        <v>3.02</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -32168,15 +32168,15 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>4.34</v>
+        <v>2.91</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="R345" t="n">
-        <v>7.08</v>
+        <v>4.16</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
@@ -32184,16 +32184,16 @@
         </is>
       </c>
       <c r="T345" t="n">
-        <v>9.16</v>
+        <v>3.85</v>
       </c>
       <c r="U345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="V345" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-villa-dalmine/8xWH9JFO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-guillermo-brown/Y7mlqgEB/</t>
         </is>
       </c>
     </row>
@@ -33049,22 +33049,22 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G355" t="n">
+        <v>2</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
         <v>1</v>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>Tristan Suarez</t>
-        </is>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
       <c r="J355" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -33072,15 +33072,15 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>3.12</v>
+        <v>2.82</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -33088,15 +33088,15 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>3.99</v>
+        <v>4.12</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
@@ -33104,16 +33104,16 @@
         </is>
       </c>
       <c r="T355" t="n">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>24/06/2023 19:58</t>
+          <t>24/06/2023 19:39</t>
         </is>
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
         </is>
       </c>
     </row>
@@ -33141,22 +33141,22 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="I356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -33164,15 +33164,15 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -33180,15 +33180,15 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>2.64</v>
+        <v>3.04</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="R356" t="n">
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
@@ -33196,16 +33196,16 @@
         </is>
       </c>
       <c r="T356" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="U356" t="inlineStr">
         <is>
-          <t>24/06/2023 19:39</t>
+          <t>24/06/2023 19:58</t>
         </is>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-de-belgrano/hWMQdCrB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-tristan-suarez/r511t0pn/</t>
         </is>
       </c>
     </row>
@@ -34429,22 +34429,22 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G370" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -34452,15 +34452,15 @@
         </is>
       </c>
       <c r="L370" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -34468,15 +34468,15 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:52</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="R370" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
       </c>
       <c r="S370" t="inlineStr">
         <is>
@@ -34484,16 +34484,16 @@
         </is>
       </c>
       <c r="T370" t="n">
-        <v>3.18</v>
+        <v>4.29</v>
       </c>
       <c r="U370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="V370" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
         </is>
       </c>
     </row>
@@ -34521,22 +34521,22 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G371" t="n">
+        <v>4</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
-      <c r="I371" t="n">
-        <v>1</v>
-      </c>
       <c r="J371" t="n">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -34544,15 +34544,15 @@
         </is>
       </c>
       <c r="L371" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="N371" t="n">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -34560,15 +34560,15 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:52</t>
         </is>
       </c>
       <c r="R371" t="n">
-        <v>3.68</v>
+        <v>3.07</v>
       </c>
       <c r="S371" t="inlineStr">
         <is>
@@ -34576,16 +34576,16 @@
         </is>
       </c>
       <c r="T371" t="n">
-        <v>4.29</v>
+        <v>3.18</v>
       </c>
       <c r="U371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="V371" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
         </is>
       </c>
     </row>
@@ -35257,7 +35257,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -35265,63 +35265,63 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="L379" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="N379" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="R379" t="n">
-        <v>4.41</v>
+        <v>3.81</v>
       </c>
       <c r="S379" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="T379" t="n">
-        <v>5.78</v>
+        <v>3.87</v>
       </c>
       <c r="U379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="V379" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-alvarado/zFvH7TdT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-aldosivi/CpgIxIqB/</t>
         </is>
       </c>
     </row>
@@ -35349,7 +35349,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -35357,63 +35357,63 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="L380" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="N380" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="R380" t="n">
-        <v>3.81</v>
+        <v>4.41</v>
       </c>
       <c r="S380" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="T380" t="n">
-        <v>3.87</v>
+        <v>5.78</v>
       </c>
       <c r="U380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="V380" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-aldosivi/CpgIxIqB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-alvarado/zFvH7TdT/</t>
         </is>
       </c>
     </row>
@@ -35441,22 +35441,22 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" t="n">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -35464,15 +35464,15 @@
         </is>
       </c>
       <c r="L381" t="n">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="N381" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
@@ -35480,15 +35480,15 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="R381" t="n">
-        <v>5.02</v>
+        <v>4.67</v>
       </c>
       <c r="S381" t="inlineStr">
         <is>
@@ -35496,16 +35496,16 @@
         </is>
       </c>
       <c r="T381" t="n">
-        <v>6.36</v>
+        <v>4.84</v>
       </c>
       <c r="U381" t="inlineStr">
         <is>
-          <t>02/07/2023 21:56</t>
+          <t>02/07/2023 21:30</t>
         </is>
       </c>
       <c r="V381" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-flandria/dOuD89sN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-almagro/0xphDXSi/</t>
         </is>
       </c>
     </row>
@@ -35533,22 +35533,22 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G382" t="n">
+        <v>3</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
         <v>1</v>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
       <c r="J382" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -35556,15 +35556,15 @@
         </is>
       </c>
       <c r="L382" t="n">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="N382" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
@@ -35572,15 +35572,15 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>2.84</v>
+        <v>3.46</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="R382" t="n">
-        <v>4.67</v>
+        <v>5.02</v>
       </c>
       <c r="S382" t="inlineStr">
         <is>
@@ -35588,16 +35588,16 @@
         </is>
       </c>
       <c r="T382" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="U382" t="inlineStr">
         <is>
-          <t>02/07/2023 21:30</t>
+          <t>02/07/2023 21:56</t>
         </is>
       </c>
       <c r="V382" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-almagro/0xphDXSi/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-flandria/dOuD89sN/</t>
         </is>
       </c>
     </row>
@@ -36177,22 +36177,22 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
       <c r="J389" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -36200,15 +36200,15 @@
         </is>
       </c>
       <c r="L389" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="N389" t="n">
-        <v>3.07</v>
+        <v>3.4</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -36216,15 +36216,15 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="R389" t="n">
-        <v>3.18</v>
+        <v>6.08</v>
       </c>
       <c r="S389" t="inlineStr">
         <is>
@@ -36232,16 +36232,16 @@
         </is>
       </c>
       <c r="T389" t="n">
-        <v>3.86</v>
+        <v>5.36</v>
       </c>
       <c r="U389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="V389" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-racing-cordoba/CMCZrg6p/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-all-boys/0INvN8dG/</t>
         </is>
       </c>
     </row>
@@ -36269,7 +36269,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -36277,14 +36277,14 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -36292,15 +36292,15 @@
         </is>
       </c>
       <c r="L390" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="N390" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
@@ -36308,15 +36308,15 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="R390" t="n">
-        <v>6.08</v>
+        <v>4.47</v>
       </c>
       <c r="S390" t="inlineStr">
         <is>
@@ -36324,16 +36324,16 @@
         </is>
       </c>
       <c r="T390" t="n">
-        <v>5.36</v>
+        <v>4.37</v>
       </c>
       <c r="U390" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="V390" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-all-boys/0INvN8dG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-estudiantes-rio-cuarto/6eOzOlsA/</t>
         </is>
       </c>
     </row>
@@ -36361,22 +36361,22 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -36384,7 +36384,7 @@
         </is>
       </c>
       <c r="L391" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="M391" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         </is>
       </c>
       <c r="N391" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         </is>
       </c>
       <c r="R391" t="n">
-        <v>4.47</v>
+        <v>3.18</v>
       </c>
       <c r="S391" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         </is>
       </c>
       <c r="T391" t="n">
-        <v>4.37</v>
+        <v>3.86</v>
       </c>
       <c r="U391" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
       </c>
       <c r="V391" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-estudiantes-rio-cuarto/6eOzOlsA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-racing-cordoba/CMCZrg6p/</t>
         </is>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -36553,14 +36553,14 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J393" t="n">
-        <v>3.16</v>
+        <v>2.21</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -36568,15 +36568,15 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>3.46</v>
+        <v>2.38</v>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="N393" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -36584,15 +36584,15 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="R393" t="n">
-        <v>2.54</v>
+        <v>3.65</v>
       </c>
       <c r="S393" t="inlineStr">
         <is>
@@ -36600,16 +36600,16 @@
         </is>
       </c>
       <c r="T393" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="V393" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
         </is>
       </c>
     </row>
@@ -36729,7 +36729,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -36737,14 +36737,14 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395" t="n">
-        <v>2.21</v>
+        <v>3.16</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -36752,15 +36752,15 @@
         </is>
       </c>
       <c r="L395" t="n">
-        <v>2.38</v>
+        <v>3.46</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="N395" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -36768,15 +36768,15 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="R395" t="n">
-        <v>3.65</v>
+        <v>2.54</v>
       </c>
       <c r="S395" t="inlineStr">
         <is>
@@ -36784,16 +36784,16 @@
         </is>
       </c>
       <c r="T395" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="V395" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
         </is>
       </c>
     </row>
@@ -39397,7 +39397,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G424" t="n">
@@ -39405,63 +39405,63 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:53</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>3.1</v>
+        <v>3.61</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>18/07/2023 16:11</t>
+          <t>18/07/2023 16:12</t>
         </is>
       </c>
       <c r="T424" t="n">
-        <v>4.19</v>
+        <v>3.81</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:51</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
         </is>
       </c>
     </row>
@@ -39489,7 +39489,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G425" t="n">
@@ -39497,63 +39497,63 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:53</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>3.61</v>
+        <v>3.1</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>18/07/2023 16:12</t>
+          <t>18/07/2023 16:11</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>3.81</v>
+        <v>4.19</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:51</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ferro/KjYmbPBl/</t>
         </is>
       </c>
     </row>
@@ -41145,71 +41145,71 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="N443" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:28</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="R443" t="n">
-        <v>4.94</v>
+        <v>4.33</v>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="T443" t="n">
-        <v>4.34</v>
+        <v>5.28</v>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:05</t>
         </is>
       </c>
       <c r="V443" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
         </is>
       </c>
     </row>
@@ -41237,71 +41237,71 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J444" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="N444" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:28</t>
         </is>
       </c>
       <c r="R444" t="n">
-        <v>4.33</v>
+        <v>4.94</v>
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="T444" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="U444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:05</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="V444" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
         </is>
       </c>
     </row>
@@ -43721,7 +43721,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G471" t="n">
@@ -43729,63 +43729,63 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J471" t="n">
-        <v>3.32</v>
+        <v>1.94</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="L471" t="n">
-        <v>4.17</v>
+        <v>1.91</v>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="N471" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="R471" t="n">
-        <v>2.44</v>
+        <v>4.77</v>
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="T471" t="n">
-        <v>2.15</v>
+        <v>4.86</v>
       </c>
       <c r="U471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:25</t>
         </is>
       </c>
       <c r="V471" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
         </is>
       </c>
     </row>
@@ -43813,7 +43813,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G472" t="n">
@@ -43821,63 +43821,63 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>1.94</v>
+        <v>3.32</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="L472" t="n">
-        <v>1.91</v>
+        <v>4.17</v>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="N472" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="R472" t="n">
-        <v>4.77</v>
+        <v>2.44</v>
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="T472" t="n">
-        <v>4.86</v>
+        <v>2.15</v>
       </c>
       <c r="U472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:25</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="V472" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
         </is>
       </c>
     </row>
@@ -44549,22 +44549,22 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
       <c r="J480" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -44572,15 +44572,15 @@
         </is>
       </c>
       <c r="L480" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="N480" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="O480" t="inlineStr">
         <is>
@@ -44588,15 +44588,15 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="R480" t="n">
-        <v>3.94</v>
+        <v>3.39</v>
       </c>
       <c r="S480" t="inlineStr">
         <is>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="T480" t="n">
-        <v>4.89</v>
+        <v>4.14</v>
       </c>
       <c r="U480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="V480" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-guillermo-brown/U7bpeg8a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-flandria/2cjchihI/</t>
         </is>
       </c>
     </row>
@@ -44641,22 +44641,22 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -44664,15 +44664,15 @@
         </is>
       </c>
       <c r="L481" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="N481" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O481" t="inlineStr">
         <is>
@@ -44680,15 +44680,15 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="R481" t="n">
-        <v>3.39</v>
+        <v>3.94</v>
       </c>
       <c r="S481" t="inlineStr">
         <is>
@@ -44696,16 +44696,16 @@
         </is>
       </c>
       <c r="T481" t="n">
-        <v>4.14</v>
+        <v>4.89</v>
       </c>
       <c r="U481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="V481" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-flandria/2cjchihI/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-guillermo-brown/U7bpeg8a/</t>
         </is>
       </c>
     </row>
@@ -45193,22 +45193,22 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J487" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -45216,15 +45216,15 @@
         </is>
       </c>
       <c r="L487" t="n">
-        <v>2.49</v>
+        <v>1.95</v>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="N487" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="O487" t="inlineStr">
         <is>
@@ -45232,15 +45232,15 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2.68</v>
+        <v>3.44</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="R487" t="n">
-        <v>4.14</v>
+        <v>3.78</v>
       </c>
       <c r="S487" t="inlineStr">
         <is>
@@ -45248,16 +45248,16 @@
         </is>
       </c>
       <c r="T487" t="n">
-        <v>3.71</v>
+        <v>4.13</v>
       </c>
       <c r="U487" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="V487" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
         </is>
       </c>
     </row>
@@ -45285,22 +45285,22 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J488" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -45308,15 +45308,15 @@
         </is>
       </c>
       <c r="L488" t="n">
-        <v>1.95</v>
+        <v>2.49</v>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N488" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -45324,15 +45324,15 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R488" t="n">
-        <v>3.78</v>
+        <v>4.14</v>
       </c>
       <c r="S488" t="inlineStr">
         <is>
@@ -45340,16 +45340,16 @@
         </is>
       </c>
       <c r="T488" t="n">
-        <v>4.13</v>
+        <v>3.71</v>
       </c>
       <c r="U488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V488" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-aldosivi/zNvMJcvP/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
         </is>
       </c>
     </row>
@@ -48413,7 +48413,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G522" t="n">
@@ -48421,14 +48421,14 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>2.72</v>
+        <v>1.47</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -48436,15 +48436,15 @@
         </is>
       </c>
       <c r="L522" t="n">
-        <v>3.07</v>
+        <v>1.39</v>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="N522" t="n">
-        <v>2.71</v>
+        <v>4.08</v>
       </c>
       <c r="O522" t="inlineStr">
         <is>
@@ -48452,15 +48452,15 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2.61</v>
+        <v>4.45</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="R522" t="n">
-        <v>3.15</v>
+        <v>7.54</v>
       </c>
       <c r="S522" t="inlineStr">
         <is>
@@ -48468,16 +48468,16 @@
         </is>
       </c>
       <c r="T522" t="n">
-        <v>2.98</v>
+        <v>9.34</v>
       </c>
       <c r="U522" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="V522" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
         </is>
       </c>
     </row>
@@ -48505,7 +48505,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G523" t="n">
@@ -48513,14 +48513,14 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
       <c r="J523" t="n">
-        <v>1.47</v>
+        <v>2.72</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -48528,15 +48528,15 @@
         </is>
       </c>
       <c r="L523" t="n">
-        <v>1.39</v>
+        <v>3.07</v>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N523" t="n">
-        <v>4.08</v>
+        <v>2.71</v>
       </c>
       <c r="O523" t="inlineStr">
         <is>
@@ -48544,15 +48544,15 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>4.45</v>
+        <v>2.61</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R523" t="n">
-        <v>7.54</v>
+        <v>3.15</v>
       </c>
       <c r="S523" t="inlineStr">
         <is>
@@ -48560,16 +48560,16 @@
         </is>
       </c>
       <c r="T523" t="n">
-        <v>9.34</v>
+        <v>2.98</v>
       </c>
       <c r="U523" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V523" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
         </is>
       </c>
     </row>
@@ -51725,22 +51725,22 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G558" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>2.33</v>
+        <v>1.35</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -51748,15 +51748,15 @@
         </is>
       </c>
       <c r="L558" t="n">
-        <v>2.23</v>
+        <v>1.34</v>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 19:40</t>
         </is>
       </c>
       <c r="N558" t="n">
-        <v>2.88</v>
+        <v>4.55</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -51764,15 +51764,15 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>3.01</v>
+        <v>4.81</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R558" t="n">
-        <v>3.6</v>
+        <v>8.08</v>
       </c>
       <c r="S558" t="inlineStr">
         <is>
@@ -51780,16 +51780,16 @@
         </is>
       </c>
       <c r="T558" t="n">
-        <v>3.78</v>
+        <v>10.24</v>
       </c>
       <c r="U558" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V558" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
         </is>
       </c>
     </row>
@@ -51909,22 +51909,22 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G560" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J560" t="n">
-        <v>1.35</v>
+        <v>2.33</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,15 +51932,15 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>1.34</v>
+        <v>2.23</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>16/09/2023 19:40</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N560" t="n">
-        <v>4.55</v>
+        <v>2.88</v>
       </c>
       <c r="O560" t="inlineStr">
         <is>
@@ -51948,15 +51948,15 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>4.81</v>
+        <v>3.01</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R560" t="n">
-        <v>8.08</v>
+        <v>3.6</v>
       </c>
       <c r="S560" t="inlineStr">
         <is>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="T560" t="n">
-        <v>10.24</v>
+        <v>3.78</v>
       </c>
       <c r="U560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
         </is>
       </c>
     </row>
@@ -57494,6 +57494,374 @@
       <c r="V620" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-deportivo-moron/MTetNs9p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E621" s="2" t="n">
+        <v>45207.83333333334</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>San Martin T.</t>
+        </is>
+      </c>
+      <c r="G621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Almirante Brown</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L621" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N621" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P621" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q621" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R621" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="S621" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T621" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U621" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V621" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-t-almirante-brown/GnJDRN0T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E622" s="2" t="n">
+        <v>45207.85416666666</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="G622" t="n">
+        <v>1</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Deportivo Maipu</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>1</v>
+      </c>
+      <c r="J622" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L622" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N622" t="n">
+        <v>3</v>
+      </c>
+      <c r="O622" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P622" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q622" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R622" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S622" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T622" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U622" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V622" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-maipu/bg7c7r7h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E623" s="2" t="n">
+        <v>45207.85416666666</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>Dep. Riestra</t>
+        </is>
+      </c>
+      <c r="G623" t="n">
+        <v>1</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>Ferro</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>1</v>
+      </c>
+      <c r="J623" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L623" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N623" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O623" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P623" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R623" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S623" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T623" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U623" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="V623" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-ferro/vRsWLsMo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E624" s="2" t="n">
+        <v>45207.85416666666</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="G624" t="n">
+        <v>0</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L624" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N624" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P624" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="R624" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="S624" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T624" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U624" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V624" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-flandria/8zevrqoA/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V624"/>
+  <dimension ref="A1:V628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.19</v>
+        <v>2.81</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:23</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.62</v>
+        <v>3.9</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>02/04/2023 20:42</t>
+          <t>04/04/2023 16:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.77</v>
+        <v>4.01</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>05/04/2023 20:25</t>
+          <t>05/04/2023 20:26</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>1</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Def. de Belgrano</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:23</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.9</v>
+        <v>4.62</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>04/04/2023 16:42</t>
+          <t>02/04/2023 20:42</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.01</v>
+        <v>5.77</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>05/04/2023 20:26</t>
+          <t>05/04/2023 20:25</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-defensores-de-belgrano/KUAiyPcp/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-san-telmo/63S4pTzb/</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -15761,14 +15761,14 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>08/04/2023 20:16</t>
+          <t>08/04/2023 20:47</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.01</v>
+        <v>3.4</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>08/04/2023 20:16</t>
+          <t>08/04/2023 16:14</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>3.78</v>
+        <v>3.62</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>08/04/2023 20:16</t>
+          <t>08/04/2023 20:47</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-alvarado/GGffepkG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-ferro/SzlDvPd8/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,14 +15853,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:47</t>
+          <t>08/04/2023 20:16</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.4</v>
+        <v>3.01</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>08/04/2023 16:14</t>
+          <t>08/04/2023 20:16</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.62</v>
+        <v>3.78</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:47</t>
+          <t>08/04/2023 20:16</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-ferro/SzlDvPd8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-alvarado/GGffepkG/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.66</v>
+        <v>2.97</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:19</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.97</v>
+        <v>3.66</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:19</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -17141,14 +17141,14 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.38</v>
+        <v>2.99</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>4.54</v>
+        <v>3.69</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>15/04/2023 01:58</t>
+          <t>15/04/2023 01:35</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ind-rivadavia/0lOCSI3D/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-estudiantes-rio-cuarto/K8c2kFIf/</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -17233,14 +17233,14 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>2.99</v>
+        <v>3.38</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.69</v>
+        <v>4.54</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>15/04/2023 01:35</t>
+          <t>15/04/2023 01:58</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-estudiantes-rio-cuarto/K8c2kFIf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ind-rivadavia/0lOCSI3D/</t>
         </is>
       </c>
     </row>
@@ -17685,30 +17685,30 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
@@ -17716,31 +17716,31 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:23</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>4.95</v>
+        <v>4.03</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>4.1</v>
+        <v>3.33</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -17869,30 +17869,30 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
         <v>3</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="I190" t="n">
-        <v>2</v>
-      </c>
       <c r="J190" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.46</v>
+        <v>2.19</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
@@ -17900,40 +17900,40 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
+          <t>16/04/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
           <t>16/04/2023 20:29</t>
         </is>
       </c>
-      <c r="R190" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>13/04/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T190" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="U190" t="inlineStr">
-        <is>
-          <t>16/04/2023 20:29</t>
-        </is>
-      </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-deportivo-madryn/G0M0VKJf/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.74</v>
+        <v>4.33</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.1</v>
+        <v>3.26</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>4.33</v>
+        <v>2.74</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
         </is>
       </c>
     </row>
@@ -18789,22 +18789,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,15 +18812,15 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>5.88</v>
+        <v>3.68</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>2.37</v>
+        <v>2.09</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.44</v>
+        <v>1.8</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2.83</v>
+        <v>2.94</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>3.38</v>
+        <v>4.22</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>3.68</v>
+        <v>5.88</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>3.29</v>
+        <v>2.35</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>3.59</v>
+        <v>2.55</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 18:54</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>2.47</v>
+        <v>3.39</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>2.33</v>
+        <v>3.47</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>1.85</v>
+        <v>3.29</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.9</v>
+        <v>3.59</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.19</v>
+        <v>2.89</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19568,11 +19568,11 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>4.52</v>
+        <v>2.47</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>5.39</v>
+        <v>2.33</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3</v>
+        <v>3.19</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19656,15 +19656,15 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>23/04/2023 18:54</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.39</v>
+        <v>4.52</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.47</v>
+        <v>5.39</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,63 +20545,63 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>2.76</v>
+        <v>1.99</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>3.53</v>
+        <v>2.29</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>2.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 18:24</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>2.66</v>
+        <v>4.13</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,63 +20637,63 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.29</v>
+        <v>3.53</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3.11</v>
+        <v>2.8</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/04/2023 18:24</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>4.13</v>
+        <v>2.66</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>3.48</v>
+        <v>2.47</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
         </is>
       </c>
     </row>
@@ -23021,22 +23021,22 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>3.98</v>
+        <v>4.26</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>5.68</v>
+        <v>4.2</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>4.26</v>
+        <v>3.98</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>4.2</v>
+        <v>5.68</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.55</v>
+        <v>1.81</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>2.88</v>
+        <v>3.16</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>07/05/2023 20:26</t>
+          <t>07/05/2023 20:27</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.29</v>
+        <v>5.56</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>07/05/2023 19:54</t>
+          <t>07/05/2023 20:28</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>1.81</v>
+        <v>2.55</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:27</t>
+          <t>07/05/2023 20:26</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>5.56</v>
+        <v>3.29</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>07/05/2023 20:28</t>
+          <t>07/05/2023 19:54</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-brown-adrogue/2FZ4gn8T/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-quilmes/OOz1fShN/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J272" t="n">
-        <v>3.01</v>
+        <v>2.03</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>3.13</v>
+        <v>1.99</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>2.91</v>
+        <v>3.1</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>2.65</v>
+        <v>3.89</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>2.66</v>
+        <v>4.68</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -25505,71 +25505,71 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T273" t="n">
         <v>2.16</v>
       </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>19/05/2023 04:12</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:53</t>
-        </is>
-      </c>
-      <c r="N273" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O273" t="inlineStr">
-        <is>
-          <t>19/05/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P273" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q273" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:53</t>
-        </is>
-      </c>
-      <c r="R273" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>19/05/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T273" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>1.69</v>
+        <v>3.01</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>1.68</v>
+        <v>3.13</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.33</v>
+        <v>2.91</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.47</v>
+        <v>2.88</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>5.95</v>
+        <v>2.65</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>6.13</v>
+        <v>2.66</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25689,71 +25689,71 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="T275" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -25789,14 +25789,14 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>3.13</v>
+        <v>1.69</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -25804,15 +25804,15 @@
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.89</v>
+        <v>1.68</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -25820,15 +25820,15 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>2.53</v>
+        <v>5.95</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
@@ -25836,16 +25836,16 @@
         </is>
       </c>
       <c r="T276" t="n">
-        <v>2.16</v>
+        <v>6.13</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -25873,22 +25873,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,15 +25896,15 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -25912,15 +25912,15 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>3.89</v>
+        <v>3.4</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
@@ -25928,16 +25928,16 @@
         </is>
       </c>
       <c r="T277" t="n">
-        <v>4.68</v>
+        <v>3.52</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -30749,7 +30749,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G330" t="n">
@@ -30757,38 +30757,38 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
       <c r="J330" t="n">
-        <v>2.57</v>
+        <v>1.91</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="L330" t="n">
-        <v>2.92</v>
+        <v>1.79</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>10/06/2023 20:26</t>
+          <t>10/06/2023 20:22</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>3.05</v>
+        <v>3.17</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -30796,24 +30796,24 @@
         </is>
       </c>
       <c r="R330" t="n">
-        <v>2.83</v>
+        <v>4.61</v>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="T330" t="n">
-        <v>3.11</v>
+        <v>5.17</v>
       </c>
       <c r="U330" t="inlineStr">
         <is>
-          <t>10/06/2023 20:26</t>
+          <t>10/06/2023 20:22</t>
         </is>
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-gimnasia-mendoza/zgoxj4VQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-club-atletico-guemes/WOW7prgl/</t>
         </is>
       </c>
     </row>
@@ -30841,71 +30841,71 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G331" t="n">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Deportivo Moron</t>
-        </is>
-      </c>
-      <c r="I331" t="n">
-        <v>1</v>
-      </c>
       <c r="J331" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>07/06/2023 17:12</t>
+          <t>08/06/2023 16:42</t>
         </is>
       </c>
       <c r="L331" t="n">
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:29</t>
+          <t>10/06/2023 20:26</t>
         </is>
       </c>
       <c r="N331" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>08/06/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>10/06/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R331" t="n">
         <v>2.83</v>
       </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>07/06/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P331" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>10/06/2023 20:29</t>
-        </is>
-      </c>
-      <c r="R331" t="n">
-        <v>3.95</v>
-      </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>07/06/2023 17:12</t>
+          <t>08/06/2023 16:42</t>
         </is>
       </c>
       <c r="T331" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="U331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:29</t>
+          <t>10/06/2023 20:26</t>
         </is>
       </c>
       <c r="V331" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-deportivo-moron/Czl5q28f/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-gimnasia-mendoza/zgoxj4VQ/</t>
         </is>
       </c>
     </row>
@@ -30933,22 +30933,22 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G332" t="n">
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Deportivo Moron</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
         <v>1</v>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Club A. Guemes</t>
-        </is>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
       <c r="J332" t="n">
-        <v>1.91</v>
+        <v>2.23</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -30956,15 +30956,15 @@
         </is>
       </c>
       <c r="L332" t="n">
-        <v>1.79</v>
+        <v>2.61</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>10/06/2023 20:22</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="N332" t="n">
-        <v>3.17</v>
+        <v>2.83</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
@@ -30972,15 +30972,15 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>3.4</v>
+        <v>2.61</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>10/06/2023 20:22</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="R332" t="n">
-        <v>4.61</v>
+        <v>3.95</v>
       </c>
       <c r="S332" t="inlineStr">
         <is>
@@ -30988,16 +30988,16 @@
         </is>
       </c>
       <c r="T332" t="n">
-        <v>5.17</v>
+        <v>3.6</v>
       </c>
       <c r="U332" t="inlineStr">
         <is>
-          <t>10/06/2023 20:22</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="V332" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-club-atletico-guemes/WOW7prgl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-deportivo-moron/Czl5q28f/</t>
         </is>
       </c>
     </row>
@@ -35257,7 +35257,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -35265,63 +35265,63 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="L379" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="N379" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="R379" t="n">
-        <v>3.81</v>
+        <v>4.41</v>
       </c>
       <c r="S379" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="T379" t="n">
-        <v>3.87</v>
+        <v>5.78</v>
       </c>
       <c r="U379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="V379" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-aldosivi/CpgIxIqB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-alvarado/zFvH7TdT/</t>
         </is>
       </c>
     </row>
@@ -35349,7 +35349,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -35357,63 +35357,63 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="L380" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="N380" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="R380" t="n">
-        <v>4.41</v>
+        <v>3.81</v>
       </c>
       <c r="S380" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="T380" t="n">
-        <v>5.78</v>
+        <v>3.87</v>
       </c>
       <c r="U380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="V380" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-alvarado/zFvH7TdT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-aldosivi/CpgIxIqB/</t>
         </is>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -36553,14 +36553,14 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J393" t="n">
-        <v>2.21</v>
+        <v>3.16</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -36568,15 +36568,15 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>2.38</v>
+        <v>3.46</v>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="N393" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
@@ -36584,15 +36584,15 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="R393" t="n">
-        <v>3.65</v>
+        <v>2.54</v>
       </c>
       <c r="S393" t="inlineStr">
         <is>
@@ -36600,16 +36600,16 @@
         </is>
       </c>
       <c r="T393" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:28</t>
         </is>
       </c>
       <c r="V393" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
         </is>
       </c>
     </row>
@@ -36637,7 +36637,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -36645,14 +36645,14 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J394" t="n">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -36660,15 +36660,15 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="N394" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -36676,15 +36676,15 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="R394" t="n">
-        <v>3.27</v>
+        <v>3.65</v>
       </c>
       <c r="S394" t="inlineStr">
         <is>
@@ -36692,16 +36692,16 @@
         </is>
       </c>
       <c r="T394" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="V394" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
         </is>
       </c>
     </row>
@@ -36729,7 +36729,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -36737,14 +36737,14 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I395" t="n">
         <v>2</v>
       </c>
       <c r="J395" t="n">
-        <v>3.16</v>
+        <v>2.48</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -36752,15 +36752,15 @@
         </is>
       </c>
       <c r="L395" t="n">
-        <v>3.46</v>
+        <v>2.55</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="N395" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -36768,15 +36768,15 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="R395" t="n">
-        <v>2.54</v>
+        <v>3.27</v>
       </c>
       <c r="S395" t="inlineStr">
         <is>
@@ -36784,16 +36784,16 @@
         </is>
       </c>
       <c r="T395" t="n">
-        <v>2.32</v>
+        <v>3.34</v>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:28</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="V395" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-atletico-atlanta/jDBwrDLj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
         </is>
       </c>
     </row>
@@ -38201,7 +38201,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G411" t="n">
@@ -38209,22 +38209,22 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J411" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="L411" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="M411" t="inlineStr">
         <is>
@@ -38232,31 +38232,31 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>15/07/2023 20:58</t>
+          <t>15/07/2023 20:59</t>
         </is>
       </c>
       <c r="R411" t="n">
-        <v>3.57</v>
+        <v>4.06</v>
       </c>
       <c r="S411" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="T411" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="U411" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
       </c>
       <c r="V411" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-gimnasia-mendoza/YNJkIJAl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ca-estudiantes/l2f56m48/</t>
         </is>
       </c>
     </row>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -38301,22 +38301,22 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J412" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 22:12</t>
         </is>
       </c>
       <c r="L412" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
@@ -38324,40 +38324,40 @@
         </is>
       </c>
       <c r="N412" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 22:12</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
+          <t>15/07/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R412" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>11/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T412" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
           <t>15/07/2023 20:59</t>
         </is>
       </c>
-      <c r="R412" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S412" t="inlineStr">
-        <is>
-          <t>11/07/2023 17:42</t>
-        </is>
-      </c>
-      <c r="T412" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="U412" t="inlineStr">
-        <is>
-          <t>15/07/2023 20:59</t>
-        </is>
-      </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ca-estudiantes/l2f56m48/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-gimnasia-mendoza/YNJkIJAl/</t>
         </is>
       </c>
     </row>
@@ -44549,22 +44549,22 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
       <c r="J480" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -44572,15 +44572,15 @@
         </is>
       </c>
       <c r="L480" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="N480" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O480" t="inlineStr">
         <is>
@@ -44588,15 +44588,15 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="R480" t="n">
-        <v>3.39</v>
+        <v>3.94</v>
       </c>
       <c r="S480" t="inlineStr">
         <is>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="T480" t="n">
-        <v>4.14</v>
+        <v>4.89</v>
       </c>
       <c r="U480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="V480" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-flandria/2cjchihI/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-guillermo-brown/U7bpeg8a/</t>
         </is>
       </c>
     </row>
@@ -44641,22 +44641,22 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -44664,15 +44664,15 @@
         </is>
       </c>
       <c r="L481" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="N481" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="O481" t="inlineStr">
         <is>
@@ -44680,15 +44680,15 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="R481" t="n">
-        <v>3.94</v>
+        <v>3.39</v>
       </c>
       <c r="S481" t="inlineStr">
         <is>
@@ -44696,16 +44696,16 @@
         </is>
       </c>
       <c r="T481" t="n">
-        <v>4.89</v>
+        <v>4.14</v>
       </c>
       <c r="U481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="V481" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-guillermo-brown/U7bpeg8a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-flandria/2cjchihI/</t>
         </is>
       </c>
     </row>
@@ -45101,22 +45101,22 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I486" t="n">
         <v>1</v>
       </c>
       <c r="J486" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -45124,15 +45124,15 @@
         </is>
       </c>
       <c r="L486" t="n">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="N486" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="O486" t="inlineStr">
         <is>
@@ -45140,15 +45140,15 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3.08</v>
+        <v>2.68</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="R486" t="n">
-        <v>3.66</v>
+        <v>4.14</v>
       </c>
       <c r="S486" t="inlineStr">
         <is>
@@ -45156,16 +45156,16 @@
         </is>
       </c>
       <c r="T486" t="n">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="U486" t="inlineStr">
         <is>
-          <t>19/08/2023 19:59</t>
+          <t>19/08/2023 19:52</t>
         </is>
       </c>
       <c r="V486" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
         </is>
       </c>
     </row>
@@ -45285,22 +45285,22 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I488" t="n">
         <v>1</v>
       </c>
       <c r="J488" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -45308,15 +45308,15 @@
         </is>
       </c>
       <c r="L488" t="n">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="N488" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="O488" t="inlineStr">
         <is>
@@ -45324,15 +45324,15 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="R488" t="n">
-        <v>4.14</v>
+        <v>3.66</v>
       </c>
       <c r="S488" t="inlineStr">
         <is>
@@ -45340,16 +45340,16 @@
         </is>
       </c>
       <c r="T488" t="n">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="U488" t="inlineStr">
         <is>
-          <t>19/08/2023 19:52</t>
+          <t>19/08/2023 19:59</t>
         </is>
       </c>
       <c r="V488" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-deportivo-madryn/C2hkJo5B/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-atl-rafaela/jgigI5KH/</t>
         </is>
       </c>
     </row>
@@ -48413,7 +48413,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G522" t="n">
@@ -48421,14 +48421,14 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>1.47</v>
+        <v>2.72</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -48436,15 +48436,15 @@
         </is>
       </c>
       <c r="L522" t="n">
-        <v>1.39</v>
+        <v>3.07</v>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="N522" t="n">
-        <v>4.08</v>
+        <v>2.71</v>
       </c>
       <c r="O522" t="inlineStr">
         <is>
@@ -48452,15 +48452,15 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>4.45</v>
+        <v>2.61</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:56</t>
         </is>
       </c>
       <c r="R522" t="n">
-        <v>7.54</v>
+        <v>3.15</v>
       </c>
       <c r="S522" t="inlineStr">
         <is>
@@ -48468,16 +48468,16 @@
         </is>
       </c>
       <c r="T522" t="n">
-        <v>9.34</v>
+        <v>2.98</v>
       </c>
       <c r="U522" t="inlineStr">
         <is>
-          <t>02/09/2023 09:11</t>
+          <t>02/09/2023 19:58</t>
         </is>
       </c>
       <c r="V522" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
         </is>
       </c>
     </row>
@@ -48505,7 +48505,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G523" t="n">
@@ -48513,14 +48513,14 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
       <c r="J523" t="n">
-        <v>2.72</v>
+        <v>1.47</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -48528,15 +48528,15 @@
         </is>
       </c>
       <c r="L523" t="n">
-        <v>3.07</v>
+        <v>1.39</v>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="N523" t="n">
-        <v>2.71</v>
+        <v>4.08</v>
       </c>
       <c r="O523" t="inlineStr">
         <is>
@@ -48544,15 +48544,15 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2.61</v>
+        <v>4.45</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>02/09/2023 19:56</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="R523" t="n">
-        <v>3.15</v>
+        <v>7.54</v>
       </c>
       <c r="S523" t="inlineStr">
         <is>
@@ -48560,16 +48560,16 @@
         </is>
       </c>
       <c r="T523" t="n">
-        <v>2.98</v>
+        <v>9.34</v>
       </c>
       <c r="U523" t="inlineStr">
         <is>
-          <t>02/09/2023 19:58</t>
+          <t>02/09/2023 09:11</t>
         </is>
       </c>
       <c r="V523" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-almagro/WxjVkwre/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-villa-dalmine/ngp0XyQL/</t>
         </is>
       </c>
     </row>
@@ -50345,7 +50345,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -50353,14 +50353,14 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J543" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -50368,15 +50368,15 @@
         </is>
       </c>
       <c r="L543" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="N543" t="n">
-        <v>3.51</v>
+        <v>3.14</v>
       </c>
       <c r="O543" t="inlineStr">
         <is>
@@ -50384,15 +50384,15 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:54</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="R543" t="n">
-        <v>6.11</v>
+        <v>4.13</v>
       </c>
       <c r="S543" t="inlineStr">
         <is>
@@ -50400,16 +50400,16 @@
         </is>
       </c>
       <c r="T543" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="U543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="V543" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
         </is>
       </c>
     </row>
@@ -50437,71 +50437,71 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
       <c r="J544" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>05/09/2023 20:42</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="L544" t="n">
-        <v>3.02</v>
+        <v>1.6</v>
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>10/09/2023 19:58</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="N544" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>05/09/2023 20:42</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2.86</v>
+        <v>3.64</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>10/09/2023 19:56</t>
+          <t>10/09/2023 19:54</t>
         </is>
       </c>
       <c r="R544" t="n">
-        <v>2.96</v>
+        <v>6.11</v>
       </c>
       <c r="S544" t="inlineStr">
         <is>
-          <t>05/09/2023 20:42</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="T544" t="n">
-        <v>2.76</v>
+        <v>6.63</v>
       </c>
       <c r="U544" t="inlineStr">
         <is>
-          <t>10/09/2023 19:58</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="V544" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-deportivo-riestra/K64woefL/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
         </is>
       </c>
     </row>
@@ -50529,71 +50529,71 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="n">
-        <v>2.02</v>
+        <v>2.64</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>05/09/2023 20:42</t>
         </is>
       </c>
       <c r="L545" t="n">
-        <v>2.27</v>
+        <v>3.02</v>
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:58</t>
         </is>
       </c>
       <c r="N545" t="n">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>05/09/2023 20:42</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:56</t>
         </is>
       </c>
       <c r="R545" t="n">
-        <v>4.13</v>
+        <v>2.96</v>
       </c>
       <c r="S545" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>05/09/2023 20:42</t>
         </is>
       </c>
       <c r="T545" t="n">
-        <v>3.67</v>
+        <v>2.76</v>
       </c>
       <c r="U545" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:58</t>
         </is>
       </c>
       <c r="V545" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-deportivo-riestra/K64woefL/</t>
         </is>
       </c>
     </row>
@@ -51817,22 +51817,22 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G559" t="n">
+        <v>2</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
         <v>1</v>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>Nueva Chicago</t>
-        </is>
-      </c>
-      <c r="I559" t="n">
-        <v>0</v>
-      </c>
       <c r="J559" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         </is>
       </c>
       <c r="L559" t="n">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="M559" t="inlineStr">
         <is>
@@ -51848,7 +51848,7 @@
         </is>
       </c>
       <c r="N559" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="O559" t="inlineStr">
         <is>
@@ -51856,7 +51856,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -51864,7 +51864,7 @@
         </is>
       </c>
       <c r="R559" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="S559" t="inlineStr">
         <is>
@@ -51872,7 +51872,7 @@
         </is>
       </c>
       <c r="T559" t="n">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="U559" t="inlineStr">
         <is>
@@ -51881,7 +51881,7 @@
       </c>
       <c r="V559" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
         </is>
       </c>
     </row>
@@ -51909,22 +51909,22 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,15 +51932,15 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="N560" t="n">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="O560" t="inlineStr">
         <is>
@@ -51948,15 +51948,15 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R560" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="S560" t="inlineStr">
         <is>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="T560" t="n">
-        <v>3.78</v>
+        <v>2.7</v>
       </c>
       <c r="U560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-guillermo-brown/tjvjGZe0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
         </is>
       </c>
     </row>
@@ -52001,7 +52001,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G561" t="n">
@@ -52009,14 +52009,14 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -52024,15 +52024,15 @@
         </is>
       </c>
       <c r="L561" t="n">
-        <v>3.08</v>
+        <v>2.44</v>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N561" t="n">
-        <v>2.77</v>
+        <v>2.99</v>
       </c>
       <c r="O561" t="inlineStr">
         <is>
@@ -52040,15 +52040,15 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R561" t="n">
-        <v>2.98</v>
+        <v>3.66</v>
       </c>
       <c r="S561" t="inlineStr">
         <is>
@@ -52056,16 +52056,16 @@
         </is>
       </c>
       <c r="T561" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="U561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V561" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
         </is>
       </c>
     </row>
@@ -57862,6 +57862,374 @@
       <c r="V624" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-flandria/8zevrqoA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E625" s="2" t="n">
+        <v>45207.90972222222</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="G625" t="n">
+        <v>1</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>CA Estudiantes</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>1</v>
+      </c>
+      <c r="J625" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L625" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:40</t>
+        </is>
+      </c>
+      <c r="N625" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P625" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:40</t>
+        </is>
+      </c>
+      <c r="R625" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="S625" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T625" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="U625" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:40</t>
+        </is>
+      </c>
+      <c r="V625" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-ca-estudiantes/SnED306H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E626" s="2" t="n">
+        <v>45207.91666666666</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>CA Mitre</t>
+        </is>
+      </c>
+      <c r="G626" t="n">
+        <v>2</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Atl. Rafaela</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>1</v>
+      </c>
+      <c r="J626" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L626" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="N626" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P626" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R626" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S626" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T626" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U626" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="V626" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-atl-rafaela/YBaA4tiB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E627" s="2" t="n">
+        <v>45207.95833333334</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>Racing Cordoba</t>
+        </is>
+      </c>
+      <c r="G627" t="n">
+        <v>2</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L627" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N627" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P627" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q627" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R627" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S627" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T627" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U627" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="V627" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-gimnasia-jujuy/QNglcbqo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E628" s="2" t="n">
+        <v>45208.0625</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>Ind. Rivadavia</t>
+        </is>
+      </c>
+      <c r="G628" t="n">
+        <v>1</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Villa Dalmine</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L628" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N628" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P628" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="Q628" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R628" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="S628" t="inlineStr">
+        <is>
+          <t>03/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T628" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U628" t="inlineStr">
+        <is>
+          <t>09/10/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V628" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-villa-dalmine/CdB162Mb/</t>
         </is>
       </c>
     </row>

--- a/2023/argentina_primera-nacional_2023.xlsx
+++ b/2023/argentina_primera-nacional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V628"/>
+  <dimension ref="A1:V637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>02/03/2023 15:42</t>
+          <t>02/03/2023 15:52</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>05/03/2023 20:56</t>
+          <t>05/03/2023 20:57</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>02/03/2023 15:42</t>
+          <t>02/03/2023 15:52</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.13</v>
+        <v>3.01</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,15 +7428,15 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.15</v>
+        <v>3.68</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>02/03/2023 15:42</t>
+          <t>02/03/2023 15:52</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.14</v>
+        <v>4.55</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-defensores-unidos/jBMhUeT2/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-villa-dalmine/WYyDpcO5/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>02/03/2023 15:52</t>
+          <t>02/03/2023 15:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>05/03/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>02/03/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>05/03/2023 20:57</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>02/03/2023 15:52</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>02/03/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>05/03/2023 20:57</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>02/03/2023 15:52</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>05/03/2023 20:57</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-villa-dalmine/WYyDpcO5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-defensores-unidos/jBMhUeT2/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Def. de Belgrano</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Dep. Riestra</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
       <c r="J84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>10/03/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>11/03/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/03/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/03/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/03/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
         <v>2.38</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>08/03/2023 19:42</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>11/03/2023 20:57</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>08/03/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>11/03/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>08/03/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.99</v>
-      </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/03/2023 20:58</t>
+          <t>11/03/2023 20:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-deportivo-riestra/4ndjbGh5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-defensores-de-belgrano/jVpzsZC8/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.82</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>10/03/2023 04:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="L85" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>11/03/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>08/03/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>11/03/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>08/03/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
         <v>2.99</v>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>11/03/2023 20:59</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>10/03/2023 04:42</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>11/03/2023 20:51</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>10/03/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T85" t="n">
-        <v>2.66</v>
-      </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>11/03/2023 20:59</t>
+          <t>11/03/2023 20:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-quilmes/fyk3eExO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-deportivo-riestra/4ndjbGh5/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.35</v>
+        <v>2.82</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>10/03/2023 10:12</t>
+          <t>10/03/2023 04:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.68</v>
+        <v>2.99</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>11/03/2023 20:56</t>
+          <t>11/03/2023 20:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.81</v>
+        <v>3.23</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>10/03/2023 10:12</t>
+          <t>10/03/2023 04:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>11/03/2023 20:56</t>
+          <t>11/03/2023 20:51</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>10/03/2023 10:12</t>
+          <t>10/03/2023 04:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11/03/2023 20:56</t>
+          <t>11/03/2023 20:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-defensores-de-belgrano/jVpzsZC8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-quilmes/fyk3eExO/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Atletico Atlanta</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Estudiantes Rio Cuarto</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.62</v>
+        <v>2.23</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.74</v>
+        <v>1.79</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:47</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2.76</v>
+        <v>3.27</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:47</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.07</v>
+        <v>3.95</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>08/03/2023 19:42</t>
+          <t>10/03/2023 14:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.15</v>
+        <v>5.49</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>12/03/2023 20:47</t>
+          <t>12/03/2023 20:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-estudiantes-rio-cuarto/OOdhIkz8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atletico-atlanta/IVcr0xOh/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Atletico Atlanta</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:47</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.27</v>
+        <v>2.76</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:47</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.95</v>
+        <v>3.07</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>10/03/2023 14:42</t>
+          <t>08/03/2023 19:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.49</v>
+        <v>3.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>12/03/2023 20:56</t>
+          <t>12/03/2023 20:47</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-atletico-atlanta/IVcr0xOh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-estudiantes-rio-cuarto/OOdhIkz8/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.12</v>
+        <v>2.78</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.42</v>
+        <v>3.32</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>26/03/2023 22:51</t>
+          <t>26/03/2023 22:24</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-deportivo-riestra/QVDeQYyb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atletico-atlanta/6TcfSf7o/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>2.28</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.78</v>
+        <v>3.12</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.32</v>
+        <v>3.42</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/03/2023 22:24</t>
+          <t>26/03/2023 22:51</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atletico-atlanta/6TcfSf7o/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-deportivo-riestra/QVDeQYyb/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,63 +13369,63 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>30/03/2023 09:42</t>
+          <t>31/03/2023 10:42</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>01/04/2023 01:39</t>
+          <t>01/04/2023 01:59</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.35</v>
+        <v>3.07</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>30/03/2023 09:42</t>
+          <t>31/03/2023 10:42</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>01/04/2023 01:56</t>
+          <t>01/04/2023 01:59</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>5.59</v>
+        <v>3.71</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>30/03/2023 09:42</t>
+          <t>31/03/2023 10:42</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>8.5</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>01/04/2023 01:56</t>
+          <t>01/04/2023 01:59</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-flandria/lSevU7jH/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-villa-dalmine/t6AWRoD2/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,63 +13461,63 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>31/03/2023 10:42</t>
+          <t>30/03/2023 09:42</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>01/04/2023 01:59</t>
+          <t>01/04/2023 01:39</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.07</v>
+        <v>3.35</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>31/03/2023 10:42</t>
+          <t>30/03/2023 09:42</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>01/04/2023 01:59</t>
+          <t>01/04/2023 01:56</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.71</v>
+        <v>5.59</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>31/03/2023 10:42</t>
+          <t>30/03/2023 09:42</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>9.220000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>01/04/2023 01:59</t>
+          <t>01/04/2023 01:56</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-villa-dalmine/t6AWRoD2/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/estudiantes-rio-cuarto-flandria/lSevU7jH/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:16</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:16</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.78</v>
+        <v>4.89</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.15</v>
+        <v>5.26</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>08/04/2023 20:16</t>
+          <t>08/04/2023 21:58</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-alvarado/GGffepkG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-atletico-atlanta/h4dNH1ke/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1.81</v>
+        <v>2.17</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:16</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:16</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.89</v>
+        <v>3.78</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>5.26</v>
+        <v>4.15</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>08/04/2023 21:58</t>
+          <t>08/04/2023 20:16</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chacarita-juniors-atletico-atlanta/h4dNH1ke/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-alvarado/GGffepkG/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:20</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.97</v>
+        <v>3.66</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>09/04/2023 22:19</t>
+          <t>09/04/2023 22:53</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:20</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.66</v>
+        <v>2.97</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>09/04/2023 22:53</t>
+          <t>09/04/2023 22:19</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-racing-cordoba/zToSGL41/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-deportivo-riestra/EJpWFuK7/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,48 +17340,48 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="N184" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>15/04/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
         <v>3.21</v>
       </c>
-      <c r="O184" t="inlineStr">
+      <c r="S184" t="inlineStr">
         <is>
           <t>13/04/2023 13:12</t>
         </is>
       </c>
-      <c r="P184" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>15/04/2023 20:21</t>
-        </is>
-      </c>
-      <c r="R184" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>13/04/2023 13:12</t>
-        </is>
-      </c>
       <c r="T184" t="n">
-        <v>5.3</v>
+        <v>3.52</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>15/04/2023 20:21</t>
+          <t>15/04/2023 20:28</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,48 +17524,48 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.53</v>
+        <v>1.89</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="N186" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>13/04/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
         <v>3.03</v>
       </c>
-      <c r="O186" t="inlineStr">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>15/04/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S186" t="inlineStr">
         <is>
           <t>13/04/2023 13:12</t>
         </is>
       </c>
-      <c r="P186" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>15/04/2023 20:28</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>13/04/2023 13:12</t>
-        </is>
-      </c>
       <c r="T186" t="n">
-        <v>3.52</v>
+        <v>5.3</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>15/04/2023 20:28</t>
+          <t>15/04/2023 20:21</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-almirante-brown/GziBmgm7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-villa-dalmine/fiL4UvZ0/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.28</v>
+        <v>2.82</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>4.03</v>
+        <v>3.54</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>13/04/2023 19:42</t>
+          <t>13/04/2023 13:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>16/04/2023 20:29</t>
+          <t>16/04/2023 20:25</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>2.82</v>
+        <v>3.28</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.54</v>
+        <v>4.03</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>13/04/2023 13:12</t>
+          <t>13/04/2023 19:42</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>16/04/2023 20:25</t>
+          <t>16/04/2023 20:29</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-defensores-de-belgrano/YB16lZX0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-telmo/ADdRcwBE/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1.88</v>
+        <v>2.77</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.1</v>
+        <v>3.26</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>4.33</v>
+        <v>2.74</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>16/04/2023 20:56</t>
+          <t>16/04/2023 20:57</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>2.77</v>
+        <v>1.88</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>3.26</v>
+        <v>2.1</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.74</v>
+        <v>4.33</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>16/04/2023 20:57</t>
+          <t>16/04/2023 20:56</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-nueva-chicago/neafiylr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-all-boys/Qobbje3l/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>2.37</v>
+        <v>2.71</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>3.38</v>
+        <v>2.97</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>19/04/2023 19:12</t>
+          <t>22/04/2023 10:43</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>3.68</v>
+        <v>3.08</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>22/04/2023 20:26</t>
+          <t>22/04/2023 20:29</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atl-rafaela/YcU1bJms/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>5.88</v>
+        <v>3.68</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>22/04/2023 20:27</t>
+          <t>22/04/2023 20:26</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/nueva-chicago-gimnasia-mendoza/4dX59zAQ/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Guillermo Brown</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Atl. Rafaela</t>
-        </is>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
       <c r="J202" t="n">
-        <v>2.71</v>
+        <v>2.09</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>2.59</v>
+        <v>1.8</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>2.97</v>
+        <v>4.22</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>22/04/2023 10:43</t>
+          <t>19/04/2023 19:12</t>
         </is>
       </c>
       <c r="T202" t="n">
-        <v>3.08</v>
+        <v>5.88</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>22/04/2023 20:29</t>
+          <t>22/04/2023 20:27</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-atl-rafaela/YcU1bJms/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-guillermo-brown/fuVm1CH6/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>2.35</v>
+        <v>3.29</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.55</v>
+        <v>3.59</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>21/04/2023 20:36</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>23/04/2023 18:54</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.39</v>
+        <v>2.47</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.47</v>
+        <v>2.33</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>23/04/2023 20:19</t>
+          <t>22/04/2023 15:05</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>San Martin S.J.</t>
-        </is>
-      </c>
-      <c r="I208" t="n">
-        <v>2</v>
-      </c>
       <c r="J208" t="n">
-        <v>3.29</v>
+        <v>1.85</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>3.59</v>
+        <v>1.9</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>21/04/2023 20:36</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.89</v>
+        <v>3.19</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19568,11 +19568,11 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>2.47</v>
+        <v>4.52</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2.33</v>
+        <v>5.39</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>22/04/2023 15:05</t>
+          <t>23/04/2023 20:27</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-san-martin-s-j/bDyu3Ynf/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19656,15 +19656,15 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 18:54</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>4.52</v>
+        <v>3.39</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.39</v>
+        <v>3.47</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>23/04/2023 20:27</t>
+          <t>23/04/2023 20:19</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-defensores-unidos/GlWq2h20/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-racing-cordoba/8fovqvlf/</t>
         </is>
       </c>
     </row>
@@ -19709,22 +19709,22 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -19732,15 +19732,15 @@
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -19748,15 +19748,15 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>3.83</v>
+        <v>3.42</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
@@ -19764,16 +19764,16 @@
         </is>
       </c>
       <c r="T210" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>23/04/2023 20:57</t>
+          <t>23/04/2023 20:59</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-brown-adrogue/EDmV3uQJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ferro/t8qnsII6/</t>
         </is>
       </c>
     </row>
@@ -19801,38 +19801,38 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Brown Adrogue</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
-      <c r="I211" t="n">
+      <c r="J211" t="n">
         <v>2</v>
       </c>
-      <c r="J211" t="n">
-        <v>2.27</v>
-      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>21/04/2023 03:42</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -19840,15 +19840,15 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="R211" t="n">
-        <v>3.42</v>
+        <v>3.83</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -19856,16 +19856,16 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>23/04/2023 20:59</t>
+          <t>23/04/2023 20:57</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ferro/t8qnsII6/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-brown-adrogue/EDmV3uQJ/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,63 +20545,63 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2.29</v>
+        <v>3.53</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.11</v>
+        <v>2.8</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>29/04/2023 18:24</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>4.13</v>
+        <v>2.66</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>3.48</v>
+        <v>2.47</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>29/04/2023 20:17</t>
+          <t>29/04/2023 20:28</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,63 +20637,63 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>2.76</v>
+        <v>1.99</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>3.53</v>
+        <v>2.29</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>2.8</v>
+        <v>3.11</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 18:24</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>2.66</v>
+        <v>4.13</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>29/04/2023 20:28</t>
+          <t>29/04/2023 20:17</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-agropecuario/l2Ui0WWC/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-aldosivi/ClT5cw3m/</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -21189,63 +21189,63 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="L226" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:58</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>28/04/2023 04:42</t>
+          <t>27/04/2023 15:42</t>
         </is>
       </c>
       <c r="T226" t="n">
-        <v>5.81</v>
+        <v>3.56</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>30/04/2023 20:59</t>
+          <t>30/04/2023 20:57</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
         </is>
       </c>
     </row>
@@ -21273,22 +21273,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
         <v>1</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>San Martin T.</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
       <c r="J227" t="n">
-        <v>2.41</v>
+        <v>3.15</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -21296,15 +21296,15 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -21312,15 +21312,15 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>3.66</v>
+        <v>2.59</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
@@ -21328,16 +21328,16 @@
         </is>
       </c>
       <c r="T227" t="n">
-        <v>3.56</v>
+        <v>2.49</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>30/04/2023 20:57</t>
+          <t>30/04/2023 20:55</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-san-martin-t/EqbAIDns/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
         </is>
       </c>
     </row>
@@ -21365,71 +21365,71 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I228" t="n">
         <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>2.66</v>
+        <v>3.12</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:58</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>2.59</v>
+        <v>3.72</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>27/04/2023 15:42</t>
+          <t>28/04/2023 04:42</t>
         </is>
       </c>
       <c r="T228" t="n">
-        <v>2.49</v>
+        <v>5.81</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>30/04/2023 20:55</t>
+          <t>30/04/2023 20:59</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/alvarado-temperley/r1BrNgvQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/racing-cordoba-atletico-atlanta/nJqtajvh/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21576,11 +21576,11 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>3.9</v>
+        <v>4.31</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>4.3</v>
+        <v>4.88</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>30/04/2023 21:45</t>
+          <t>30/04/2023 21:58</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21668,11 +21668,11 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>4.31</v>
+        <v>3.9</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>4.88</v>
+        <v>4.3</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>30/04/2023 21:58</t>
+          <t>30/04/2023 21:45</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-martin-s-j-almagro/25YeajnJ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-all-boys/zanJGiHg/</t>
         </is>
       </c>
     </row>
@@ -23021,22 +23021,22 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -23044,15 +23044,15 @@
         </is>
       </c>
       <c r="L246" t="n">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>3.09</v>
+        <v>3.02</v>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -23060,15 +23060,15 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:55</t>
         </is>
       </c>
       <c r="R246" t="n">
-        <v>4.26</v>
+        <v>3.98</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -23076,16 +23076,16 @@
         </is>
       </c>
       <c r="T246" t="n">
-        <v>4.2</v>
+        <v>5.68</v>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>07/05/2023 14:18</t>
+          <t>07/05/2023 19:53</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23113,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -23136,15 +23136,15 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="N247" t="n">
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -23152,15 +23152,15 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:55</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="R247" t="n">
-        <v>3.98</v>
+        <v>4.26</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23168,16 +23168,16 @@
         </is>
       </c>
       <c r="T247" t="n">
-        <v>5.68</v>
+        <v>4.2</v>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>07/05/2023 19:53</t>
+          <t>07/05/2023 14:18</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-gimnasia-mendoza/6wNmWWGt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-defensores-unidos/zJE4SlG5/</t>
         </is>
       </c>
     </row>
@@ -25413,22 +25413,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>2.03</v>
+        <v>3.01</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -25436,15 +25436,15 @@
         </is>
       </c>
       <c r="L272" t="n">
-        <v>1.99</v>
+        <v>3.13</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="N272" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
@@ -25452,15 +25452,15 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="R272" t="n">
-        <v>3.89</v>
+        <v>2.65</v>
       </c>
       <c r="S272" t="inlineStr">
         <is>
@@ -25468,16 +25468,16 @@
         </is>
       </c>
       <c r="T272" t="n">
-        <v>4.68</v>
+        <v>2.66</v>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>20/05/2023 18:51</t>
+          <t>20/05/2023 18:57</t>
         </is>
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
         </is>
       </c>
     </row>
@@ -25505,71 +25505,71 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>3.13</v>
+        <v>2.16</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>3.89</v>
+        <v>2.58</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.07</v>
+        <v>2.7</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>2.53</v>
+        <v>3.71</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>19/05/2023 04:12</t>
         </is>
       </c>
       <c r="T273" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>20/05/2023 18:52</t>
+          <t>20/05/2023 18:53</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
         </is>
       </c>
     </row>
@@ -25597,22 +25597,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>3.01</v>
+        <v>1.69</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -25620,15 +25620,15 @@
         </is>
       </c>
       <c r="L274" t="n">
-        <v>3.13</v>
+        <v>1.68</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>18/05/2023 21:20</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>2.91</v>
+        <v>3.33</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
@@ -25636,15 +25636,15 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>2.88</v>
+        <v>3.47</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>2.65</v>
+        <v>5.95</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
@@ -25652,16 +25652,16 @@
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.66</v>
+        <v>6.13</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>20/05/2023 18:57</t>
+          <t>20/05/2023 17:59</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-san-martin-s-j/A96FtuyG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
         </is>
       </c>
     </row>
@@ -25689,71 +25689,71 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t>19/05/2023 04:12</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T275" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>20/05/2023 18:53</t>
+          <t>20/05/2023 18:27</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-gimnasia-mendoza/ziE2qsic/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -25789,14 +25789,14 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.69</v>
+        <v>3.13</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -25804,15 +25804,15 @@
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1.68</v>
+        <v>3.89</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>18/05/2023 21:20</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -25820,15 +25820,15 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
@@ -25836,16 +25836,16 @@
         </is>
       </c>
       <c r="T276" t="n">
-        <v>6.13</v>
+        <v>2.16</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>20/05/2023 17:59</t>
+          <t>20/05/2023 18:52</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-alvarado/EsD6r163/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-patronato/MmQKKcEd/</t>
         </is>
       </c>
     </row>
@@ -25873,22 +25873,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J277" t="n">
-        <v>2.33</v>
+        <v>2.03</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -25896,48 +25896,48 @@
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="N277" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
         <v>3.02</v>
       </c>
-      <c r="O277" t="inlineStr">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>20/05/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S277" t="inlineStr">
         <is>
           <t>17/05/2023 18:42</t>
         </is>
       </c>
-      <c r="P277" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q277" t="inlineStr">
-        <is>
-          <t>20/05/2023 18:27</t>
-        </is>
-      </c>
-      <c r="R277" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:42</t>
-        </is>
-      </c>
       <c r="T277" t="n">
-        <v>3.52</v>
+        <v>4.68</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>20/05/2023 18:27</t>
+          <t>20/05/2023 18:51</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-riestra/Cl5a9eJd/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-club-atletico-guemes/ADMGLwaj/</t>
         </is>
       </c>
     </row>
@@ -25965,22 +25965,22 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>2.54</v>
+        <v>1.82</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -25988,15 +25988,15 @@
         </is>
       </c>
       <c r="L278" t="n">
-        <v>2.94</v>
+        <v>1.75</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="N278" t="n">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
@@ -26004,15 +26004,15 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="R278" t="n">
-        <v>3.1</v>
+        <v>4.13</v>
       </c>
       <c r="S278" t="inlineStr">
         <is>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="T278" t="n">
-        <v>2.59</v>
+        <v>5.23</v>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>21/05/2023 01:02</t>
+          <t>21/05/2023 02:15</t>
         </is>
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-quilmes/b57B6g3F/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-madryn/z1TsaBek/</t>
         </is>
       </c>
     </row>
@@ -26057,22 +26057,22 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Atl. Rafaela</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
         <v>1</v>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
       <c r="J279" t="n">
-        <v>1.82</v>
+        <v>2.47</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -26080,15 +26080,15 @@
         </is>
       </c>
       <c r="L279" t="n">
-        <v>1.75</v>
+        <v>2.58</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="N279" t="n">
-        <v>3.52</v>
+        <v>2.91</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
@@ -26096,15 +26096,15 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3.5</v>
+        <v>2.81</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="R279" t="n">
-        <v>4.13</v>
+        <v>3.26</v>
       </c>
       <c r="S279" t="inlineStr">
         <is>
@@ -26112,16 +26112,16 @@
         </is>
       </c>
       <c r="T279" t="n">
-        <v>5.23</v>
+        <v>3.33</v>
       </c>
       <c r="U279" t="inlineStr">
         <is>
-          <t>21/05/2023 02:15</t>
+          <t>21/05/2023 02:20</t>
         </is>
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-madryn/z1TsaBek/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atl-rafaela/McPw0itq/</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -26157,14 +26157,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>2.58</v>
+        <v>2.94</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>3.33</v>
+        <v>2.59</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>21/05/2023 02:20</t>
+          <t>21/05/2023 01:02</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-atl-rafaela/McPw0itq/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-quilmes/b57B6g3F/</t>
         </is>
       </c>
     </row>
@@ -26425,71 +26425,71 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>2.95</v>
+        <v>4.27</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="P283" t="n">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>4.25</v>
+        <v>7.72</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>17/05/2023 18:43</t>
+          <t>17/05/2023 18:42</t>
         </is>
       </c>
       <c r="T283" t="n">
-        <v>3.7</v>
+        <v>10.73</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>21/05/2023 20:25</t>
+          <t>21/05/2023 20:28</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>4.27</v>
+        <v>2.95</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4.12</v>
+        <v>2.74</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>7.72</v>
+        <v>4.25</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>17/05/2023 18:42</t>
+          <t>17/05/2023 18:43</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>10.73</v>
+        <v>3.7</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>21/05/2023 20:28</t>
+          <t>21/05/2023 20:25</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-villa-dalmine/IPInbVAe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-ca-estudiantes/4IxC4XXR/</t>
         </is>
       </c>
     </row>
@@ -27161,22 +27161,22 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G291" t="n">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>Ind. Rivadavia</t>
-        </is>
-      </c>
-      <c r="I291" t="n">
-        <v>3</v>
-      </c>
       <c r="J291" t="n">
-        <v>3.61</v>
+        <v>2.17</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         </is>
       </c>
       <c r="L291" t="n">
-        <v>3.83</v>
+        <v>2.24</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         </is>
       </c>
       <c r="N291" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -27200,15 +27200,15 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>27/05/2023 19:52</t>
+          <t>27/05/2023 19:55</t>
         </is>
       </c>
       <c r="R291" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         </is>
       </c>
       <c r="T291" t="n">
-        <v>2.11</v>
+        <v>3.95</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ind-rivadavia/pWAYLY22/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chaco-for-ever/OM9xLhI8/</t>
         </is>
       </c>
     </row>
@@ -27253,22 +27253,22 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J292" t="n">
-        <v>2.17</v>
+        <v>3.61</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="L292" t="n">
-        <v>2.24</v>
+        <v>3.83</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         </is>
       </c>
       <c r="N292" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -27292,32 +27292,32 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
+          <t>27/05/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>24/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T292" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
           <t>27/05/2023 19:55</t>
         </is>
       </c>
-      <c r="R292" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S292" t="inlineStr">
-        <is>
-          <t>24/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T292" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U292" t="inlineStr">
-        <is>
-          <t>27/05/2023 19:55</t>
-        </is>
-      </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-chaco-for-ever/OM9xLhI8/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-ind-rivadavia/pWAYLY22/</t>
         </is>
       </c>
     </row>
@@ -28817,7 +28817,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -28825,14 +28825,14 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I309" t="n">
         <v>1</v>
       </c>
       <c r="J309" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -28840,15 +28840,15 @@
         </is>
       </c>
       <c r="L309" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>03/06/2023 19:59</t>
+          <t>03/06/2023 19:55</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>2.95</v>
+        <v>3.09</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
@@ -28856,15 +28856,15 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>03/06/2023 19:59</t>
+          <t>03/06/2023 19:55</t>
         </is>
       </c>
       <c r="R309" t="n">
-        <v>4.17</v>
+        <v>3.13</v>
       </c>
       <c r="S309" t="inlineStr">
         <is>
@@ -28872,16 +28872,16 @@
         </is>
       </c>
       <c r="T309" t="n">
-        <v>3.79</v>
+        <v>3.21</v>
       </c>
       <c r="U309" t="inlineStr">
         <is>
-          <t>03/06/2023 19:59</t>
+          <t>03/06/2023 19:55</t>
         </is>
       </c>
       <c r="V309" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-club-atletico-guemes/j5BYVrve/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-estudiantes/4vnlG3Wt/</t>
         </is>
       </c>
     </row>
@@ -28909,7 +28909,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G310" t="n">
@@ -28917,14 +28917,14 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="I310" t="n">
         <v>1</v>
       </c>
       <c r="J310" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -28932,15 +28932,15 @@
         </is>
       </c>
       <c r="L310" t="n">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>03/06/2023 19:55</t>
+          <t>03/06/2023 19:59</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>3.09</v>
+        <v>2.95</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -28948,15 +28948,15 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>03/06/2023 19:55</t>
+          <t>03/06/2023 19:59</t>
         </is>
       </c>
       <c r="R310" t="n">
-        <v>3.13</v>
+        <v>4.17</v>
       </c>
       <c r="S310" t="inlineStr">
         <is>
@@ -28964,16 +28964,16 @@
         </is>
       </c>
       <c r="T310" t="n">
-        <v>3.21</v>
+        <v>3.79</v>
       </c>
       <c r="U310" t="inlineStr">
         <is>
-          <t>03/06/2023 19:55</t>
+          <t>03/06/2023 19:59</t>
         </is>
       </c>
       <c r="V310" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-estudiantes/4vnlG3Wt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-club-atletico-guemes/j5BYVrve/</t>
         </is>
       </c>
     </row>
@@ -30841,71 +30841,71 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Deportivo Moron</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
         <v>1</v>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
       <c r="J331" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="L331" t="n">
-        <v>2.92</v>
+        <v>2.61</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:26</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>3.05</v>
+        <v>2.83</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:22</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="R331" t="n">
-        <v>2.83</v>
+        <v>3.95</v>
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>08/06/2023 16:42</t>
+          <t>07/06/2023 17:12</t>
         </is>
       </c>
       <c r="T331" t="n">
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="U331" t="inlineStr">
         <is>
-          <t>10/06/2023 20:26</t>
+          <t>10/06/2023 20:29</t>
         </is>
       </c>
       <c r="V331" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-gimnasia-mendoza/zgoxj4VQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-deportivo-moron/Czl5q28f/</t>
         </is>
       </c>
     </row>
@@ -30933,71 +30933,71 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G332" t="n">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Deportivo Moron</t>
-        </is>
-      </c>
-      <c r="I332" t="n">
-        <v>1</v>
-      </c>
       <c r="J332" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>07/06/2023 17:12</t>
+          <t>08/06/2023 16:42</t>
         </is>
       </c>
       <c r="L332" t="n">
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>10/06/2023 20:29</t>
+          <t>10/06/2023 20:26</t>
         </is>
       </c>
       <c r="N332" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>08/06/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>10/06/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R332" t="n">
         <v>2.83</v>
       </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>07/06/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P332" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q332" t="inlineStr">
-        <is>
-          <t>10/06/2023 20:29</t>
-        </is>
-      </c>
-      <c r="R332" t="n">
-        <v>3.95</v>
-      </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>07/06/2023 17:12</t>
+          <t>08/06/2023 16:42</t>
         </is>
       </c>
       <c r="T332" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="U332" t="inlineStr">
         <is>
-          <t>10/06/2023 20:29</t>
+          <t>10/06/2023 20:26</t>
         </is>
       </c>
       <c r="V332" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-deportivo-moron/Czl5q28f/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-gimnasia-mendoza/zgoxj4VQ/</t>
         </is>
       </c>
     </row>
@@ -32037,22 +32037,22 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I344" t="n">
         <v>1</v>
       </c>
       <c r="J344" t="n">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -32060,15 +32060,15 @@
         </is>
       </c>
       <c r="L344" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>3.73</v>
+        <v>3.02</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -32076,15 +32076,15 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>4.34</v>
+        <v>2.91</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="R344" t="n">
-        <v>7.08</v>
+        <v>4.16</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
@@ -32092,16 +32092,16 @@
         </is>
       </c>
       <c r="T344" t="n">
-        <v>9.16</v>
+        <v>3.85</v>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>18/06/2023 20:29</t>
+          <t>18/06/2023 20:23</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-villa-dalmine/8xWH9JFO/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-guillermo-brown/Y7mlqgEB/</t>
         </is>
       </c>
     </row>
@@ -32129,22 +32129,22 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I345" t="n">
         <v>1</v>
       </c>
       <c r="J345" t="n">
-        <v>2.07</v>
+        <v>1.54</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -32152,15 +32152,15 @@
         </is>
       </c>
       <c r="L345" t="n">
-        <v>2.26</v>
+        <v>1.41</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>3.02</v>
+        <v>3.73</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -32168,15 +32168,15 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>2.91</v>
+        <v>4.34</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="R345" t="n">
-        <v>4.16</v>
+        <v>7.08</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
@@ -32184,16 +32184,16 @@
         </is>
       </c>
       <c r="T345" t="n">
-        <v>3.85</v>
+        <v>9.16</v>
       </c>
       <c r="U345" t="inlineStr">
         <is>
-          <t>18/06/2023 20:23</t>
+          <t>18/06/2023 20:29</t>
         </is>
       </c>
       <c r="V345" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-guillermo-brown/Y7mlqgEB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-villa-dalmine/8xWH9JFO/</t>
         </is>
       </c>
     </row>
@@ -32405,26 +32405,26 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J348" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="L348" t="n">
@@ -32432,44 +32432,44 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="N348" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="R348" t="n">
-        <v>4.32</v>
+        <v>3.35</v>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>14/06/2023 22:12</t>
+          <t>14/06/2023 17:12</t>
         </is>
       </c>
       <c r="T348" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>19/06/2023 19:58</t>
+          <t>19/06/2023 19:52</t>
         </is>
       </c>
       <c r="V348" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-almagro/SAptoFqa/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-ca-estudiantes/Q7FVStGn/</t>
         </is>
       </c>
     </row>
@@ -32497,7 +32497,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -32505,63 +32505,63 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="L349" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>19/06/2023 19:59</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="N349" t="n">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="P349" t="n">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>19/06/2023 19:59</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="R349" t="n">
-        <v>4.04</v>
+        <v>4.32</v>
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>14/06/2023 17:12</t>
+          <t>14/06/2023 22:12</t>
         </is>
       </c>
       <c r="T349" t="n">
-        <v>5.02</v>
+        <v>3.76</v>
       </c>
       <c r="U349" t="inlineStr">
         <is>
-          <t>19/06/2023 19:59</t>
+          <t>19/06/2023 19:58</t>
         </is>
       </c>
       <c r="V349" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-quilmes/YXIwRKpa/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almirante-brown-almagro/SAptoFqa/</t>
         </is>
       </c>
     </row>
@@ -32589,22 +32589,22 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J350" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -32612,15 +32612,15 @@
         </is>
       </c>
       <c r="L350" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:59</t>
         </is>
       </c>
       <c r="N350" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
@@ -32628,15 +32628,15 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:59</t>
         </is>
       </c>
       <c r="R350" t="n">
-        <v>3.35</v>
+        <v>4.04</v>
       </c>
       <c r="S350" t="inlineStr">
         <is>
@@ -32644,16 +32644,16 @@
         </is>
       </c>
       <c r="T350" t="n">
-        <v>3.79</v>
+        <v>5.02</v>
       </c>
       <c r="U350" t="inlineStr">
         <is>
-          <t>19/06/2023 19:52</t>
+          <t>19/06/2023 19:59</t>
         </is>
       </c>
       <c r="V350" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-ca-estudiantes/Q7FVStGn/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-quilmes/YXIwRKpa/</t>
         </is>
       </c>
     </row>
@@ -33877,22 +33877,22 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J364" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -33900,15 +33900,15 @@
         </is>
       </c>
       <c r="L364" t="n">
-        <v>2.73</v>
+        <v>2.12</v>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="N364" t="n">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -33916,15 +33916,15 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="R364" t="n">
-        <v>3.47</v>
+        <v>4.18</v>
       </c>
       <c r="S364" t="inlineStr">
         <is>
@@ -33932,16 +33932,16 @@
         </is>
       </c>
       <c r="T364" t="n">
-        <v>3.3</v>
+        <v>4.16</v>
       </c>
       <c r="U364" t="inlineStr">
         <is>
-          <t>25/06/2023 19:57</t>
+          <t>25/06/2023 19:59</t>
         </is>
       </c>
       <c r="V364" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
         </is>
       </c>
     </row>
@@ -33969,22 +33969,22 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J365" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -33992,15 +33992,15 @@
         </is>
       </c>
       <c r="L365" t="n">
-        <v>2.12</v>
+        <v>2.73</v>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="N365" t="n">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -34008,15 +34008,15 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="R365" t="n">
-        <v>4.18</v>
+        <v>3.47</v>
       </c>
       <c r="S365" t="inlineStr">
         <is>
@@ -34024,16 +34024,16 @@
         </is>
       </c>
       <c r="T365" t="n">
-        <v>4.16</v>
+        <v>3.3</v>
       </c>
       <c r="U365" t="inlineStr">
         <is>
-          <t>25/06/2023 19:59</t>
+          <t>25/06/2023 19:57</t>
         </is>
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-racing-cordoba/t49bMdaU/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-deportivo-moron/K49JbYDb/</t>
         </is>
       </c>
     </row>
@@ -34429,22 +34429,22 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G370" t="n">
+        <v>4</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
-      <c r="I370" t="n">
-        <v>1</v>
-      </c>
       <c r="J370" t="n">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -34452,15 +34452,15 @@
         </is>
       </c>
       <c r="L370" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="N370" t="n">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
@@ -34468,15 +34468,15 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:52</t>
         </is>
       </c>
       <c r="R370" t="n">
-        <v>3.68</v>
+        <v>3.07</v>
       </c>
       <c r="S370" t="inlineStr">
         <is>
@@ -34484,16 +34484,16 @@
         </is>
       </c>
       <c r="T370" t="n">
-        <v>4.29</v>
+        <v>3.18</v>
       </c>
       <c r="U370" t="inlineStr">
         <is>
-          <t>01/07/2023 01:55</t>
+          <t>01/07/2023 01:53</t>
         </is>
       </c>
       <c r="V370" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
         </is>
       </c>
     </row>
@@ -34521,22 +34521,22 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G371" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="n">
-        <v>2.7</v>
+        <v>2.21</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -34544,15 +34544,15 @@
         </is>
       </c>
       <c r="L371" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="N371" t="n">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
@@ -34560,15 +34560,15 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:52</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="R371" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
       </c>
       <c r="S371" t="inlineStr">
         <is>
@@ -34576,16 +34576,16 @@
         </is>
       </c>
       <c r="T371" t="n">
-        <v>3.18</v>
+        <v>4.29</v>
       </c>
       <c r="U371" t="inlineStr">
         <is>
-          <t>01/07/2023 01:53</t>
+          <t>01/07/2023 01:55</t>
         </is>
       </c>
       <c r="V371" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-san-martin-s-j/Sly99kSG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-quilmes/QmJiiHb4/</t>
         </is>
       </c>
     </row>
@@ -35257,7 +35257,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -35265,63 +35265,63 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="L379" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="N379" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="R379" t="n">
-        <v>4.41</v>
+        <v>3.81</v>
       </c>
       <c r="S379" t="inlineStr">
         <is>
-          <t>30/06/2023 03:42</t>
+          <t>28/06/2023 21:12</t>
         </is>
       </c>
       <c r="T379" t="n">
-        <v>5.78</v>
+        <v>3.87</v>
       </c>
       <c r="U379" t="inlineStr">
         <is>
-          <t>02/07/2023 20:22</t>
+          <t>02/07/2023 20:29</t>
         </is>
       </c>
       <c r="V379" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-alvarado/zFvH7TdT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-aldosivi/CpgIxIqB/</t>
         </is>
       </c>
     </row>
@@ -35349,7 +35349,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -35357,63 +35357,63 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="I380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="L380" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="N380" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="R380" t="n">
-        <v>3.81</v>
+        <v>4.41</v>
       </c>
       <c r="S380" t="inlineStr">
         <is>
-          <t>28/06/2023 21:12</t>
+          <t>30/06/2023 03:42</t>
         </is>
       </c>
       <c r="T380" t="n">
-        <v>3.87</v>
+        <v>5.78</v>
       </c>
       <c r="U380" t="inlineStr">
         <is>
-          <t>02/07/2023 20:29</t>
+          <t>02/07/2023 20:22</t>
         </is>
       </c>
       <c r="V380" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/chaco-for-ever-aldosivi/CpgIxIqB/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-mendoza-alvarado/zFvH7TdT/</t>
         </is>
       </c>
     </row>
@@ -36177,22 +36177,22 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
       <c r="J389" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -36200,15 +36200,15 @@
         </is>
       </c>
       <c r="L389" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="N389" t="n">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
@@ -36216,15 +36216,15 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="R389" t="n">
-        <v>6.08</v>
+        <v>3.18</v>
       </c>
       <c r="S389" t="inlineStr">
         <is>
@@ -36232,16 +36232,16 @@
         </is>
       </c>
       <c r="T389" t="n">
-        <v>5.36</v>
+        <v>3.86</v>
       </c>
       <c r="U389" t="inlineStr">
         <is>
-          <t>08/07/2023 19:53</t>
+          <t>08/07/2023 19:58</t>
         </is>
       </c>
       <c r="V389" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-all-boys/0INvN8dG/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-racing-cordoba/CMCZrg6p/</t>
         </is>
       </c>
     </row>
@@ -36361,22 +36361,22 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -36384,15 +36384,15 @@
         </is>
       </c>
       <c r="L391" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="N391" t="n">
-        <v>3.07</v>
+        <v>3.4</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
@@ -36400,15 +36400,15 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="R391" t="n">
-        <v>3.18</v>
+        <v>6.08</v>
       </c>
       <c r="S391" t="inlineStr">
         <is>
@@ -36416,16 +36416,16 @@
         </is>
       </c>
       <c r="T391" t="n">
-        <v>3.86</v>
+        <v>5.36</v>
       </c>
       <c r="U391" t="inlineStr">
         <is>
-          <t>08/07/2023 19:58</t>
+          <t>08/07/2023 19:53</t>
         </is>
       </c>
       <c r="V391" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-racing-cordoba/CMCZrg6p/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/almagro-all-boys/0INvN8dG/</t>
         </is>
       </c>
     </row>
@@ -36637,7 +36637,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -36645,14 +36645,14 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J394" t="n">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -36660,15 +36660,15 @@
         </is>
       </c>
       <c r="L394" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="N394" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O394" t="inlineStr">
         <is>
@@ -36676,15 +36676,15 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="R394" t="n">
-        <v>3.65</v>
+        <v>3.27</v>
       </c>
       <c r="S394" t="inlineStr">
         <is>
@@ -36692,16 +36692,16 @@
         </is>
       </c>
       <c r="T394" t="n">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="U394" t="inlineStr">
         <is>
-          <t>08/07/2023 20:25</t>
+          <t>08/07/2023 20:22</t>
         </is>
       </c>
       <c r="V394" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
         </is>
       </c>
     </row>
@@ -36729,7 +36729,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -36737,14 +36737,14 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J395" t="n">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -36752,15 +36752,15 @@
         </is>
       </c>
       <c r="L395" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="N395" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O395" t="inlineStr">
         <is>
@@ -36768,15 +36768,15 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="R395" t="n">
-        <v>3.27</v>
+        <v>3.65</v>
       </c>
       <c r="S395" t="inlineStr">
         <is>
@@ -36784,16 +36784,16 @@
         </is>
       </c>
       <c r="T395" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="U395" t="inlineStr">
         <is>
-          <t>08/07/2023 20:22</t>
+          <t>08/07/2023 20:25</t>
         </is>
       </c>
       <c r="V395" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-nueva-chicago/ELRrMSBM/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-deportivo-riestra/fTA8mZcT/</t>
         </is>
       </c>
     </row>
@@ -38201,7 +38201,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G411" t="n">
@@ -38209,22 +38209,22 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J411" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 22:12</t>
         </is>
       </c>
       <c r="L411" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="M411" t="inlineStr">
         <is>
@@ -38232,40 +38232,40 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>11/07/2023 17:42</t>
+          <t>11/07/2023 22:12</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
+          <t>15/07/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R411" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>11/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T411" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
           <t>15/07/2023 20:59</t>
         </is>
       </c>
-      <c r="R411" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S411" t="inlineStr">
-        <is>
-          <t>11/07/2023 17:42</t>
-        </is>
-      </c>
-      <c r="T411" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="U411" t="inlineStr">
-        <is>
-          <t>15/07/2023 20:59</t>
-        </is>
-      </c>
       <c r="V411" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ca-estudiantes/l2f56m48/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-gimnasia-mendoza/YNJkIJAl/</t>
         </is>
       </c>
     </row>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -38301,22 +38301,22 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J412" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="L412" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
@@ -38324,31 +38324,31 @@
         </is>
       </c>
       <c r="N412" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>2.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>15/07/2023 20:58</t>
+          <t>15/07/2023 20:59</t>
         </is>
       </c>
       <c r="R412" t="n">
-        <v>3.57</v>
+        <v>4.06</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t>11/07/2023 22:12</t>
+          <t>11/07/2023 17:42</t>
         </is>
       </c>
       <c r="T412" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="U412" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/patronato-gimnasia-mendoza/YNJkIJAl/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-ca-estudiantes/l2f56m48/</t>
         </is>
       </c>
     </row>
@@ -39397,22 +39397,22 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I424" t="n">
         <v>1</v>
       </c>
       <c r="J424" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -39420,15 +39420,15 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.29</v>
+        <v>3.39</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:53</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>2.99</v>
+        <v>2.71</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -39436,15 +39436,15 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>3.61</v>
+        <v>2.95</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
@@ -39452,16 +39452,16 @@
         </is>
       </c>
       <c r="T424" t="n">
-        <v>3.81</v>
+        <v>2.71</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/07/2023 19:54</t>
+          <t>22/07/2023 19:56</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
         </is>
       </c>
     </row>
@@ -39581,22 +39581,22 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="I426" t="n">
         <v>1</v>
       </c>
       <c r="J426" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -39604,15 +39604,15 @@
         </is>
       </c>
       <c r="L426" t="n">
-        <v>3.39</v>
+        <v>2.29</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:53</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
@@ -39620,15 +39620,15 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2.63</v>
+        <v>2.89</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>2.95</v>
+        <v>3.61</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
@@ -39636,16 +39636,16 @@
         </is>
       </c>
       <c r="T426" t="n">
-        <v>2.71</v>
+        <v>3.81</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/07/2023 19:56</t>
+          <t>22/07/2023 19:54</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-estudiantes-rio-cuarto/U9alwLnE/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-quilmes/OKnI3olR/</t>
         </is>
       </c>
     </row>
@@ -41145,71 +41145,71 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Deportivo Moron</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="L443" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="N443" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:18</t>
+          <t>29/07/2023 20:28</t>
         </is>
       </c>
       <c r="R443" t="n">
-        <v>4.33</v>
+        <v>4.94</v>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>27/07/2023 23:42</t>
+          <t>25/07/2023 16:42</t>
         </is>
       </c>
       <c r="T443" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>29/07/2023 20:05</t>
+          <t>29/07/2023 20:29</t>
         </is>
       </c>
       <c r="V443" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
         </is>
       </c>
     </row>
@@ -41237,71 +41237,71 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Deportivo Moron</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="N444" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:28</t>
+          <t>29/07/2023 20:18</t>
         </is>
       </c>
       <c r="R444" t="n">
-        <v>4.94</v>
+        <v>4.33</v>
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>25/07/2023 16:42</t>
+          <t>27/07/2023 23:42</t>
         </is>
       </c>
       <c r="T444" t="n">
-        <v>4.34</v>
+        <v>5.28</v>
       </c>
       <c r="U444" t="inlineStr">
         <is>
-          <t>29/07/2023 20:29</t>
+          <t>29/07/2023 20:05</t>
         </is>
       </c>
       <c r="V444" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-almagro/0bwXUdff/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-moron-gimnasia-mendoza/zB42pxfs/</t>
         </is>
       </c>
     </row>
@@ -41605,22 +41605,22 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
       <c r="J448" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -41628,15 +41628,15 @@
         </is>
       </c>
       <c r="L448" t="n">
-        <v>2.44</v>
+        <v>2.01</v>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:27</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="N448" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="O448" t="inlineStr">
         <is>
@@ -41644,15 +41644,15 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2.77</v>
+        <v>3.24</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:26</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="R448" t="n">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
       <c r="S448" t="inlineStr">
         <is>
@@ -41660,16 +41660,16 @@
         </is>
       </c>
       <c r="T448" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="U448" t="inlineStr">
         <is>
-          <t>30/07/2023 20:28</t>
+          <t>30/07/2023 20:29</t>
         </is>
       </c>
       <c r="V448" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-patronato/E136qd9m/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-mitre/dlZmH4IQ/</t>
         </is>
       </c>
     </row>
@@ -41697,22 +41697,22 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G449" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -41720,15 +41720,15 @@
         </is>
       </c>
       <c r="L449" t="n">
-        <v>2.01</v>
+        <v>2.44</v>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:27</t>
         </is>
       </c>
       <c r="N449" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="O449" t="inlineStr">
         <is>
@@ -41736,15 +41736,15 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3.24</v>
+        <v>2.77</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:26</t>
         </is>
       </c>
       <c r="R449" t="n">
-        <v>3.25</v>
+        <v>3.46</v>
       </c>
       <c r="S449" t="inlineStr">
         <is>
@@ -41752,16 +41752,16 @@
         </is>
       </c>
       <c r="T449" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="U449" t="inlineStr">
         <is>
-          <t>30/07/2023 20:29</t>
+          <t>30/07/2023 20:28</t>
         </is>
       </c>
       <c r="V449" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/tristan-suarez-ca-mitre/dlZmH4IQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-patronato/E136qd9m/</t>
         </is>
       </c>
     </row>
@@ -43261,22 +43261,22 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Atl. Rafaela</t>
         </is>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Brown Adrogue</t>
         </is>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -43284,15 +43284,15 @@
         </is>
       </c>
       <c r="L466" t="n">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>06/08/2023 20:52</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="N466" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="O466" t="inlineStr">
         <is>
@@ -43300,15 +43300,15 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>06/08/2023 20:52</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="R466" t="n">
-        <v>4.04</v>
+        <v>4.16</v>
       </c>
       <c r="S466" t="inlineStr">
         <is>
@@ -43316,16 +43316,16 @@
         </is>
       </c>
       <c r="T466" t="n">
-        <v>4.32</v>
+        <v>4.16</v>
       </c>
       <c r="U466" t="inlineStr">
         <is>
-          <t>06/08/2023 20:52</t>
+          <t>06/08/2023 20:59</t>
         </is>
       </c>
       <c r="V466" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-riestra/6sm5Nuu0/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-brown-adrogue/zgDQUNnQ/</t>
         </is>
       </c>
     </row>
@@ -43353,22 +43353,22 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -43376,15 +43376,15 @@
         </is>
       </c>
       <c r="L467" t="n">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:52</t>
         </is>
       </c>
       <c r="N467" t="n">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="O467" t="inlineStr">
         <is>
@@ -43392,15 +43392,15 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:52</t>
         </is>
       </c>
       <c r="R467" t="n">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
       <c r="S467" t="inlineStr">
         <is>
@@ -43408,16 +43408,16 @@
         </is>
       </c>
       <c r="T467" t="n">
-        <v>3.88</v>
+        <v>4.32</v>
       </c>
       <c r="U467" t="inlineStr">
         <is>
-          <t>06/08/2023 20:59</t>
+          <t>06/08/2023 20:52</t>
         </is>
       </c>
       <c r="V467" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-atletico-atlanta/29tELJ9C/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-deportivo-riestra/6sm5Nuu0/</t>
         </is>
       </c>
     </row>
@@ -43445,22 +43445,22 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Atl. Rafaela</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Brown Adrogue</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         </is>
       </c>
       <c r="L468" t="n">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="M468" t="inlineStr">
         <is>
@@ -43484,7 +43484,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -43492,7 +43492,7 @@
         </is>
       </c>
       <c r="R468" t="n">
-        <v>4.16</v>
+        <v>3.98</v>
       </c>
       <c r="S468" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         </is>
       </c>
       <c r="T468" t="n">
-        <v>4.16</v>
+        <v>3.88</v>
       </c>
       <c r="U468" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
       </c>
       <c r="V468" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-brown-adrogue/zgDQUNnQ/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-mitre-atletico-atlanta/29tELJ9C/</t>
         </is>
       </c>
     </row>
@@ -43721,7 +43721,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G471" t="n">
@@ -43729,63 +43729,63 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="I471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J471" t="n">
-        <v>1.94</v>
+        <v>3.32</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="L471" t="n">
-        <v>1.91</v>
+        <v>4.17</v>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="N471" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>3.14</v>
+        <v>2.93</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:27</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="R471" t="n">
-        <v>4.77</v>
+        <v>2.44</v>
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>03/08/2023 20:52</t>
+          <t>01/08/2023 19:12</t>
         </is>
       </c>
       <c r="T471" t="n">
-        <v>4.86</v>
+        <v>2.15</v>
       </c>
       <c r="U471" t="inlineStr">
         <is>
-          <t>07/08/2023 20:25</t>
+          <t>07/08/2023 20:29</t>
         </is>
       </c>
       <c r="V471" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
         </is>
       </c>
     </row>
@@ -43813,7 +43813,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G472" t="n">
@@ -43821,63 +43821,63 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I472" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J472" t="n">
-        <v>3.32</v>
+        <v>1.94</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="L472" t="n">
-        <v>4.17</v>
+        <v>1.91</v>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="N472" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:27</t>
         </is>
       </c>
       <c r="R472" t="n">
-        <v>2.44</v>
+        <v>4.77</v>
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t>01/08/2023 19:12</t>
+          <t>03/08/2023 20:52</t>
         </is>
       </c>
       <c r="T472" t="n">
-        <v>2.15</v>
+        <v>4.86</v>
       </c>
       <c r="U472" t="inlineStr">
         <is>
-          <t>07/08/2023 20:29</t>
+          <t>07/08/2023 20:25</t>
         </is>
       </c>
       <c r="V472" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-estudiantes-rio-cuarto/rseNuE8C/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-temperley/vJ5XceOt/</t>
         </is>
       </c>
     </row>
@@ -44549,22 +44549,22 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
       <c r="J480" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -44572,15 +44572,15 @@
         </is>
       </c>
       <c r="L480" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="N480" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="O480" t="inlineStr">
         <is>
@@ -44588,15 +44588,15 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="R480" t="n">
-        <v>3.94</v>
+        <v>3.39</v>
       </c>
       <c r="S480" t="inlineStr">
         <is>
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="T480" t="n">
-        <v>4.89</v>
+        <v>4.14</v>
       </c>
       <c r="U480" t="inlineStr">
         <is>
-          <t>16/08/2023 00:32</t>
+          <t>16/08/2023 00:55</t>
         </is>
       </c>
       <c r="V480" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-guillermo-brown/U7bpeg8a/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-flandria/2cjchihI/</t>
         </is>
       </c>
     </row>
@@ -44641,22 +44641,22 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -44664,15 +44664,15 @@
         </is>
       </c>
       <c r="L481" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="N481" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O481" t="inlineStr">
         <is>
@@ -44680,15 +44680,15 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="R481" t="n">
-        <v>3.39</v>
+        <v>3.94</v>
       </c>
       <c r="S481" t="inlineStr">
         <is>
@@ -44696,16 +44696,16 @@
         </is>
       </c>
       <c r="T481" t="n">
-        <v>4.14</v>
+        <v>4.89</v>
       </c>
       <c r="U481" t="inlineStr">
         <is>
-          <t>16/08/2023 00:55</t>
+          <t>16/08/2023 00:32</t>
         </is>
       </c>
       <c r="V481" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/all-boys-flandria/2cjchihI/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/temperley-guillermo-brown/U7bpeg8a/</t>
         </is>
       </c>
     </row>
@@ -48965,22 +48965,22 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="I528" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J528" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -48988,15 +48988,15 @@
         </is>
       </c>
       <c r="L528" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>03/09/2023 19:14</t>
+          <t>03/09/2023 17:40</t>
         </is>
       </c>
       <c r="N528" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O528" t="inlineStr">
         <is>
@@ -49004,15 +49004,15 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>03/09/2023 20:15</t>
+          <t>03/09/2023 13:13</t>
         </is>
       </c>
       <c r="R528" t="n">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="S528" t="inlineStr">
         <is>
@@ -49020,16 +49020,16 @@
         </is>
       </c>
       <c r="T528" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="U528" t="inlineStr">
         <is>
-          <t>03/09/2023 20:15</t>
+          <t>03/09/2023 17:40</t>
         </is>
       </c>
       <c r="V528" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-agropecuario/E1uzkcc1/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-temperley/OCnNiaDr/</t>
         </is>
       </c>
     </row>
@@ -49057,22 +49057,22 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="G529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="I529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J529" t="n">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -49080,15 +49080,15 @@
         </is>
       </c>
       <c r="L529" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>03/09/2023 17:40</t>
+          <t>03/09/2023 19:14</t>
         </is>
       </c>
       <c r="N529" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="O529" t="inlineStr">
         <is>
@@ -49096,15 +49096,15 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>03/09/2023 13:13</t>
+          <t>03/09/2023 20:15</t>
         </is>
       </c>
       <c r="R529" t="n">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="S529" t="inlineStr">
         <is>
@@ -49112,16 +49112,16 @@
         </is>
       </c>
       <c r="T529" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="U529" t="inlineStr">
         <is>
-          <t>03/09/2023 17:40</t>
+          <t>03/09/2023 20:15</t>
         </is>
       </c>
       <c r="V529" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-temperley/OCnNiaDr/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/guillermo-brown-agropecuario/E1uzkcc1/</t>
         </is>
       </c>
     </row>
@@ -50345,7 +50345,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -50353,14 +50353,14 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -50368,15 +50368,15 @@
         </is>
       </c>
       <c r="L543" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="N543" t="n">
-        <v>3.14</v>
+        <v>3.51</v>
       </c>
       <c r="O543" t="inlineStr">
         <is>
@@ -50384,15 +50384,15 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3.02</v>
+        <v>3.64</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:54</t>
         </is>
       </c>
       <c r="R543" t="n">
-        <v>4.13</v>
+        <v>6.11</v>
       </c>
       <c r="S543" t="inlineStr">
         <is>
@@ -50400,16 +50400,16 @@
         </is>
       </c>
       <c r="T543" t="n">
-        <v>3.67</v>
+        <v>6.63</v>
       </c>
       <c r="U543" t="inlineStr">
         <is>
-          <t>10/09/2023 19:59</t>
+          <t>10/09/2023 19:49</t>
         </is>
       </c>
       <c r="V543" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
         </is>
       </c>
     </row>
@@ -50437,7 +50437,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G544" t="n">
@@ -50445,14 +50445,14 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J544" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -50460,15 +50460,15 @@
         </is>
       </c>
       <c r="L544" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="N544" t="n">
-        <v>3.51</v>
+        <v>3.14</v>
       </c>
       <c r="O544" t="inlineStr">
         <is>
@@ -50476,15 +50476,15 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>3.64</v>
+        <v>3.02</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>10/09/2023 19:54</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="R544" t="n">
-        <v>6.11</v>
+        <v>4.13</v>
       </c>
       <c r="S544" t="inlineStr">
         <is>
@@ -50492,16 +50492,16 @@
         </is>
       </c>
       <c r="T544" t="n">
-        <v>6.63</v>
+        <v>3.67</v>
       </c>
       <c r="U544" t="inlineStr">
         <is>
-          <t>10/09/2023 19:49</t>
+          <t>10/09/2023 19:59</t>
         </is>
       </c>
       <c r="V544" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/agropecuario-defensores-unidos/hhvvlHC7/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/san-telmo-flandria/KbWPBK4E/</t>
         </is>
       </c>
     </row>
@@ -50713,7 +50713,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G547" t="n">
@@ -50721,63 +50721,63 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>CA Estudiantes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J547" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="L547" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="N547" t="n">
-        <v>3.29</v>
+        <v>2.99</v>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="R547" t="n">
-        <v>4.78</v>
+        <v>3.48</v>
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t>05/09/2023 17:12</t>
+          <t>06/09/2023 02:13</t>
         </is>
       </c>
       <c r="T547" t="n">
-        <v>4.62</v>
+        <v>3.68</v>
       </c>
       <c r="U547" t="inlineStr">
         <is>
-          <t>10/09/2023 20:21</t>
+          <t>10/09/2023 20:01</t>
         </is>
       </c>
       <c r="V547" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
         </is>
       </c>
     </row>
@@ -50805,7 +50805,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G548" t="n">
@@ -50813,63 +50813,63 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J548" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="L548" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="N548" t="n">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="R548" t="n">
-        <v>3.48</v>
+        <v>4.78</v>
       </c>
       <c r="S548" t="inlineStr">
         <is>
-          <t>06/09/2023 02:13</t>
+          <t>05/09/2023 17:12</t>
         </is>
       </c>
       <c r="T548" t="n">
-        <v>3.68</v>
+        <v>4.62</v>
       </c>
       <c r="U548" t="inlineStr">
         <is>
-          <t>10/09/2023 20:01</t>
+          <t>10/09/2023 20:21</t>
         </is>
       </c>
       <c r="V548" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atletico-atlanta-racing-cordoba/ET3spF9R/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ca-estudiantes/viPvQgIe/</t>
         </is>
       </c>
     </row>
@@ -51725,22 +51725,22 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="G558" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Villa Dalmine</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>1.35</v>
+        <v>2.8</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -51748,15 +51748,15 @@
         </is>
       </c>
       <c r="L558" t="n">
-        <v>1.34</v>
+        <v>3.08</v>
       </c>
       <c r="M558" t="inlineStr">
         <is>
-          <t>16/09/2023 19:40</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="N558" t="n">
-        <v>4.55</v>
+        <v>2.77</v>
       </c>
       <c r="O558" t="inlineStr">
         <is>
@@ -51764,7 +51764,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4.81</v>
+        <v>2.87</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -51772,7 +51772,7 @@
         </is>
       </c>
       <c r="R558" t="n">
-        <v>8.08</v>
+        <v>2.98</v>
       </c>
       <c r="S558" t="inlineStr">
         <is>
@@ -51780,7 +51780,7 @@
         </is>
       </c>
       <c r="T558" t="n">
-        <v>10.24</v>
+        <v>2.7</v>
       </c>
       <c r="U558" t="inlineStr">
         <is>
@@ -51789,7 +51789,7 @@
       </c>
       <c r="V558" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
         </is>
       </c>
     </row>
@@ -51909,7 +51909,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="G560" t="n">
@@ -51917,14 +51917,14 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -51932,15 +51932,15 @@
         </is>
       </c>
       <c r="L560" t="n">
-        <v>3.08</v>
+        <v>2.44</v>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="N560" t="n">
-        <v>2.77</v>
+        <v>2.99</v>
       </c>
       <c r="O560" t="inlineStr">
         <is>
@@ -51948,15 +51948,15 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="R560" t="n">
-        <v>2.98</v>
+        <v>3.66</v>
       </c>
       <c r="S560" t="inlineStr">
         <is>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="T560" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="U560" t="inlineStr">
         <is>
-          <t>16/09/2023 20:29</t>
+          <t>16/09/2023 20:26</t>
         </is>
       </c>
       <c r="V560" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/flandria-almagro/YPzrIeRm/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
         </is>
       </c>
     </row>
@@ -52001,22 +52001,22 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G561" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Villa Dalmine</t>
         </is>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>2.15</v>
+        <v>1.35</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -52024,15 +52024,15 @@
         </is>
       </c>
       <c r="L561" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 19:40</t>
         </is>
       </c>
       <c r="N561" t="n">
-        <v>2.99</v>
+        <v>4.55</v>
       </c>
       <c r="O561" t="inlineStr">
         <is>
@@ -52040,15 +52040,15 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2.67</v>
+        <v>4.81</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="R561" t="n">
-        <v>3.66</v>
+        <v>8.08</v>
       </c>
       <c r="S561" t="inlineStr">
         <is>
@@ -52056,16 +52056,16 @@
         </is>
       </c>
       <c r="T561" t="n">
-        <v>3.85</v>
+        <v>10.24</v>
       </c>
       <c r="U561" t="inlineStr">
         <is>
-          <t>16/09/2023 20:26</t>
+          <t>16/09/2023 20:29</t>
         </is>
       </c>
       <c r="V561" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/club-atletico-guemes-nueva-chicago/GQo4PwZD/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-villa-dalmine/hYsKcYwR/</t>
         </is>
       </c>
     </row>
@@ -57613,7 +57613,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="G622" t="n">
@@ -57621,63 +57621,63 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="I622" t="n">
         <v>1</v>
       </c>
       <c r="J622" t="n">
-        <v>3.01</v>
+        <v>1.99</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>03/10/2023 16:42</t>
+          <t>03/10/2023 16:43</t>
         </is>
       </c>
       <c r="L622" t="n">
-        <v>3.36</v>
+        <v>1.9</v>
       </c>
       <c r="M622" t="inlineStr">
         <is>
-          <t>08/10/2023 20:29</t>
+          <t>08/10/2023 20:21</t>
         </is>
       </c>
       <c r="N622" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>03/10/2023 16:42</t>
+          <t>03/10/2023 16:43</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>08/10/2023 20:29</t>
+          <t>08/10/2023 20:21</t>
         </is>
       </c>
       <c r="R622" t="n">
-        <v>2.58</v>
+        <v>4.13</v>
       </c>
       <c r="S622" t="inlineStr">
         <is>
-          <t>03/10/2023 16:42</t>
+          <t>03/10/2023 16:43</t>
         </is>
       </c>
       <c r="T622" t="n">
-        <v>2.27</v>
+        <v>4.98</v>
       </c>
       <c r="U622" t="inlineStr">
         <is>
-          <t>08/10/2023 20:28</t>
+          <t>08/10/2023 20:21</t>
         </is>
       </c>
       <c r="V622" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-maipu/bg7c7r7h/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-ferro/vRsWLsMo/</t>
         </is>
       </c>
     </row>
@@ -57705,22 +57705,22 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Flandria</t>
         </is>
       </c>
       <c r="I623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J623" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -57728,15 +57728,15 @@
         </is>
       </c>
       <c r="L623" t="n">
-        <v>1.9</v>
+        <v>2.31</v>
       </c>
       <c r="M623" t="inlineStr">
         <is>
-          <t>08/10/2023 20:21</t>
+          <t>08/10/2023 20:27</t>
         </is>
       </c>
       <c r="N623" t="n">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="O623" t="inlineStr">
         <is>
@@ -57744,15 +57744,15 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>08/10/2023 20:21</t>
+          <t>08/10/2023 20:27</t>
         </is>
       </c>
       <c r="R623" t="n">
-        <v>4.13</v>
+        <v>4.21</v>
       </c>
       <c r="S623" t="inlineStr">
         <is>
@@ -57760,16 +57760,16 @@
         </is>
       </c>
       <c r="T623" t="n">
-        <v>4.98</v>
+        <v>3.54</v>
       </c>
       <c r="U623" t="inlineStr">
         <is>
-          <t>08/10/2023 20:21</t>
+          <t>08/10/2023 20:28</t>
         </is>
       </c>
       <c r="V623" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-riestra-ferro/vRsWLsMo/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-flandria/8zevrqoA/</t>
         </is>
       </c>
     </row>
@@ -57797,62 +57797,62 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="G624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="I624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J624" t="n">
-        <v>2.01</v>
+        <v>3.01</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>03/10/2023 16:43</t>
+          <t>03/10/2023 16:42</t>
         </is>
       </c>
       <c r="L624" t="n">
-        <v>2.31</v>
+        <v>3.36</v>
       </c>
       <c r="M624" t="inlineStr">
         <is>
-          <t>08/10/2023 20:27</t>
+          <t>08/10/2023 20:29</t>
         </is>
       </c>
       <c r="N624" t="n">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>03/10/2023 16:43</t>
+          <t>03/10/2023 16:42</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>3.03</v>
+        <v>3.27</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>08/10/2023 20:27</t>
+          <t>08/10/2023 20:29</t>
         </is>
       </c>
       <c r="R624" t="n">
-        <v>4.21</v>
+        <v>2.58</v>
       </c>
       <c r="S624" t="inlineStr">
         <is>
-          <t>03/10/2023 16:43</t>
+          <t>03/10/2023 16:42</t>
         </is>
       </c>
       <c r="T624" t="n">
-        <v>3.54</v>
+        <v>2.27</v>
       </c>
       <c r="U624" t="inlineStr">
         <is>
@@ -57861,7 +57861,7 @@
       </c>
       <c r="V624" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/argentina/primera-nacional/defensores-unidos-flandria/8zevrqoA/</t>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/aldosivi-deportivo-maipu/bg7c7r7h/</t>
         </is>
       </c>
     </row>
@@ -58230,6 +58230,834 @@
       <c r="V628" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/argentina/primera-nacional/ind-rivadavia-villa-dalmine/CdB162Mb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E629" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>Quilmes</t>
+        </is>
+      </c>
+      <c r="G629" t="n">
+        <v>1</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Racing Cordoba</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>2</v>
+      </c>
+      <c r="J629" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L629" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N629" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P629" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q629" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R629" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="S629" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T629" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U629" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V629" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/quilmes-racing-cordoba/EqzqJu64/</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E630" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>Atl. Rafaela</t>
+        </is>
+      </c>
+      <c r="G630" t="n">
+        <v>1</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Chacarita Juniors</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>1</v>
+      </c>
+      <c r="J630" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L630" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N630" t="n">
+        <v>3</v>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P630" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q630" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R630" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S630" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T630" t="n">
+        <v>2</v>
+      </c>
+      <c r="U630" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="V630" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/atl-rafaela-chacarita-juniors/25SeGwjN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E631" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>Brown Adrogue</t>
+        </is>
+      </c>
+      <c r="G631" t="n">
+        <v>2</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Atletico Atlanta</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>1</v>
+      </c>
+      <c r="J631" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L631" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N631" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P631" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q631" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R631" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S631" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T631" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U631" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V631" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/brown-adrogue-atletico-atlanta/86ZnIaLA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E632" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>CA Estudiantes</t>
+        </is>
+      </c>
+      <c r="G632" t="n">
+        <v>0</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Tristan Suarez</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>2</v>
+      </c>
+      <c r="J632" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L632" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N632" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P632" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q632" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="R632" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S632" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T632" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U632" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V632" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ca-estudiantes-tristan-suarez/KtwiHJzH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E633" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="G633" t="n">
+        <v>0</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>CA Mitre</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>2</v>
+      </c>
+      <c r="J633" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L633" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N633" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P633" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q633" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="R633" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S633" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T633" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U633" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V633" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-madryn-ca-mitre/tdRaFc5T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E634" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Deportivo Maipu</t>
+        </is>
+      </c>
+      <c r="G634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Ind. Rivadavia</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>1</v>
+      </c>
+      <c r="J634" t="n">
+        <v>2</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L634" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N634" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P634" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q634" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R634" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S634" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T634" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U634" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V634" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/deportivo-maipu-ind-rivadavia/CvIV9yTj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E635" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>Ferro</t>
+        </is>
+      </c>
+      <c r="G635" t="n">
+        <v>0</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L635" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N635" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P635" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q635" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R635" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="S635" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T635" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U635" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V635" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/ferro-aldosivi/IHtzL1yh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E636" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy</t>
+        </is>
+      </c>
+      <c r="G636" t="n">
+        <v>0</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>Dep. Riestra</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>1</v>
+      </c>
+      <c r="J636" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L636" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="N636" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P636" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q636" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R636" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S636" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T636" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U636" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:21</t>
+        </is>
+      </c>
+      <c r="V636" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/gimnasia-jujuy-deportivo-riestra/zgyuKLjb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>argentina</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>primera-nacional</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E637" s="2" t="n">
+        <v>45214.85416666666</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>Villa Dalmine</t>
+        </is>
+      </c>
+      <c r="G637" t="n">
+        <v>0</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>1</v>
+      </c>
+      <c r="J637" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L637" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="N637" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P637" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q637" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="R637" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S637" t="inlineStr">
+        <is>
+          <t>10/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T637" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U637" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="V637" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/argentina/primera-nacional/villa-dalmine-chaco-for-ever/YmJRAHDp/</t>
         </is>
       </c>
     </row>
